--- a/2ИСИП-422_ДисМат_.xlsx
+++ b/2ИСИП-422_ДисМат_.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
   <si>
     <t>2ИСИП-422: Дискретная математика с элементами математической логики (Сибирев И. В.) - I семестр</t>
   </si>
@@ -112,6 +112,27 @@
   </si>
   <si>
     <t>ОК</t>
+  </si>
+  <si>
+    <t>ДЗ1</t>
+  </si>
+  <si>
+    <t>ДЗ2</t>
+  </si>
+  <si>
+    <t>ДЗ3</t>
+  </si>
+  <si>
+    <t>ДЗ4</t>
+  </si>
+  <si>
+    <t>ДЗ5</t>
+  </si>
+  <si>
+    <t>ДЗ6</t>
+  </si>
+  <si>
+    <t>ДЗ7</t>
   </si>
 </sst>
 </file>
@@ -500,7 +521,7 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F4" sqref="F4"/>
+      <selection pane="bottomRight" activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -535,21 +556,31 @@
       <c r="V1" s="5"/>
       <c r="W1" s="5"/>
     </row>
-    <row r="3" spans="1:23" ht="29" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="1">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1">
-        <v>2</v>
-      </c>
-      <c r="E3" s="1">
-        <v>3</v>
-      </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:23" ht="13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" ht="13" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:23" ht="29" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -620,14 +651,20 @@
       <c r="B9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="2"/>
+      <c r="C9" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="2"/>
+      <c r="F9" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
+      <c r="H9" s="2" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="10" spans="1:23" ht="13" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
@@ -726,8 +763,11 @@
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
-    </row>
-    <row r="17" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+      <c r="I16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>13</v>
       </c>
@@ -741,7 +781,7 @@
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
     </row>
-    <row r="18" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>14</v>
       </c>
@@ -754,8 +794,11 @@
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
-    </row>
-    <row r="19" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+      <c r="I18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>15</v>
       </c>
@@ -769,7 +812,7 @@
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
     </row>
-    <row r="20" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>16</v>
       </c>
@@ -783,7 +826,7 @@
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
     </row>
-    <row r="21" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>17</v>
       </c>
@@ -797,7 +840,7 @@
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
     </row>
-    <row r="22" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>18</v>
       </c>
@@ -811,7 +854,7 @@
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
     </row>
-    <row r="23" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>19</v>
       </c>
@@ -825,7 +868,7 @@
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
     </row>
-    <row r="24" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>20</v>
       </c>
@@ -839,7 +882,7 @@
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
     </row>
-    <row r="25" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>21</v>
       </c>
@@ -853,7 +896,7 @@
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
     </row>
-    <row r="26" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>22</v>
       </c>
@@ -867,7 +910,7 @@
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
     </row>
-    <row r="27" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>23</v>
       </c>
@@ -881,7 +924,7 @@
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
     </row>
-    <row r="28" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>24</v>
       </c>
@@ -895,7 +938,7 @@
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
     </row>
-    <row r="29" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>25</v>
       </c>
@@ -909,7 +952,7 @@
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
     </row>
-    <row r="30" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>26</v>
       </c>
@@ -923,7 +966,7 @@
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
     </row>
-    <row r="31" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>27</v>
       </c>
@@ -937,7 +980,7 @@
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
     </row>
-    <row r="32" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>28</v>
       </c>

--- a/2ИСИП-422_ДисМат_.xlsx
+++ b/2ИСИП-422_ДисМат_.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
   <si>
     <t>2ИСИП-422: Дискретная математика с элементами математической логики (Сибирев И. В.) - I семестр</t>
   </si>
@@ -518,10 +518,10 @@
   <dimension ref="A1:W34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I19" sqref="I19"/>
+      <selection pane="bottomRight" activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -833,9 +833,15 @@
       <c r="B21" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
+      <c r="C21" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>

--- a/2ИСИП-422_ДисМат_.xlsx
+++ b/2ИСИП-422_ДисМат_.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="38">
   <si>
     <t>2ИСИП-422: Дискретная математика с элементами математической логики (Сибирев И. В.) - I семестр</t>
   </si>
@@ -521,7 +521,7 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E21" sqref="E21"/>
+      <selection pane="bottomRight" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -805,7 +805,9 @@
       <c r="B19" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="2"/>
+      <c r="C19" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>

--- a/2ИСИП-422_ДисМат_.xlsx
+++ b/2ИСИП-422_ДисМат_.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="39">
   <si>
     <t>2ИСИП-422: Дискретная математика с элементами математической логики (Сибирев И. В.) - I семестр</t>
   </si>
@@ -133,6 +133,9 @@
   </si>
   <si>
     <t>ДЗ7</t>
+  </si>
+  <si>
+    <t>ok</t>
   </si>
 </sst>
 </file>
@@ -521,7 +524,7 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C19" sqref="C19"/>
+      <selection pane="bottomRight" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -602,7 +605,7 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:23" ht="13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -616,21 +619,32 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:23" ht="13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="2"/>
+      <c r="C7" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
+      <c r="E7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="1:23" ht="13" x14ac:dyDescent="0.25">
+      <c r="H7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>4</v>
       </c>
@@ -701,8 +715,12 @@
       <c r="B12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
+      <c r="C12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -736,7 +754,7 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
     </row>
-    <row r="15" spans="1:23" ht="13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>11</v>
       </c>
@@ -750,24 +768,36 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
     </row>
-    <row r="16" spans="1:23" ht="13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>12</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="13" x14ac:dyDescent="0.25">
+      <c r="C16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>13</v>
       </c>
@@ -848,7 +878,7 @@
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
     </row>
-    <row r="22" spans="1:9" ht="13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>18</v>
       </c>
@@ -862,21 +892,34 @@
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
     </row>
-    <row r="23" spans="1:9" ht="13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>19</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-    </row>
-    <row r="24" spans="1:9" ht="13" x14ac:dyDescent="0.25">
+      <c r="C23" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I23" s="2"/>
+    </row>
+    <row r="24" spans="1:9" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>20</v>
       </c>
@@ -890,21 +933,36 @@
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
     </row>
-    <row r="25" spans="1:9" ht="13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>21</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-    </row>
-    <row r="26" spans="1:9" ht="13" x14ac:dyDescent="0.25">
+      <c r="C25" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>22</v>
       </c>

--- a/2ИСИП-422_ДисМат_.xlsx
+++ b/2ИСИП-422_ДисМат_.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="40">
   <si>
     <t>2ИСИП-422: Дискретная математика с элементами математической логики (Сибирев И. В.) - I семестр</t>
   </si>
@@ -136,6 +136,9 @@
   </si>
   <si>
     <t>ok</t>
+  </si>
+  <si>
+    <t>ок</t>
   </si>
 </sst>
 </file>
@@ -174,7 +177,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -197,11 +200,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -214,6 +228,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -521,10 +538,10 @@
   <dimension ref="A1:W34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F7" sqref="F7"/>
+      <selection pane="bottomRight" activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -668,7 +685,9 @@
       <c r="C9" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="E9" s="2" t="s">
         <v>30</v>
       </c>
@@ -678,6 +697,9 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2" t="s">
         <v>30</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:23" ht="13" x14ac:dyDescent="0.25">

--- a/2ИСИП-422_ДисМат_.xlsx
+++ b/2ИСИП-422_ДисМат_.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="40">
   <si>
     <t>2ИСИП-422: Дискретная математика с элементами математической логики (Сибирев И. В.) - I семестр</t>
   </si>
@@ -226,11 +226,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -538,10 +538,10 @@
   <dimension ref="A1:W34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L10" sqref="L10"/>
+      <selection pane="bottomRight" activeCell="C18" sqref="C18:I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -552,29 +552,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
-      <c r="W1" s="5"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
+      <c r="V1" s="6"/>
+      <c r="W1" s="6"/>
     </row>
     <row r="2" spans="1:23" ht="13" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:23" ht="29" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -698,7 +698,7 @@
       <c r="H9" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I9" s="6" t="s">
+      <c r="I9" s="4" t="s">
         <v>39</v>
       </c>
     </row>
@@ -748,7 +748,7 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:23" ht="13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>9</v>
       </c>
@@ -762,19 +762,34 @@
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="1:23" ht="13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>10</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
+      <c r="C14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="15" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
@@ -826,31 +841,58 @@
       <c r="B17" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-    </row>
-    <row r="18" spans="1:9" ht="13" x14ac:dyDescent="0.25">
+      <c r="C17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>14</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="13" x14ac:dyDescent="0.25">
+      <c r="C18" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>15</v>
       </c>
@@ -998,21 +1040,36 @@
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
     </row>
-    <row r="27" spans="1:9" ht="13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>23</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-    </row>
-    <row r="28" spans="1:9" ht="13" x14ac:dyDescent="0.25">
+      <c r="C27" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>24</v>
       </c>
@@ -1026,7 +1083,7 @@
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
     </row>
-    <row r="29" spans="1:9" ht="13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>25</v>
       </c>
@@ -1040,21 +1097,36 @@
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
     </row>
-    <row r="30" spans="1:9" ht="13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>26</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-    </row>
-    <row r="31" spans="1:9" ht="13" x14ac:dyDescent="0.25">
+      <c r="C30" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>27</v>
       </c>
@@ -1068,7 +1140,7 @@
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
     </row>
-    <row r="32" spans="1:9" ht="13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>28</v>
       </c>
@@ -1082,21 +1154,36 @@
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
     </row>
-    <row r="33" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>29</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C33" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="13" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>

--- a/2ИСИП-422_ДисМат_.xlsx
+++ b/2ИСИП-422_ДисМат_.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="40">
   <si>
     <t>2ИСИП-422: Дискретная математика с элементами математической логики (Сибирев И. В.) - I семестр</t>
   </si>
@@ -538,10 +538,10 @@
   <dimension ref="A1:W34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C18" sqref="C18:I18"/>
+      <selection pane="bottomRight" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -694,7 +694,9 @@
       <c r="F9" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G9" s="2"/>
+      <c r="G9" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="H9" s="2" t="s">
         <v>30</v>
       </c>
@@ -981,7 +983,9 @@
       <c r="H23" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I23" s="2"/>
+      <c r="I23" s="2" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="24" spans="1:9" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">

--- a/2ИСИП-422_ДисМат_.xlsx
+++ b/2ИСИП-422_ДисМат_.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="40">
   <si>
     <t>2ИСИП-422: Дискретная математика с элементами математической логики (Сибирев И. В.) - I семестр</t>
   </si>
@@ -538,10 +538,10 @@
   <dimension ref="A1:W34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G9" sqref="G9"/>
+      <selection pane="bottomRight" activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -675,7 +675,7 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:23" ht="13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>5</v>
       </c>
@@ -704,21 +704,36 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-    </row>
-    <row r="11" spans="1:23" ht="13" x14ac:dyDescent="0.25">
+      <c r="C10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>7</v>
       </c>
@@ -746,7 +761,9 @@
         <v>30</v>
       </c>
       <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+      <c r="F12" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
     </row>
@@ -996,10 +1013,21 @@
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
+      <c r="E24" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="25" spans="1:9" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">

--- a/2ИСИП-422_ДисМат_.xlsx
+++ b/2ИСИП-422_ДисМат_.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="40">
   <si>
     <t>2ИСИП-422: Дискретная математика с элементами математической логики (Сибирев И. В.) - I семестр</t>
   </si>
@@ -541,7 +541,7 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I10" sqref="I10"/>
+      <selection pane="bottomRight" activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -927,7 +927,7 @@
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
     </row>
-    <row r="20" spans="1:9" ht="13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>16</v>
       </c>
@@ -941,7 +941,7 @@
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
     </row>
-    <row r="21" spans="1:9" ht="13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>17</v>
       </c>
@@ -957,9 +957,18 @@
       <c r="E21" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
+      <c r="F21" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="22" spans="1:9" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">

--- a/2ИСИП-422_ДисМат_.xlsx
+++ b/2ИСИП-422_ДисМат_.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="40">
   <si>
     <t>2ИСИП-422: Дискретная математика с элементами математической логики (Сибирев И. В.) - I семестр</t>
   </si>
@@ -541,7 +541,7 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I21" sqref="I21"/>
+      <selection pane="bottomRight" activeCell="C6" sqref="C6:I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -629,12 +629,27 @@
       <c r="B6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
+      <c r="C6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="7" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
@@ -740,14 +755,29 @@
       <c r="B11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-    </row>
-    <row r="12" spans="1:23" ht="13" x14ac:dyDescent="0.25">
+      <c r="C11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>8</v>
       </c>
@@ -921,11 +951,24 @@
       <c r="C19" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
+      <c r="D19" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="20" spans="1:9" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">

--- a/2ИСИП-422_ДисМат_.xlsx
+++ b/2ИСИП-422_ДисМат_.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>2ИСИП-422: Дискретная математика с элементами математической логики (Сибирев И. В.) - I семестр</t>
   </si>
@@ -111,9 +111,6 @@
     <t>Юшина Полина</t>
   </si>
   <si>
-    <t>ОК</t>
-  </si>
-  <si>
     <t>ДЗ1</t>
   </si>
   <si>
@@ -133,12 +130,6 @@
   </si>
   <si>
     <t>ДЗ7</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>ок</t>
   </si>
 </sst>
 </file>
@@ -215,7 +206,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -229,6 +220,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
@@ -538,10 +530,10 @@
   <dimension ref="A1:W34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C6" sqref="C6:I6"/>
+      <selection pane="bottomRight" activeCell="P30" sqref="P30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -552,52 +544,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6"/>
-      <c r="U1" s="6"/>
-      <c r="V1" s="6"/>
-      <c r="W1" s="6"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7"/>
+      <c r="W1" s="7"/>
     </row>
     <row r="2" spans="1:23" ht="13" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:23" ht="29" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -608,7 +600,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:23" ht="13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -621,6 +613,13 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
+      <c r="K5">
+        <f>SUM(C5:I5)</f>
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>2</v>
+      </c>
     </row>
     <row r="6" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
@@ -629,26 +628,33 @@
       <c r="B6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>39</v>
+      <c r="C6" s="2">
+        <v>5</v>
+      </c>
+      <c r="D6" s="2">
+        <v>5</v>
+      </c>
+      <c r="E6" s="2">
+        <v>5</v>
+      </c>
+      <c r="F6" s="2">
+        <v>5</v>
+      </c>
+      <c r="G6" s="2">
+        <v>5</v>
+      </c>
+      <c r="H6" s="2">
+        <v>5</v>
+      </c>
+      <c r="I6" s="4">
+        <v>5</v>
+      </c>
+      <c r="K6" s="5">
+        <f t="shared" ref="K6:K33" si="0">SUM(C6:I6)</f>
+        <v>35</v>
+      </c>
+      <c r="M6">
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -658,22 +664,29 @@
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>30</v>
+      <c r="C7" s="2">
+        <v>5</v>
       </c>
       <c r="D7" s="2"/>
-      <c r="E7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>30</v>
+      <c r="E7" s="2">
+        <v>5</v>
+      </c>
+      <c r="F7" s="2">
+        <v>5</v>
       </c>
       <c r="G7" s="2"/>
-      <c r="H7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>30</v>
+      <c r="H7" s="2">
+        <v>5</v>
+      </c>
+      <c r="I7" s="2">
+        <v>5</v>
+      </c>
+      <c r="K7" s="5">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="M7">
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -689,6 +702,13 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
+      <c r="K8" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>2</v>
+      </c>
     </row>
     <row r="9" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
@@ -697,26 +717,33 @@
       <c r="B9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>39</v>
+      <c r="C9" s="2">
+        <v>5</v>
+      </c>
+      <c r="D9" s="2">
+        <v>5</v>
+      </c>
+      <c r="E9" s="2">
+        <v>5</v>
+      </c>
+      <c r="F9" s="2">
+        <v>5</v>
+      </c>
+      <c r="G9" s="2">
+        <v>5</v>
+      </c>
+      <c r="H9" s="2">
+        <v>5</v>
+      </c>
+      <c r="I9" s="4">
+        <v>5</v>
+      </c>
+      <c r="K9" s="5">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="M9">
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -726,26 +753,33 @@
       <c r="B10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>30</v>
+      <c r="C10" s="2">
+        <v>5</v>
+      </c>
+      <c r="D10" s="2">
+        <v>5</v>
+      </c>
+      <c r="E10" s="2">
+        <v>5</v>
+      </c>
+      <c r="F10" s="2">
+        <v>5</v>
+      </c>
+      <c r="G10" s="2">
+        <v>5</v>
+      </c>
+      <c r="H10" s="2">
+        <v>5</v>
+      </c>
+      <c r="I10" s="2">
+        <v>5</v>
+      </c>
+      <c r="K10" s="5">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="M10">
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -755,26 +789,33 @@
       <c r="B11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>30</v>
+      <c r="C11" s="2">
+        <v>5</v>
+      </c>
+      <c r="D11" s="2">
+        <v>5</v>
+      </c>
+      <c r="E11" s="2">
+        <v>5</v>
+      </c>
+      <c r="F11" s="2">
+        <v>5</v>
+      </c>
+      <c r="G11" s="2">
+        <v>5</v>
+      </c>
+      <c r="H11" s="2">
+        <v>5</v>
+      </c>
+      <c r="I11" s="2">
+        <v>5</v>
+      </c>
+      <c r="K11" s="5">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="M11">
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -784,18 +825,25 @@
       <c r="B12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>30</v>
+      <c r="C12" s="2">
+        <v>5</v>
+      </c>
+      <c r="D12" s="2">
+        <v>5</v>
       </c>
       <c r="E12" s="2"/>
-      <c r="F12" s="2" t="s">
-        <v>30</v>
+      <c r="F12" s="2">
+        <v>5</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
+      <c r="K12" s="5">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="M12">
+        <v>4</v>
+      </c>
     </row>
     <row r="13" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
@@ -810,6 +858,13 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
+      <c r="K13" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>2</v>
+      </c>
     </row>
     <row r="14" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
@@ -818,26 +873,33 @@
       <c r="B14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>30</v>
+      <c r="C14" s="2">
+        <v>5</v>
+      </c>
+      <c r="D14" s="2">
+        <v>5</v>
+      </c>
+      <c r="E14" s="2">
+        <v>5</v>
+      </c>
+      <c r="F14" s="2">
+        <v>5</v>
+      </c>
+      <c r="G14" s="2">
+        <v>5</v>
+      </c>
+      <c r="H14" s="2">
+        <v>5</v>
+      </c>
+      <c r="I14" s="2">
+        <v>5</v>
+      </c>
+      <c r="K14" s="5">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="M14">
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -853,6 +915,13 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
+      <c r="K15" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>2</v>
+      </c>
     </row>
     <row r="16" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
@@ -861,116 +930,144 @@
       <c r="B16" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="2">
+        <v>5</v>
+      </c>
+      <c r="D16" s="2">
+        <v>5</v>
+      </c>
+      <c r="E16" s="2">
+        <v>5</v>
+      </c>
+      <c r="F16" s="2">
+        <v>5</v>
+      </c>
+      <c r="G16" s="2">
+        <v>5</v>
+      </c>
+      <c r="H16" s="2">
+        <v>5</v>
+      </c>
+      <c r="I16" s="2">
+        <v>5</v>
+      </c>
+      <c r="K16" s="5">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="M16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>13</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="2">
+        <v>5</v>
+      </c>
+      <c r="D17" s="2">
+        <v>5</v>
+      </c>
+      <c r="E17" s="2">
+        <v>5</v>
+      </c>
+      <c r="F17" s="2">
+        <v>5</v>
+      </c>
+      <c r="G17" s="2">
+        <v>5</v>
+      </c>
+      <c r="H17" s="2">
+        <v>5</v>
+      </c>
+      <c r="I17" s="2">
+        <v>5</v>
+      </c>
+      <c r="K17" s="5">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="M17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>14</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="2">
+        <v>5</v>
+      </c>
+      <c r="D18" s="2">
+        <v>5</v>
+      </c>
+      <c r="E18" s="2">
+        <v>5</v>
+      </c>
+      <c r="F18" s="2">
+        <v>5</v>
+      </c>
+      <c r="G18" s="2">
+        <v>5</v>
+      </c>
+      <c r="H18" s="2">
+        <v>5</v>
+      </c>
+      <c r="I18" s="2">
+        <v>5</v>
+      </c>
+      <c r="K18" s="5">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="M18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>15</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="2">
+        <v>5</v>
+      </c>
+      <c r="D19" s="2">
+        <v>5</v>
+      </c>
+      <c r="E19" s="2">
+        <v>5</v>
+      </c>
+      <c r="F19" s="2">
+        <v>5</v>
+      </c>
+      <c r="G19" s="2">
+        <v>5</v>
+      </c>
+      <c r="H19" s="2">
+        <v>5</v>
+      </c>
+      <c r="I19" s="2">
+        <v>5</v>
+      </c>
+      <c r="K19" s="5">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="M19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>16</v>
       </c>
@@ -983,37 +1080,51 @@
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
-    </row>
-    <row r="21" spans="1:9" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K20" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>17</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C21" s="2">
+        <v>5</v>
+      </c>
+      <c r="D21" s="2">
+        <v>5</v>
+      </c>
+      <c r="E21" s="2">
+        <v>5</v>
+      </c>
+      <c r="F21" s="2">
+        <v>5</v>
+      </c>
+      <c r="G21" s="2">
+        <v>5</v>
+      </c>
+      <c r="H21" s="2">
+        <v>5</v>
+      </c>
+      <c r="I21" s="2">
+        <v>5</v>
+      </c>
+      <c r="K21" s="5">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="M21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>18</v>
       </c>
@@ -1026,37 +1137,51 @@
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
-    </row>
-    <row r="23" spans="1:9" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K22" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>19</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C23" s="2">
+        <v>5</v>
+      </c>
+      <c r="D23" s="2">
+        <v>5</v>
+      </c>
+      <c r="E23" s="2">
+        <v>5</v>
+      </c>
+      <c r="F23" s="2">
+        <v>5</v>
+      </c>
+      <c r="G23" s="2">
+        <v>5</v>
+      </c>
+      <c r="H23" s="2">
+        <v>5</v>
+      </c>
+      <c r="I23" s="2">
+        <v>5</v>
+      </c>
+      <c r="K23" s="5">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="M23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>20</v>
       </c>
@@ -1065,52 +1190,67 @@
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
-      <c r="E24" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E24" s="2">
+        <v>5</v>
+      </c>
+      <c r="F24" s="2">
+        <v>5</v>
+      </c>
+      <c r="G24" s="2">
+        <v>5</v>
+      </c>
+      <c r="H24" s="2">
+        <v>5</v>
+      </c>
+      <c r="I24" s="2">
+        <v>5</v>
+      </c>
+      <c r="J24" s="2"/>
+      <c r="K24" s="5">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="M24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>21</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C25" s="2">
+        <v>5</v>
+      </c>
+      <c r="D25" s="2">
+        <v>5</v>
+      </c>
+      <c r="E25" s="2">
+        <v>5</v>
+      </c>
+      <c r="F25" s="2">
+        <v>5</v>
+      </c>
+      <c r="G25" s="2">
+        <v>5</v>
+      </c>
+      <c r="H25" s="2">
+        <v>5</v>
+      </c>
+      <c r="I25" s="2">
+        <v>5</v>
+      </c>
+      <c r="K25" s="5">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="M25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>22</v>
       </c>
@@ -1123,37 +1263,51 @@
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
-    </row>
-    <row r="27" spans="1:9" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K26" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>23</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C27" s="2">
+        <v>5</v>
+      </c>
+      <c r="D27" s="2">
+        <v>5</v>
+      </c>
+      <c r="E27" s="2">
+        <v>5</v>
+      </c>
+      <c r="F27" s="2">
+        <v>5</v>
+      </c>
+      <c r="G27" s="2">
+        <v>5</v>
+      </c>
+      <c r="H27" s="2">
+        <v>5</v>
+      </c>
+      <c r="I27" s="2">
+        <v>5</v>
+      </c>
+      <c r="K27" s="5">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="M27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>24</v>
       </c>
@@ -1166,8 +1320,15 @@
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
-    </row>
-    <row r="29" spans="1:9" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K28" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>25</v>
       </c>
@@ -1180,37 +1341,51 @@
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
-    </row>
-    <row r="30" spans="1:9" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K29" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>26</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C30" s="2">
+        <v>5</v>
+      </c>
+      <c r="D30" s="2">
+        <v>5</v>
+      </c>
+      <c r="E30" s="2">
+        <v>5</v>
+      </c>
+      <c r="F30" s="2">
+        <v>5</v>
+      </c>
+      <c r="G30" s="2">
+        <v>5</v>
+      </c>
+      <c r="H30" s="2">
+        <v>5</v>
+      </c>
+      <c r="I30" s="2">
+        <v>5</v>
+      </c>
+      <c r="K30" s="5">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="M30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>27</v>
       </c>
@@ -1223,8 +1398,15 @@
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
-    </row>
-    <row r="32" spans="1:9" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K31" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>28</v>
       </c>
@@ -1237,37 +1419,51 @@
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
-    </row>
-    <row r="33" spans="1:9" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K32" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>29</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I33" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="13" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C33" s="2">
+        <v>5</v>
+      </c>
+      <c r="D33" s="2">
+        <v>5</v>
+      </c>
+      <c r="E33" s="2">
+        <v>5</v>
+      </c>
+      <c r="F33" s="2">
+        <v>5</v>
+      </c>
+      <c r="G33" s="2">
+        <v>5</v>
+      </c>
+      <c r="H33" s="2">
+        <v>5</v>
+      </c>
+      <c r="I33" s="2">
+        <v>5</v>
+      </c>
+      <c r="K33" s="5">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="M33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="13" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
@@ -1280,6 +1476,30 @@
   <mergeCells count="1">
     <mergeCell ref="C1:W1"/>
   </mergeCells>
+  <conditionalFormatting sqref="K5:K33">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M5:M33">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/2ИСИП-422_ДисМат_.xlsx
+++ b/2ИСИП-422_ДисМат_.xlsx
@@ -168,7 +168,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -202,11 +202,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -223,6 +232,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -530,10 +542,10 @@
   <dimension ref="A1:W34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C22" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="P30" sqref="P30"/>
+      <selection pane="bottomRight" activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -852,15 +864,28 @@
       <c r="B13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
+      <c r="C13" s="2">
+        <v>5</v>
+      </c>
+      <c r="D13" s="2">
+        <v>5</v>
+      </c>
+      <c r="E13" s="2">
+        <v>5</v>
+      </c>
+      <c r="F13" s="2">
+        <v>5</v>
+      </c>
       <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
+      <c r="H13" s="2">
+        <v>5</v>
+      </c>
+      <c r="I13" s="8">
+        <v>5</v>
+      </c>
       <c r="K13" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="M13">
         <v>2</v>

--- a/2ИСИП-422_ДисМат_.xlsx
+++ b/2ИСИП-422_ДисМат_.xlsx
@@ -230,11 +230,11 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -542,10 +542,10 @@
   <dimension ref="A1:W34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J13" sqref="J13"/>
+      <selection pane="bottomRight" activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -556,29 +556,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
-      <c r="U1" s="7"/>
-      <c r="V1" s="7"/>
-      <c r="W1" s="7"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
+      <c r="U1" s="8"/>
+      <c r="V1" s="8"/>
+      <c r="W1" s="8"/>
     </row>
     <row r="2" spans="1:23" ht="13" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:23" ht="29" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -708,15 +708,30 @@
       <c r="B8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
+      <c r="C8" s="2">
+        <v>5</v>
+      </c>
+      <c r="D8" s="2">
+        <v>5</v>
+      </c>
+      <c r="E8" s="2">
+        <v>5</v>
+      </c>
+      <c r="F8" s="2">
+        <v>5</v>
+      </c>
+      <c r="G8" s="2">
+        <v>5</v>
+      </c>
+      <c r="H8" s="2">
+        <v>5</v>
+      </c>
+      <c r="I8" s="4">
+        <v>5</v>
+      </c>
       <c r="K8" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="M8">
         <v>2</v>
@@ -880,7 +895,7 @@
       <c r="H13" s="2">
         <v>5</v>
       </c>
-      <c r="I13" s="8">
+      <c r="I13" s="6">
         <v>5</v>
       </c>
       <c r="K13" s="5">
@@ -1156,15 +1171,21 @@
       <c r="B22" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
+      <c r="C22" s="2">
+        <v>5</v>
+      </c>
+      <c r="D22" s="2">
+        <v>5</v>
+      </c>
+      <c r="E22" s="2">
+        <v>5</v>
+      </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="K22" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="M22">
         <v>2</v>
@@ -1213,8 +1234,12 @@
       <c r="B24" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
+      <c r="C24" s="2">
+        <v>5</v>
+      </c>
+      <c r="D24" s="2">
+        <v>5</v>
+      </c>
       <c r="E24" s="2">
         <v>5</v>
       </c>
@@ -1233,7 +1258,7 @@
       <c r="J24" s="2"/>
       <c r="K24" s="5">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="M24">
         <v>4</v>
@@ -1282,15 +1307,30 @@
       <c r="B26" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
+      <c r="C26" s="2">
+        <v>5</v>
+      </c>
+      <c r="D26" s="2">
+        <v>5</v>
+      </c>
+      <c r="E26" s="2">
+        <v>5</v>
+      </c>
+      <c r="F26" s="2">
+        <v>5</v>
+      </c>
+      <c r="G26" s="2">
+        <v>5</v>
+      </c>
+      <c r="H26" s="2">
+        <v>5</v>
+      </c>
+      <c r="I26" s="6">
+        <v>5</v>
+      </c>
       <c r="K26" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="M26">
         <v>2</v>

--- a/2ИСИП-422_ДисМат_.xlsx
+++ b/2ИСИП-422_ДисМат_.xlsx
@@ -542,10 +542,10 @@
   <dimension ref="A1:W34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I8" sqref="I8"/>
+      <selection pane="bottomRight" activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1180,12 +1180,18 @@
       <c r="E22" s="2">
         <v>5</v>
       </c>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
+      <c r="F22" s="2">
+        <v>5</v>
+      </c>
+      <c r="G22" s="2">
+        <v>5</v>
+      </c>
+      <c r="H22" s="2">
+        <v>5</v>
+      </c>
       <c r="K22" s="5">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="M22">
         <v>2</v>

--- a/2ИСИП-422_ДисМат_.xlsx
+++ b/2ИСИП-422_ДисМат_.xlsx
@@ -545,7 +545,7 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I22" sqref="I22"/>
+      <selection pane="bottomRight" activeCell="C20" sqref="C20:I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -949,15 +949,27 @@
       <c r="B15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
+      <c r="C15" s="2">
+        <v>5</v>
+      </c>
+      <c r="D15" s="2">
+        <v>5</v>
+      </c>
+      <c r="E15" s="2">
+        <v>5</v>
+      </c>
+      <c r="F15" s="2">
+        <v>5</v>
+      </c>
+      <c r="G15" s="2">
+        <v>5</v>
+      </c>
+      <c r="H15" s="2">
+        <v>5</v>
+      </c>
       <c r="K15" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="M15">
         <v>2</v>
@@ -1114,15 +1126,30 @@
       <c r="B20" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
+      <c r="C20" s="2">
+        <v>5</v>
+      </c>
+      <c r="D20" s="2">
+        <v>5</v>
+      </c>
+      <c r="E20" s="2">
+        <v>5</v>
+      </c>
+      <c r="F20" s="2">
+        <v>5</v>
+      </c>
+      <c r="G20" s="2">
+        <v>5</v>
+      </c>
+      <c r="H20" s="2">
+        <v>5</v>
+      </c>
+      <c r="I20" s="2">
+        <v>5</v>
+      </c>
       <c r="K20" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="M20">
         <v>2</v>

--- a/2ИСИП-422_ДисМат_.xlsx
+++ b/2ИСИП-422_ДисМат_.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>2ИСИП-422: Дискретная математика с элементами математической логики (Сибирев И. В.) - I семестр</t>
   </si>
@@ -130,6 +130,9 @@
   </si>
   <si>
     <t>ДЗ7</t>
+  </si>
+  <si>
+    <t>Вариант</t>
   </si>
 </sst>
 </file>
@@ -215,7 +218,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -233,6 +236,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
@@ -542,10 +552,10 @@
   <dimension ref="A1:W34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C20" sqref="C20:I20"/>
+      <selection pane="bottomRight" activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -556,29 +566,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
-      <c r="T1" s="8"/>
-      <c r="U1" s="8"/>
-      <c r="V1" s="8"/>
-      <c r="W1" s="8"/>
+      <c r="C1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
+      <c r="U1" s="11"/>
+      <c r="V1" s="11"/>
+      <c r="W1" s="11"/>
     </row>
     <row r="2" spans="1:23" ht="13" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:23" ht="29" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -602,6 +612,21 @@
       </c>
       <c r="I3" s="1" t="s">
         <v>36</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>2</v>
+      </c>
+      <c r="O3">
+        <v>3</v>
+      </c>
+      <c r="P3">
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -611,6 +636,22 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
+      <c r="M4">
+        <f>SUM(M5:M33)</f>
+        <v>3</v>
+      </c>
+      <c r="N4" s="9">
+        <f t="shared" ref="N4:P4" si="0">SUM(N5:N33)</f>
+        <v>1</v>
+      </c>
+      <c r="O4" s="9">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="P4" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
@@ -625,12 +666,24 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
-      <c r="K5">
-        <f>SUM(C5:I5)</f>
-        <v>0</v>
+      <c r="L5">
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>2</v>
+        <f>IF($L5=M$3,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="N5" s="9">
+        <f t="shared" ref="N5:P20" si="1">IF($L5=N$3,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O5" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P5" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -661,12 +714,22 @@
       <c r="I6" s="4">
         <v>5</v>
       </c>
-      <c r="K6" s="5">
-        <f t="shared" ref="K6:K33" si="0">SUM(C6:I6)</f>
-        <v>35</v>
-      </c>
-      <c r="M6">
-        <v>5</v>
+      <c r="K6" s="5"/>
+      <c r="M6" s="9">
+        <f t="shared" ref="M6:P33" si="2">IF($L6=M$3,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N6" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O6" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P6" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -693,12 +756,22 @@
       <c r="I7" s="2">
         <v>5</v>
       </c>
-      <c r="K7" s="5">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="M7">
-        <v>4</v>
+      <c r="K7" s="5"/>
+      <c r="M7" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N7" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O7" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P7" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -729,12 +802,22 @@
       <c r="I8" s="4">
         <v>5</v>
       </c>
-      <c r="K8" s="5">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="M8">
-        <v>2</v>
+      <c r="K8" s="5"/>
+      <c r="M8" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N8" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O8" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P8" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -765,12 +848,25 @@
       <c r="I9" s="4">
         <v>5</v>
       </c>
-      <c r="K9" s="5">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="M9">
-        <v>5</v>
+      <c r="K9" s="5"/>
+      <c r="L9" s="8">
+        <v>1</v>
+      </c>
+      <c r="M9" s="9">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="N9" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O9" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P9" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -801,12 +897,22 @@
       <c r="I10" s="2">
         <v>5</v>
       </c>
-      <c r="K10" s="5">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="M10">
-        <v>5</v>
+      <c r="K10" s="5"/>
+      <c r="M10" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N10" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O10" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P10" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -837,12 +943,22 @@
       <c r="I11" s="2">
         <v>5</v>
       </c>
-      <c r="K11" s="5">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="M11">
-        <v>5</v>
+      <c r="K11" s="5"/>
+      <c r="M11" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N11" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O11" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P11" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -864,12 +980,25 @@
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
-      <c r="K12" s="5">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="M12">
-        <v>4</v>
+      <c r="K12" s="5"/>
+      <c r="L12">
+        <v>2</v>
+      </c>
+      <c r="M12" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N12" s="9">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O12" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P12" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -898,12 +1027,22 @@
       <c r="I13" s="6">
         <v>5</v>
       </c>
-      <c r="K13" s="5">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="M13">
-        <v>2</v>
+      <c r="K13" s="5"/>
+      <c r="M13" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N13" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O13" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P13" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -934,12 +1073,22 @@
       <c r="I14" s="2">
         <v>5</v>
       </c>
-      <c r="K14" s="5">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="M14">
-        <v>5</v>
+      <c r="K14" s="5"/>
+      <c r="M14" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N14" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O14" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P14" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -967,12 +1116,22 @@
       <c r="H15" s="2">
         <v>5</v>
       </c>
-      <c r="K15" s="5">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="M15">
-        <v>2</v>
+      <c r="K15" s="5"/>
+      <c r="M15" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N15" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O15" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P15" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1003,15 +1162,28 @@
       <c r="I16" s="2">
         <v>5</v>
       </c>
-      <c r="K16" s="5">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="M16">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K16" s="5"/>
+      <c r="L16" s="8">
+        <v>3</v>
+      </c>
+      <c r="M16" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N16" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O16" s="9">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P16" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>13</v>
       </c>
@@ -1039,15 +1211,25 @@
       <c r="I17" s="2">
         <v>5</v>
       </c>
-      <c r="K17" s="5">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="M17">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K17" s="5"/>
+      <c r="M17" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N17" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O17" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P17" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>14</v>
       </c>
@@ -1075,15 +1257,28 @@
       <c r="I18" s="2">
         <v>5</v>
       </c>
-      <c r="K18" s="5">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="M18">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K18" s="5"/>
+      <c r="L18" s="8">
+        <v>3</v>
+      </c>
+      <c r="M18" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N18" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O18" s="9">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P18" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>15</v>
       </c>
@@ -1111,15 +1306,25 @@
       <c r="I19" s="2">
         <v>5</v>
       </c>
-      <c r="K19" s="5">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="M19">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K19" s="5"/>
+      <c r="M19" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N19" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O19" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P19" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>16</v>
       </c>
@@ -1147,15 +1352,25 @@
       <c r="I20" s="2">
         <v>5</v>
       </c>
-      <c r="K20" s="5">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="M20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K20" s="5"/>
+      <c r="M20" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N20" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O20" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P20" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>17</v>
       </c>
@@ -1183,15 +1398,25 @@
       <c r="I21" s="2">
         <v>5</v>
       </c>
-      <c r="K21" s="5">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="M21">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K21" s="5"/>
+      <c r="M21" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N21" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O21" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P21" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>18</v>
       </c>
@@ -1216,15 +1441,25 @@
       <c r="H22" s="2">
         <v>5</v>
       </c>
-      <c r="K22" s="5">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="M22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K22" s="5"/>
+      <c r="M22" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N22" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O22" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P22" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>19</v>
       </c>
@@ -1252,15 +1487,28 @@
       <c r="I23" s="2">
         <v>5</v>
       </c>
-      <c r="K23" s="5">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="M23">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K23" s="5"/>
+      <c r="L23" s="8">
+        <v>1</v>
+      </c>
+      <c r="M23" s="9">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="N23" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O23" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P23" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>20</v>
       </c>
@@ -1289,15 +1537,28 @@
         <v>5</v>
       </c>
       <c r="J24" s="2"/>
-      <c r="K24" s="5">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="M24">
+      <c r="K24" s="5"/>
+      <c r="L24" s="6">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M24" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N24" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O24" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P24" s="9">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>21</v>
       </c>
@@ -1325,15 +1586,25 @@
       <c r="I25" s="2">
         <v>5</v>
       </c>
-      <c r="K25" s="5">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="M25">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K25" s="5"/>
+      <c r="M25" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N25" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O25" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P25" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>22</v>
       </c>
@@ -1361,15 +1632,25 @@
       <c r="I26" s="6">
         <v>5</v>
       </c>
-      <c r="K26" s="5">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="M26">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K26" s="5"/>
+      <c r="M26" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N26" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O26" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P26" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>23</v>
       </c>
@@ -1397,15 +1678,25 @@
       <c r="I27" s="2">
         <v>5</v>
       </c>
-      <c r="K27" s="5">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="M27">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K27" s="5"/>
+      <c r="M27" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N27" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O27" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P27" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>24</v>
       </c>
@@ -1418,15 +1709,28 @@
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
-      <c r="K28" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M28">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K28" s="5"/>
+      <c r="L28">
+        <v>3</v>
+      </c>
+      <c r="M28" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N28" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O28" s="9">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P28" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>25</v>
       </c>
@@ -1439,15 +1743,28 @@
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
-      <c r="K29" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M29">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K29" s="5"/>
+      <c r="L29">
+        <v>3</v>
+      </c>
+      <c r="M29" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N29" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O29" s="9">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P29" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>26</v>
       </c>
@@ -1475,15 +1792,25 @@
       <c r="I30" s="2">
         <v>5</v>
       </c>
-      <c r="K30" s="5">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="M30">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K30" s="5"/>
+      <c r="M30" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N30" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O30" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P30" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>27</v>
       </c>
@@ -1496,15 +1823,25 @@
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
-      <c r="K31" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M31">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K31" s="5"/>
+      <c r="M31" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N31" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O31" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P31" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>28</v>
       </c>
@@ -1517,15 +1854,25 @@
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
-      <c r="K32" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M32">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K32" s="5"/>
+      <c r="M32" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N32" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O32" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P32" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>29</v>
       </c>
@@ -1553,15 +1900,25 @@
       <c r="I33" s="2">
         <v>5</v>
       </c>
-      <c r="K33" s="5">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="M33">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" ht="13" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="K33" s="5"/>
+      <c r="M33" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N33" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O33" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P33" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" ht="13" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
@@ -1574,30 +1931,6 @@
   <mergeCells count="1">
     <mergeCell ref="C1:W1"/>
   </mergeCells>
-  <conditionalFormatting sqref="K5:K33">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M5:M33">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/2ИСИП-422_ДисМат_.xlsx
+++ b/2ИСИП-422_ДисМат_.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>2ИСИП-422: Дискретная математика с элементами математической логики (Сибирев И. В.) - I семестр</t>
   </si>
@@ -133,6 +133,9 @@
   </si>
   <si>
     <t>Вариант</t>
+  </si>
+  <si>
+    <t>Даниил романович</t>
   </si>
 </sst>
 </file>
@@ -549,13 +552,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W34"/>
+  <dimension ref="A1:W35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J17" sqref="J17"/>
+      <selection pane="bottomRight" activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -638,11 +641,11 @@
       <c r="H4" s="1"/>
       <c r="M4">
         <f>SUM(M5:M33)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N4" s="9">
         <f t="shared" ref="N4:P4" si="0">SUM(N5:N33)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O4" s="9">
         <f t="shared" si="0"/>
@@ -650,7 +653,7 @@
       </c>
       <c r="P4" s="9">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -757,6 +760,9 @@
         <v>5</v>
       </c>
       <c r="K7" s="5"/>
+      <c r="L7">
+        <v>4</v>
+      </c>
       <c r="M7" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -771,7 +777,7 @@
       </c>
       <c r="P7" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1074,13 +1080,16 @@
         <v>5</v>
       </c>
       <c r="K14" s="5"/>
+      <c r="L14" s="8">
+        <v>2</v>
+      </c>
       <c r="M14" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N14" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O14" s="9">
         <f t="shared" si="1"/>
@@ -1212,6 +1221,9 @@
         <v>5</v>
       </c>
       <c r="K17" s="5"/>
+      <c r="L17" s="8">
+        <v>4</v>
+      </c>
       <c r="M17" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1226,7 +1238,7 @@
       </c>
       <c r="P17" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1399,13 +1411,16 @@
         <v>5</v>
       </c>
       <c r="K21" s="5"/>
+      <c r="L21" s="8">
+        <v>2</v>
+      </c>
       <c r="M21" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N21" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O21" s="9">
         <f t="shared" si="2"/>
@@ -1679,6 +1694,9 @@
         <v>5</v>
       </c>
       <c r="K27" s="5"/>
+      <c r="L27" s="8">
+        <v>4</v>
+      </c>
       <c r="M27" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1693,7 +1711,7 @@
       </c>
       <c r="P27" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1793,9 +1811,12 @@
         <v>5</v>
       </c>
       <c r="K30" s="5"/>
+      <c r="L30" s="8">
+        <v>1</v>
+      </c>
       <c r="M30" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N30" s="9">
         <f t="shared" si="2"/>
@@ -1901,13 +1922,16 @@
         <v>5</v>
       </c>
       <c r="K33" s="5"/>
+      <c r="L33" s="8">
+        <v>2</v>
+      </c>
       <c r="M33" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N33" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O33" s="9">
         <f t="shared" si="2"/>
@@ -1925,6 +1949,11 @@
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
+    </row>
+    <row r="35" spans="1:16" ht="13" x14ac:dyDescent="0.25">
+      <c r="B35" s="7" t="s">
+        <v>38</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>

--- a/2ИСИП-422_ДисМат_.xlsx
+++ b/2ИСИП-422_ДисМат_.xlsx
@@ -555,10 +555,10 @@
   <dimension ref="A1:W35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L17" sqref="L17"/>
+      <selection pane="bottomRight" activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -653,7 +653,7 @@
       </c>
       <c r="P4" s="9">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1125,7 +1125,13 @@
       <c r="H15" s="2">
         <v>5</v>
       </c>
+      <c r="J15" s="6">
+        <v>5</v>
+      </c>
       <c r="K15" s="5"/>
+      <c r="L15">
+        <v>4</v>
+      </c>
       <c r="M15" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1140,7 +1146,7 @@
       </c>
       <c r="P15" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1691,6 +1697,9 @@
         <v>5</v>
       </c>
       <c r="I27" s="2">
+        <v>5</v>
+      </c>
+      <c r="J27" s="4">
         <v>5</v>
       </c>
       <c r="K27" s="5"/>

--- a/2ИСИП-422_ДисМат_.xlsx
+++ b/2ИСИП-422_ДисМат_.xlsx
@@ -558,7 +558,7 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J27" sqref="J27"/>
+      <selection pane="bottomRight" activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -645,7 +645,7 @@
       </c>
       <c r="N4" s="9">
         <f t="shared" ref="N4:P4" si="0">SUM(N5:N33)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O4" s="9">
         <f t="shared" si="0"/>
@@ -1325,13 +1325,16 @@
         <v>5</v>
       </c>
       <c r="K19" s="5"/>
+      <c r="L19" s="8">
+        <v>2</v>
+      </c>
       <c r="M19" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N19" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O19" s="9">
         <f t="shared" si="1"/>

--- a/2ИСИП-422_ДисМат_.xlsx
+++ b/2ИСИП-422_ДисМат_.xlsx
@@ -558,7 +558,7 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L24" sqref="L24"/>
+      <selection pane="bottomRight" activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1610,6 +1610,9 @@
       <c r="I25" s="2">
         <v>5</v>
       </c>
+      <c r="J25" s="4">
+        <v>5</v>
+      </c>
       <c r="K25" s="5"/>
       <c r="M25" s="9">
         <f t="shared" si="2"/>
@@ -1654,6 +1657,9 @@
         <v>5</v>
       </c>
       <c r="I26" s="6">
+        <v>5</v>
+      </c>
+      <c r="J26" s="6">
         <v>5</v>
       </c>
       <c r="K26" s="5"/>

--- a/2ИСИП-422_ДисМат_.xlsx
+++ b/2ИСИП-422_ДисМат_.xlsx
@@ -555,10 +555,10 @@
   <dimension ref="A1:W35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J26" sqref="J26"/>
+      <selection pane="bottomRight" activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -641,7 +641,7 @@
       <c r="H4" s="1"/>
       <c r="M4">
         <f>SUM(M5:M33)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N4" s="9">
         <f t="shared" ref="N4:P4" si="0">SUM(N5:N33)</f>
@@ -904,9 +904,12 @@
         <v>5</v>
       </c>
       <c r="K10" s="5"/>
+      <c r="L10" s="8">
+        <v>1</v>
+      </c>
       <c r="M10" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N10" s="9">
         <f t="shared" si="1"/>

--- a/2ИСИП-422_ДисМат_.xlsx
+++ b/2ИСИП-422_ДисМат_.xlsx
@@ -555,10 +555,10 @@
   <dimension ref="A1:W35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L11" sqref="L11"/>
+      <selection pane="bottomRight" activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1616,7 +1616,9 @@
       <c r="J25" s="4">
         <v>5</v>
       </c>
-      <c r="K25" s="5"/>
+      <c r="K25" s="4">
+        <v>5</v>
+      </c>
       <c r="M25" s="9">
         <f t="shared" si="2"/>
         <v>0</v>

--- a/2ИСИП-422_ДисМат_.xlsx
+++ b/2ИСИП-422_ДисМат_.xlsx
@@ -555,10 +555,10 @@
   <dimension ref="A1:W35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K25" sqref="K25"/>
+      <selection pane="bottomRight" activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -649,11 +649,11 @@
       </c>
       <c r="O4" s="9">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P4" s="9">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1037,6 +1037,9 @@
         <v>5</v>
       </c>
       <c r="K13" s="5"/>
+      <c r="L13">
+        <v>4</v>
+      </c>
       <c r="M13" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1051,7 +1054,7 @@
       </c>
       <c r="P13" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1868,6 +1871,9 @@
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
       <c r="K31" s="5"/>
+      <c r="L31">
+        <v>3</v>
+      </c>
       <c r="M31" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1878,7 +1884,7 @@
       </c>
       <c r="O31" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P31" s="9">
         <f t="shared" si="2"/>

--- a/2ИСИП-422_ДисМат_.xlsx
+++ b/2ИСИП-422_ДисМат_.xlsx
@@ -555,10 +555,10 @@
   <dimension ref="A1:W35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L31" sqref="L31"/>
+      <selection pane="bottomRight" activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>

--- a/2ИСИП-422_ДисМат_.xlsx
+++ b/2ИСИП-422_ДисМат_.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>2ИСИП-422: Дискретная математика с элементами математической логики (Сибирев И. В.) - I семестр</t>
   </si>
@@ -136,6 +136,12 @@
   </si>
   <si>
     <t>Даниил романович</t>
+  </si>
+  <si>
+    <t>ДЗ8</t>
+  </si>
+  <si>
+    <t>ДЗ9</t>
   </si>
 </sst>
 </file>
@@ -555,10 +561,10 @@
   <dimension ref="A1:W35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L19" sqref="L19"/>
+      <selection pane="bottomRight" activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -616,6 +622,12 @@
       <c r="I3" s="1" t="s">
         <v>36</v>
       </c>
+      <c r="J3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="L3" s="7" t="s">
         <v>37</v>
       </c>
@@ -1425,7 +1437,12 @@
       <c r="I21" s="2">
         <v>5</v>
       </c>
-      <c r="K21" s="5"/>
+      <c r="J21" s="4">
+        <v>5</v>
+      </c>
+      <c r="K21" s="4">
+        <v>5</v>
+      </c>
       <c r="L21" s="8">
         <v>2</v>
       </c>
@@ -1566,8 +1583,12 @@
       <c r="I24" s="2">
         <v>5</v>
       </c>
-      <c r="J24" s="2"/>
-      <c r="K24" s="5"/>
+      <c r="J24" s="2">
+        <v>5</v>
+      </c>
+      <c r="K24" s="4">
+        <v>5</v>
+      </c>
       <c r="L24" s="6">
         <v>4</v>
       </c>
@@ -1719,7 +1740,9 @@
       <c r="J27" s="4">
         <v>5</v>
       </c>
-      <c r="K27" s="5"/>
+      <c r="K27" s="4">
+        <v>5</v>
+      </c>
       <c r="L27" s="8">
         <v>4</v>
       </c>

--- a/2ИСИП-422_ДисМат_.xlsx
+++ b/2ИСИП-422_ДисМат_.xlsx
@@ -561,10 +561,10 @@
   <dimension ref="A1:W35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L21" sqref="L21"/>
+      <selection pane="bottomRight" activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -675,12 +675,27 @@
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
+      <c r="C5" s="2">
+        <v>5</v>
+      </c>
+      <c r="D5" s="2">
+        <v>5</v>
+      </c>
+      <c r="E5" s="2">
+        <v>5</v>
+      </c>
+      <c r="F5" s="2">
+        <v>5</v>
+      </c>
+      <c r="G5" s="2">
+        <v>5</v>
+      </c>
+      <c r="H5" s="2">
+        <v>5</v>
+      </c>
+      <c r="J5" s="6">
+        <v>5</v>
+      </c>
       <c r="L5">
         <v>1</v>
       </c>
@@ -866,7 +881,12 @@
       <c r="I9" s="4">
         <v>5</v>
       </c>
-      <c r="K9" s="5"/>
+      <c r="J9" s="4">
+        <v>5</v>
+      </c>
+      <c r="K9" s="4">
+        <v>5</v>
+      </c>
       <c r="L9" s="8">
         <v>1</v>
       </c>

--- a/2ИСИП-422_ДисМат_.xlsx
+++ b/2ИСИП-422_ДисМат_.xlsx
@@ -561,10 +561,10 @@
   <dimension ref="A1:W35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K5" sqref="K5"/>
+      <selection pane="bottomRight" activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1879,7 +1879,12 @@
       <c r="I30" s="2">
         <v>5</v>
       </c>
-      <c r="K30" s="5"/>
+      <c r="J30" s="8">
+        <v>5</v>
+      </c>
+      <c r="K30" s="8">
+        <v>5</v>
+      </c>
       <c r="L30" s="8">
         <v>1</v>
       </c>
@@ -1993,7 +1998,12 @@
       <c r="I33" s="2">
         <v>5</v>
       </c>
-      <c r="K33" s="5"/>
+      <c r="J33" s="4">
+        <v>5</v>
+      </c>
+      <c r="K33" s="4">
+        <v>5</v>
+      </c>
       <c r="L33" s="8">
         <v>2</v>
       </c>

--- a/2ИСИП-422_ДисМат_.xlsx
+++ b/2ИСИП-422_ДисМат_.xlsx
@@ -561,10 +561,10 @@
   <dimension ref="A1:W35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="E18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L30" sqref="L30"/>
+      <selection pane="bottomRight" activeCell="R33" sqref="R33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -693,6 +693,9 @@
       <c r="H5" s="2">
         <v>5</v>
       </c>
+      <c r="I5" s="4">
+        <v>5</v>
+      </c>
       <c r="J5" s="6">
         <v>5</v>
       </c>
@@ -1117,7 +1120,12 @@
       <c r="I14" s="2">
         <v>5</v>
       </c>
-      <c r="K14" s="5"/>
+      <c r="J14" s="4">
+        <v>5</v>
+      </c>
+      <c r="K14" s="4">
+        <v>5</v>
+      </c>
       <c r="L14" s="8">
         <v>2</v>
       </c>
@@ -1136,6 +1144,9 @@
       <c r="P14" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
+      </c>
+      <c r="R14">
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1236,7 +1247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>13</v>
       </c>
@@ -1264,7 +1275,12 @@
       <c r="I17" s="2">
         <v>5</v>
       </c>
-      <c r="K17" s="5"/>
+      <c r="J17" s="4">
+        <v>5</v>
+      </c>
+      <c r="K17" s="4">
+        <v>5</v>
+      </c>
       <c r="L17" s="8">
         <v>4</v>
       </c>
@@ -1285,7 +1301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>14</v>
       </c>
@@ -1334,7 +1350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>15</v>
       </c>
@@ -1383,7 +1399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>16</v>
       </c>
@@ -1429,7 +1445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>17</v>
       </c>
@@ -1482,8 +1498,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>18</v>
       </c>
@@ -1526,7 +1545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>19</v>
       </c>
@@ -1575,7 +1594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>20</v>
       </c>
@@ -1629,7 +1648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>21</v>
       </c>
@@ -1680,7 +1699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>22</v>
       </c>
@@ -1729,7 +1748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>23</v>
       </c>
@@ -1783,7 +1802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>24</v>
       </c>
@@ -1817,7 +1836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>25</v>
       </c>
@@ -1851,7 +1870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>26</v>
       </c>
@@ -1905,7 +1924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>27</v>
       </c>
@@ -1939,7 +1958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>28</v>
       </c>
@@ -1970,7 +1989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>29</v>
       </c>
@@ -2023,8 +2042,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:16" ht="13" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="R33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" ht="13" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
@@ -2032,7 +2054,7 @@
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
     </row>
-    <row r="35" spans="1:16" ht="13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" ht="13" x14ac:dyDescent="0.25">
       <c r="B35" s="7" t="s">
         <v>38</v>
       </c>

--- a/2ИСИП-422_ДисМат_.xlsx
+++ b/2ИСИП-422_ДисМат_.xlsx
@@ -557,10 +557,10 @@
   <dimension ref="A1:S41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="I20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A31" sqref="A31"/>
+      <selection pane="bottomRight" activeCell="AB38" sqref="AB38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>

--- a/2ИСИП-422_ДисМат_.xlsx
+++ b/2ИСИП-422_ДисМат_.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="42">
   <si>
     <t>2ИСИП-422: Дискретная математика с элементами математической логики (Сибирев И. В.) - I семестр</t>
   </si>
@@ -135,9 +135,6 @@
     <t>Вариант</t>
   </si>
   <si>
-    <t>Даниил романович</t>
-  </si>
-  <si>
     <t>ДЗ8</t>
   </si>
   <si>
@@ -145,6 +142,9 @@
   </si>
   <si>
     <t>ДифЗачет</t>
+  </si>
+  <si>
+    <t>доклад был</t>
   </si>
 </sst>
 </file>
@@ -554,13 +554,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S41"/>
+  <dimension ref="A1:T41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="I20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AB38" sqref="AB38"/>
+      <selection pane="bottomRight" activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -600,10 +600,10 @@
         <v>36</v>
       </c>
       <c r="K2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="M2" s="7" t="s">
         <v>37</v>
@@ -621,7 +621,7 @@
         <v>4</v>
       </c>
       <c r="S2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="14.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -633,7 +633,7 @@
       <c r="I3" s="1"/>
       <c r="N3">
         <f>SUM(N4:N32)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O3" s="9">
         <f t="shared" ref="O3:Q3" si="0">SUM(O4:O32)</f>
@@ -641,7 +641,7 @@
       </c>
       <c r="P3" s="9">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q3" s="9">
         <f t="shared" si="0"/>
@@ -650,6 +650,10 @@
     </row>
     <row r="4" spans="1:19" ht="14.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
+        <f>IF(B4=C4,1,"______")</f>
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -701,6 +705,10 @@
     </row>
     <row r="5" spans="1:19" ht="14.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
+        <f>IF(B5=C5,1+A4,"______")</f>
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -747,6 +755,10 @@
     </row>
     <row r="6" spans="1:19" ht="14.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
+        <f t="shared" ref="A6:A32" si="2">IF(B6=C6,1+A5,"______")</f>
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -755,21 +767,27 @@
       <c r="D6" s="2">
         <v>5</v>
       </c>
-      <c r="E6" s="2"/>
+      <c r="E6" s="2">
+        <v>5</v>
+      </c>
       <c r="F6" s="2">
         <v>5</v>
       </c>
       <c r="G6" s="2">
         <v>5</v>
       </c>
-      <c r="H6" s="2"/>
+      <c r="H6" s="2">
+        <v>5</v>
+      </c>
       <c r="I6" s="2">
         <v>5</v>
       </c>
       <c r="J6" s="2">
         <v>5</v>
       </c>
-      <c r="L6" s="5"/>
+      <c r="L6" s="6">
+        <v>5</v>
+      </c>
       <c r="M6">
         <v>4</v>
       </c>
@@ -792,6 +810,10 @@
     </row>
     <row r="7" spans="1:19" ht="14.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -838,6 +860,10 @@
     </row>
     <row r="8" spans="1:19" ht="14.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -892,6 +918,10 @@
     </row>
     <row r="9" spans="1:19" ht="14.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -918,7 +948,12 @@
       <c r="J9" s="2">
         <v>5</v>
       </c>
-      <c r="L9" s="5"/>
+      <c r="K9" s="4">
+        <v>5</v>
+      </c>
+      <c r="L9" s="6">
+        <v>5</v>
+      </c>
       <c r="M9" s="8">
         <v>1</v>
       </c>
@@ -941,6 +976,10 @@
     </row>
     <row r="10" spans="1:19" ht="14.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -968,9 +1007,12 @@
         <v>5</v>
       </c>
       <c r="L10" s="5"/>
+      <c r="M10" s="8">
+        <v>1</v>
+      </c>
       <c r="N10" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O10" s="9">
         <f t="shared" si="1"/>
@@ -987,6 +1029,10 @@
     </row>
     <row r="11" spans="1:19" ht="14.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -1027,6 +1073,10 @@
     </row>
     <row r="12" spans="1:19" ht="14.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -1074,6 +1124,10 @@
     </row>
     <row r="13" spans="1:19" ht="14.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -1131,6 +1185,10 @@
     </row>
     <row r="14" spans="1:19" ht="14.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
         <v>11</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -1154,10 +1212,15 @@
       <c r="I14" s="2">
         <v>5</v>
       </c>
+      <c r="J14" s="6">
+        <v>5</v>
+      </c>
       <c r="K14" s="6">
         <v>5</v>
       </c>
-      <c r="L14" s="5"/>
+      <c r="L14" s="6">
+        <v>5</v>
+      </c>
       <c r="M14">
         <v>4</v>
       </c>
@@ -1180,6 +1243,10 @@
     </row>
     <row r="15" spans="1:19" ht="14.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
         <v>12</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -1229,6 +1296,10 @@
     </row>
     <row r="16" spans="1:19" ht="14.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
         <v>13</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -1280,9 +1351,16 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:19" ht="14.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" ht="14.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
         <v>14</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -1330,8 +1408,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="14.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" ht="14.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
         <v>15</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -1379,8 +1461,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="14.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" ht="14.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
         <v>16</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -1425,8 +1511,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:19" ht="14.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" ht="14.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="B20" t="s">
         <v>17</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -1482,8 +1572,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="14.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" ht="14.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="B21" t="s">
         <v>18</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -1525,8 +1619,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="14.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" ht="14.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="B22" t="s">
         <v>19</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -1573,9 +1671,16 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:19" ht="14.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" ht="14.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="B23" t="s">
         <v>20</v>
       </c>
       <c r="C23" s="1" t="s">
@@ -1627,9 +1732,16 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:19" ht="14.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" ht="14.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="B24" t="s">
         <v>21</v>
       </c>
       <c r="C24" s="1" t="s">
@@ -1678,9 +1790,16 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:19" ht="14.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" ht="14.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="B25" t="s">
         <v>22</v>
       </c>
       <c r="C25" s="1" t="s">
@@ -1711,6 +1830,9 @@
         <v>5</v>
       </c>
       <c r="L25" s="5"/>
+      <c r="M25" s="8">
+        <v>3</v>
+      </c>
       <c r="N25" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -1721,15 +1843,19 @@
       </c>
       <c r="P25" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q25" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:19" ht="14.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:20" ht="14.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="B26" t="s">
         <v>23</v>
       </c>
       <c r="C26" s="1" t="s">
@@ -1781,9 +1907,16 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:19" ht="14.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" ht="14.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
         <v>24</v>
       </c>
       <c r="C27" s="1" t="s">
@@ -1816,8 +1949,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:19" ht="14.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:20" ht="14.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
         <v>25</v>
       </c>
       <c r="C28" s="1" t="s">
@@ -1850,8 +1987,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:19" ht="14.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:20" ht="14.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="B29" t="s">
         <v>26</v>
       </c>
       <c r="C29" s="1" t="s">
@@ -1904,8 +2045,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:19" ht="14.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:20" ht="14.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="B30" t="s">
         <v>27</v>
       </c>
       <c r="C30" s="1" t="s">
@@ -1938,8 +2083,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:19" ht="14.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:20" ht="14.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="B31" t="s">
         <v>28</v>
       </c>
       <c r="C31" s="1" t="s">
@@ -1969,8 +2118,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:19" ht="14.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:20" ht="14.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+      <c r="B32" t="s">
         <v>29</v>
       </c>
       <c r="C32" s="1" t="s">
@@ -2035,9 +2188,7 @@
       <c r="I33" s="3"/>
     </row>
     <row r="34" spans="3:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C34" s="7" t="s">
-        <v>38</v>
-      </c>
+      <c r="C34" s="7"/>
     </row>
     <row r="35" spans="3:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="36" spans="3:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/2ИСИП-422_ДисМат_.xlsx
+++ b/2ИСИП-422_ДисМат_.xlsx
@@ -557,10 +557,10 @@
   <dimension ref="A1:T41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M14" sqref="M14"/>
+      <selection pane="bottomRight" activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1240,6 +1240,9 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
+      <c r="S14">
+        <v>5</v>
+      </c>
     </row>
     <row r="15" spans="1:19" ht="14.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
@@ -1440,7 +1443,12 @@
       <c r="J18" s="2">
         <v>5</v>
       </c>
-      <c r="L18" s="5"/>
+      <c r="K18" s="6">
+        <v>5</v>
+      </c>
+      <c r="L18" s="8">
+        <v>5</v>
+      </c>
       <c r="M18" s="8">
         <v>2</v>
       </c>
@@ -2056,13 +2064,33 @@
       <c r="C30" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="L30" s="5"/>
+      <c r="D30" s="2">
+        <v>5</v>
+      </c>
+      <c r="E30" s="2">
+        <v>5</v>
+      </c>
+      <c r="F30" s="2">
+        <v>5</v>
+      </c>
+      <c r="G30" s="2">
+        <v>5</v>
+      </c>
+      <c r="H30" s="2">
+        <v>5</v>
+      </c>
+      <c r="I30" s="2">
+        <v>5</v>
+      </c>
+      <c r="J30" s="6">
+        <v>5</v>
+      </c>
+      <c r="K30" s="8">
+        <v>5</v>
+      </c>
+      <c r="L30" s="8">
+        <v>5</v>
+      </c>
       <c r="M30">
         <v>3</v>
       </c>

--- a/2ИСИП-422_ДисМат_.xlsx
+++ b/2ИСИП-422_ДисМат_.xlsx
@@ -169,12 +169,18 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -224,7 +230,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -234,9 +240,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -250,6 +253,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -557,10 +572,10 @@
   <dimension ref="A1:T41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M18" sqref="M18"/>
+      <selection pane="bottomRight" activeCell="L37" sqref="L37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -573,7 +588,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>0</v>
       </c>
     </row>
@@ -605,7 +620,7 @@
       <c r="L2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="M2" s="6" t="s">
         <v>37</v>
       </c>
       <c r="N2">
@@ -635,15 +650,15 @@
         <f>SUM(N4:N32)</f>
         <v>6</v>
       </c>
-      <c r="O3" s="9">
+      <c r="O3" s="8">
         <f t="shared" ref="O3:Q3" si="0">SUM(O4:O32)</f>
         <v>5</v>
       </c>
-      <c r="P3" s="9">
+      <c r="P3" s="8">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="Q3" s="9">
+      <c r="Q3" s="8">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
@@ -659,28 +674,28 @@
       <c r="C4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="2">
-        <v>5</v>
-      </c>
-      <c r="E4" s="2">
-        <v>5</v>
-      </c>
-      <c r="F4" s="2">
-        <v>5</v>
-      </c>
-      <c r="G4" s="2">
-        <v>5</v>
-      </c>
-      <c r="H4" s="2">
-        <v>5</v>
-      </c>
-      <c r="I4" s="2">
-        <v>5</v>
-      </c>
-      <c r="J4" s="4">
-        <v>5</v>
-      </c>
-      <c r="K4" s="6">
+      <c r="D4" s="10">
+        <v>5</v>
+      </c>
+      <c r="E4" s="10">
+        <v>5</v>
+      </c>
+      <c r="F4" s="10">
+        <v>5</v>
+      </c>
+      <c r="G4" s="10">
+        <v>5</v>
+      </c>
+      <c r="H4" s="10">
+        <v>5</v>
+      </c>
+      <c r="I4" s="10">
+        <v>5</v>
+      </c>
+      <c r="J4" s="11">
+        <v>5</v>
+      </c>
+      <c r="K4" s="12">
         <v>5</v>
       </c>
       <c r="M4">
@@ -690,15 +705,15 @@
         <f t="shared" ref="N4:Q32" si="1">IF($M4=N$2,1,0)</f>
         <v>1</v>
       </c>
-      <c r="O4" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P4" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q4" s="9">
+      <c r="O4" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P4" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q4" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -714,41 +729,41 @@
       <c r="C5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="2">
-        <v>5</v>
-      </c>
-      <c r="E5" s="2">
-        <v>5</v>
-      </c>
-      <c r="F5" s="2">
-        <v>5</v>
-      </c>
-      <c r="G5" s="2">
-        <v>5</v>
-      </c>
-      <c r="H5" s="2">
-        <v>5</v>
-      </c>
-      <c r="I5" s="2">
-        <v>5</v>
-      </c>
-      <c r="J5" s="4">
-        <v>5</v>
-      </c>
-      <c r="L5" s="5"/>
-      <c r="N5" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O5" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P5" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q5" s="9">
+      <c r="D5" s="10">
+        <v>5</v>
+      </c>
+      <c r="E5" s="10">
+        <v>5</v>
+      </c>
+      <c r="F5" s="10">
+        <v>5</v>
+      </c>
+      <c r="G5" s="10">
+        <v>5</v>
+      </c>
+      <c r="H5" s="10">
+        <v>5</v>
+      </c>
+      <c r="I5" s="10">
+        <v>5</v>
+      </c>
+      <c r="J5" s="11">
+        <v>5</v>
+      </c>
+      <c r="L5" s="4"/>
+      <c r="N5" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O5" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P5" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q5" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -764,46 +779,46 @@
       <c r="C6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="2">
-        <v>5</v>
-      </c>
-      <c r="E6" s="2">
-        <v>5</v>
-      </c>
-      <c r="F6" s="2">
-        <v>5</v>
-      </c>
-      <c r="G6" s="2">
-        <v>5</v>
-      </c>
-      <c r="H6" s="2">
-        <v>5</v>
-      </c>
-      <c r="I6" s="2">
-        <v>5</v>
-      </c>
-      <c r="J6" s="2">
-        <v>5</v>
-      </c>
-      <c r="L6" s="6">
+      <c r="D6" s="10">
+        <v>5</v>
+      </c>
+      <c r="E6" s="10">
+        <v>5</v>
+      </c>
+      <c r="F6" s="10">
+        <v>5</v>
+      </c>
+      <c r="G6" s="10">
+        <v>5</v>
+      </c>
+      <c r="H6" s="10">
+        <v>5</v>
+      </c>
+      <c r="I6" s="10">
+        <v>5</v>
+      </c>
+      <c r="J6" s="10">
+        <v>5</v>
+      </c>
+      <c r="L6" s="12">
         <v>5</v>
       </c>
       <c r="M6">
         <v>4</v>
       </c>
-      <c r="N6" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O6" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P6" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q6" s="9">
+      <c r="N6" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O6" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P6" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="8">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -819,41 +834,41 @@
       <c r="C7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="2">
-        <v>5</v>
-      </c>
-      <c r="E7" s="2">
-        <v>5</v>
-      </c>
-      <c r="F7" s="2">
-        <v>5</v>
-      </c>
-      <c r="G7" s="2">
-        <v>5</v>
-      </c>
-      <c r="H7" s="2">
-        <v>5</v>
-      </c>
-      <c r="I7" s="2">
-        <v>5</v>
-      </c>
-      <c r="J7" s="4">
-        <v>5</v>
-      </c>
-      <c r="L7" s="5"/>
-      <c r="N7" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O7" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P7" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q7" s="9">
+      <c r="D7" s="10">
+        <v>5</v>
+      </c>
+      <c r="E7" s="10">
+        <v>5</v>
+      </c>
+      <c r="F7" s="10">
+        <v>5</v>
+      </c>
+      <c r="G7" s="10">
+        <v>5</v>
+      </c>
+      <c r="H7" s="10">
+        <v>5</v>
+      </c>
+      <c r="I7" s="10">
+        <v>5</v>
+      </c>
+      <c r="J7" s="11">
+        <v>5</v>
+      </c>
+      <c r="L7" s="4"/>
+      <c r="N7" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O7" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P7" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -869,49 +884,49 @@
       <c r="C8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="2">
-        <v>5</v>
-      </c>
-      <c r="E8" s="2">
-        <v>5</v>
-      </c>
-      <c r="F8" s="2">
-        <v>5</v>
-      </c>
-      <c r="G8" s="2">
-        <v>5</v>
-      </c>
-      <c r="H8" s="2">
-        <v>5</v>
-      </c>
-      <c r="I8" s="2">
-        <v>5</v>
-      </c>
-      <c r="J8" s="4">
-        <v>5</v>
-      </c>
-      <c r="K8" s="4">
-        <v>5</v>
-      </c>
-      <c r="L8" s="4">
-        <v>5</v>
-      </c>
-      <c r="M8" s="8">
-        <v>1</v>
-      </c>
-      <c r="N8" s="9">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="O8" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P8" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q8" s="9">
+      <c r="D8" s="10">
+        <v>5</v>
+      </c>
+      <c r="E8" s="10">
+        <v>5</v>
+      </c>
+      <c r="F8" s="10">
+        <v>5</v>
+      </c>
+      <c r="G8" s="10">
+        <v>5</v>
+      </c>
+      <c r="H8" s="10">
+        <v>5</v>
+      </c>
+      <c r="I8" s="10">
+        <v>5</v>
+      </c>
+      <c r="J8" s="11">
+        <v>5</v>
+      </c>
+      <c r="K8" s="11">
+        <v>5</v>
+      </c>
+      <c r="L8" s="11">
+        <v>5</v>
+      </c>
+      <c r="M8" s="7">
+        <v>1</v>
+      </c>
+      <c r="N8" s="8">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O8" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P8" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q8" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -927,49 +942,49 @@
       <c r="C9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="2">
-        <v>5</v>
-      </c>
-      <c r="E9" s="2">
-        <v>5</v>
-      </c>
-      <c r="F9" s="2">
-        <v>5</v>
-      </c>
-      <c r="G9" s="2">
-        <v>5</v>
-      </c>
-      <c r="H9" s="2">
-        <v>5</v>
-      </c>
-      <c r="I9" s="2">
-        <v>5</v>
-      </c>
-      <c r="J9" s="2">
-        <v>5</v>
-      </c>
-      <c r="K9" s="4">
-        <v>5</v>
-      </c>
-      <c r="L9" s="6">
-        <v>5</v>
-      </c>
-      <c r="M9" s="8">
-        <v>1</v>
-      </c>
-      <c r="N9" s="9">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="O9" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P9" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q9" s="9">
+      <c r="D9" s="10">
+        <v>5</v>
+      </c>
+      <c r="E9" s="10">
+        <v>5</v>
+      </c>
+      <c r="F9" s="10">
+        <v>5</v>
+      </c>
+      <c r="G9" s="10">
+        <v>5</v>
+      </c>
+      <c r="H9" s="10">
+        <v>5</v>
+      </c>
+      <c r="I9" s="10">
+        <v>5</v>
+      </c>
+      <c r="J9" s="10">
+        <v>5</v>
+      </c>
+      <c r="K9" s="11">
+        <v>5</v>
+      </c>
+      <c r="L9" s="12">
+        <v>5</v>
+      </c>
+      <c r="M9" s="7">
+        <v>1</v>
+      </c>
+      <c r="N9" s="8">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O9" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P9" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -985,44 +1000,44 @@
       <c r="C10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="2">
-        <v>5</v>
-      </c>
-      <c r="E10" s="2">
-        <v>5</v>
-      </c>
-      <c r="F10" s="2">
-        <v>5</v>
-      </c>
-      <c r="G10" s="2">
-        <v>5</v>
-      </c>
-      <c r="H10" s="2">
-        <v>5</v>
-      </c>
-      <c r="I10" s="2">
-        <v>5</v>
-      </c>
-      <c r="J10" s="2">
-        <v>5</v>
-      </c>
-      <c r="L10" s="5"/>
-      <c r="M10" s="8">
-        <v>1</v>
-      </c>
-      <c r="N10" s="9">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="O10" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P10" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q10" s="9">
+      <c r="D10" s="10">
+        <v>5</v>
+      </c>
+      <c r="E10" s="10">
+        <v>5</v>
+      </c>
+      <c r="F10" s="10">
+        <v>5</v>
+      </c>
+      <c r="G10" s="10">
+        <v>5</v>
+      </c>
+      <c r="H10" s="10">
+        <v>5</v>
+      </c>
+      <c r="I10" s="10">
+        <v>5</v>
+      </c>
+      <c r="J10" s="10">
+        <v>5</v>
+      </c>
+      <c r="L10" s="4"/>
+      <c r="M10" s="7">
+        <v>1</v>
+      </c>
+      <c r="N10" s="8">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O10" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P10" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1038,35 +1053,35 @@
       <c r="C11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="2">
-        <v>5</v>
-      </c>
-      <c r="E11" s="2">
+      <c r="D11" s="10">
+        <v>5</v>
+      </c>
+      <c r="E11" s="10">
         <v>5</v>
       </c>
       <c r="F11" s="2"/>
-      <c r="G11" s="2">
+      <c r="G11" s="10">
         <v>5</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
-      <c r="L11" s="5"/>
+      <c r="L11" s="4"/>
       <c r="M11">
         <v>2</v>
       </c>
-      <c r="N11" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O11" s="9">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="P11" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q11" s="9">
+      <c r="N11" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O11" s="8">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P11" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1082,42 +1097,42 @@
       <c r="C12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="2">
-        <v>5</v>
-      </c>
-      <c r="E12" s="2">
-        <v>5</v>
-      </c>
-      <c r="F12" s="2">
-        <v>5</v>
-      </c>
-      <c r="G12" s="2">
+      <c r="D12" s="10">
+        <v>5</v>
+      </c>
+      <c r="E12" s="10">
+        <v>5</v>
+      </c>
+      <c r="F12" s="10">
+        <v>5</v>
+      </c>
+      <c r="G12" s="10">
         <v>5</v>
       </c>
       <c r="H12" s="2"/>
-      <c r="I12" s="2">
-        <v>5</v>
-      </c>
-      <c r="J12" s="6">
-        <v>5</v>
-      </c>
-      <c r="L12" s="5"/>
+      <c r="I12" s="10">
+        <v>5</v>
+      </c>
+      <c r="J12" s="12">
+        <v>5</v>
+      </c>
+      <c r="L12" s="4"/>
       <c r="M12">
         <v>4</v>
       </c>
-      <c r="N12" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O12" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P12" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q12" s="9">
+      <c r="N12" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O12" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P12" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="8">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -1133,49 +1148,49 @@
       <c r="C13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="2">
-        <v>5</v>
-      </c>
-      <c r="E13" s="2">
-        <v>5</v>
-      </c>
-      <c r="F13" s="2">
-        <v>5</v>
-      </c>
-      <c r="G13" s="2">
-        <v>5</v>
-      </c>
-      <c r="H13" s="2">
-        <v>5</v>
-      </c>
-      <c r="I13" s="2">
-        <v>5</v>
-      </c>
-      <c r="J13" s="2">
-        <v>5</v>
-      </c>
-      <c r="K13" s="4">
-        <v>5</v>
-      </c>
-      <c r="L13" s="4">
-        <v>5</v>
-      </c>
-      <c r="M13" s="8">
+      <c r="D13" s="10">
+        <v>5</v>
+      </c>
+      <c r="E13" s="10">
+        <v>5</v>
+      </c>
+      <c r="F13" s="10">
+        <v>5</v>
+      </c>
+      <c r="G13" s="10">
+        <v>5</v>
+      </c>
+      <c r="H13" s="10">
+        <v>5</v>
+      </c>
+      <c r="I13" s="10">
+        <v>5</v>
+      </c>
+      <c r="J13" s="10">
+        <v>5</v>
+      </c>
+      <c r="K13" s="11">
+        <v>5</v>
+      </c>
+      <c r="L13" s="11">
+        <v>5</v>
+      </c>
+      <c r="M13" s="7">
         <v>2</v>
       </c>
-      <c r="N13" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O13" s="9">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="P13" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q13" s="9">
+      <c r="N13" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O13" s="8">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P13" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1194,49 +1209,49 @@
       <c r="C14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="2">
-        <v>5</v>
-      </c>
-      <c r="E14" s="2">
-        <v>5</v>
-      </c>
-      <c r="F14" s="2">
-        <v>5</v>
-      </c>
-      <c r="G14" s="2">
-        <v>5</v>
-      </c>
-      <c r="H14" s="2">
-        <v>5</v>
-      </c>
-      <c r="I14" s="2">
-        <v>5</v>
-      </c>
-      <c r="J14" s="6">
-        <v>5</v>
-      </c>
-      <c r="K14" s="6">
-        <v>5</v>
-      </c>
-      <c r="L14" s="6">
+      <c r="D14" s="10">
+        <v>5</v>
+      </c>
+      <c r="E14" s="10">
+        <v>5</v>
+      </c>
+      <c r="F14" s="10">
+        <v>5</v>
+      </c>
+      <c r="G14" s="10">
+        <v>5</v>
+      </c>
+      <c r="H14" s="10">
+        <v>5</v>
+      </c>
+      <c r="I14" s="10">
+        <v>5</v>
+      </c>
+      <c r="J14" s="12">
+        <v>5</v>
+      </c>
+      <c r="K14" s="12">
+        <v>5</v>
+      </c>
+      <c r="L14" s="12">
         <v>5</v>
       </c>
       <c r="M14">
         <v>4</v>
       </c>
-      <c r="N14" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O14" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P14" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q14" s="9">
+      <c r="N14" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O14" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P14" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="8">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -1255,44 +1270,44 @@
       <c r="C15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="2">
-        <v>5</v>
-      </c>
-      <c r="E15" s="2">
-        <v>5</v>
-      </c>
-      <c r="F15" s="2">
-        <v>5</v>
-      </c>
-      <c r="G15" s="2">
-        <v>5</v>
-      </c>
-      <c r="H15" s="2">
-        <v>5</v>
-      </c>
-      <c r="I15" s="2">
-        <v>5</v>
-      </c>
-      <c r="J15" s="2">
-        <v>5</v>
-      </c>
-      <c r="L15" s="5"/>
-      <c r="M15" s="8">
+      <c r="D15" s="10">
+        <v>5</v>
+      </c>
+      <c r="E15" s="10">
+        <v>5</v>
+      </c>
+      <c r="F15" s="10">
+        <v>5</v>
+      </c>
+      <c r="G15" s="10">
+        <v>5</v>
+      </c>
+      <c r="H15" s="10">
+        <v>5</v>
+      </c>
+      <c r="I15" s="10">
+        <v>5</v>
+      </c>
+      <c r="J15" s="10">
+        <v>5</v>
+      </c>
+      <c r="L15" s="4"/>
+      <c r="M15" s="7">
         <v>3</v>
       </c>
-      <c r="N15" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O15" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P15" s="9">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="Q15" s="9">
+      <c r="N15" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O15" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P15" s="8">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Q15" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1308,49 +1323,49 @@
       <c r="C16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="2">
-        <v>5</v>
-      </c>
-      <c r="E16" s="2">
-        <v>5</v>
-      </c>
-      <c r="F16" s="2">
-        <v>5</v>
-      </c>
-      <c r="G16" s="2">
-        <v>5</v>
-      </c>
-      <c r="H16" s="2">
-        <v>5</v>
-      </c>
-      <c r="I16" s="2">
-        <v>5</v>
-      </c>
-      <c r="J16" s="2">
-        <v>5</v>
-      </c>
-      <c r="K16" s="4">
-        <v>5</v>
-      </c>
-      <c r="L16" s="4">
-        <v>5</v>
-      </c>
-      <c r="M16" s="8">
+      <c r="D16" s="10">
+        <v>5</v>
+      </c>
+      <c r="E16" s="10">
+        <v>5</v>
+      </c>
+      <c r="F16" s="10">
+        <v>5</v>
+      </c>
+      <c r="G16" s="10">
+        <v>5</v>
+      </c>
+      <c r="H16" s="10">
+        <v>5</v>
+      </c>
+      <c r="I16" s="10">
+        <v>5</v>
+      </c>
+      <c r="J16" s="10">
+        <v>5</v>
+      </c>
+      <c r="K16" s="11">
+        <v>5</v>
+      </c>
+      <c r="L16" s="11">
+        <v>5</v>
+      </c>
+      <c r="M16" s="7">
         <v>4</v>
       </c>
-      <c r="N16" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O16" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P16" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q16" s="9">
+      <c r="N16" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O16" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P16" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q16" s="8">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -1369,44 +1384,44 @@
       <c r="C17" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="2">
-        <v>5</v>
-      </c>
-      <c r="E17" s="2">
-        <v>5</v>
-      </c>
-      <c r="F17" s="2">
-        <v>5</v>
-      </c>
-      <c r="G17" s="2">
-        <v>5</v>
-      </c>
-      <c r="H17" s="2">
-        <v>5</v>
-      </c>
-      <c r="I17" s="2">
-        <v>5</v>
-      </c>
-      <c r="J17" s="2">
-        <v>5</v>
-      </c>
-      <c r="L17" s="5"/>
-      <c r="M17" s="8">
+      <c r="D17" s="10">
+        <v>5</v>
+      </c>
+      <c r="E17" s="10">
+        <v>5</v>
+      </c>
+      <c r="F17" s="10">
+        <v>5</v>
+      </c>
+      <c r="G17" s="10">
+        <v>5</v>
+      </c>
+      <c r="H17" s="10">
+        <v>5</v>
+      </c>
+      <c r="I17" s="10">
+        <v>5</v>
+      </c>
+      <c r="J17" s="10">
+        <v>5</v>
+      </c>
+      <c r="L17" s="4"/>
+      <c r="M17" s="7">
         <v>3</v>
       </c>
-      <c r="N17" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O17" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P17" s="9">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="Q17" s="9">
+      <c r="N17" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O17" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P17" s="8">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Q17" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1422,49 +1437,49 @@
       <c r="C18" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="2">
-        <v>5</v>
-      </c>
-      <c r="E18" s="2">
-        <v>5</v>
-      </c>
-      <c r="F18" s="2">
-        <v>5</v>
-      </c>
-      <c r="G18" s="2">
-        <v>5</v>
-      </c>
-      <c r="H18" s="2">
-        <v>5</v>
-      </c>
-      <c r="I18" s="2">
-        <v>5</v>
-      </c>
-      <c r="J18" s="2">
-        <v>5</v>
-      </c>
-      <c r="K18" s="6">
-        <v>5</v>
-      </c>
-      <c r="L18" s="8">
-        <v>5</v>
-      </c>
-      <c r="M18" s="8">
+      <c r="D18" s="10">
+        <v>5</v>
+      </c>
+      <c r="E18" s="10">
+        <v>5</v>
+      </c>
+      <c r="F18" s="10">
+        <v>5</v>
+      </c>
+      <c r="G18" s="10">
+        <v>5</v>
+      </c>
+      <c r="H18" s="10">
+        <v>5</v>
+      </c>
+      <c r="I18" s="10">
+        <v>5</v>
+      </c>
+      <c r="J18" s="10">
+        <v>5</v>
+      </c>
+      <c r="K18" s="12">
+        <v>5</v>
+      </c>
+      <c r="L18" s="13">
+        <v>5</v>
+      </c>
+      <c r="M18" s="7">
         <v>2</v>
       </c>
-      <c r="N18" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O18" s="9">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="P18" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q18" s="9">
+      <c r="N18" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O18" s="8">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P18" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q18" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1480,41 +1495,41 @@
       <c r="C19" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="2">
-        <v>5</v>
-      </c>
-      <c r="E19" s="2">
-        <v>5</v>
-      </c>
-      <c r="F19" s="2">
-        <v>5</v>
-      </c>
-      <c r="G19" s="2">
-        <v>5</v>
-      </c>
-      <c r="H19" s="2">
-        <v>5</v>
-      </c>
-      <c r="I19" s="2">
-        <v>5</v>
-      </c>
-      <c r="J19" s="2">
-        <v>5</v>
-      </c>
-      <c r="L19" s="5"/>
-      <c r="N19" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O19" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P19" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q19" s="9">
+      <c r="D19" s="10">
+        <v>5</v>
+      </c>
+      <c r="E19" s="10">
+        <v>5</v>
+      </c>
+      <c r="F19" s="10">
+        <v>5</v>
+      </c>
+      <c r="G19" s="10">
+        <v>5</v>
+      </c>
+      <c r="H19" s="10">
+        <v>5</v>
+      </c>
+      <c r="I19" s="10">
+        <v>5</v>
+      </c>
+      <c r="J19" s="10">
+        <v>5</v>
+      </c>
+      <c r="L19" s="4"/>
+      <c r="N19" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O19" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P19" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q19" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1530,49 +1545,49 @@
       <c r="C20" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="2">
-        <v>5</v>
-      </c>
-      <c r="E20" s="2">
-        <v>5</v>
-      </c>
-      <c r="F20" s="2">
-        <v>5</v>
-      </c>
-      <c r="G20" s="2">
-        <v>5</v>
-      </c>
-      <c r="H20" s="2">
-        <v>5</v>
-      </c>
-      <c r="I20" s="2">
-        <v>5</v>
-      </c>
-      <c r="J20" s="2">
-        <v>5</v>
-      </c>
-      <c r="K20" s="4">
-        <v>5</v>
-      </c>
-      <c r="L20" s="4">
-        <v>5</v>
-      </c>
-      <c r="M20" s="8">
+      <c r="D20" s="10">
+        <v>5</v>
+      </c>
+      <c r="E20" s="10">
+        <v>5</v>
+      </c>
+      <c r="F20" s="10">
+        <v>5</v>
+      </c>
+      <c r="G20" s="10">
+        <v>5</v>
+      </c>
+      <c r="H20" s="10">
+        <v>5</v>
+      </c>
+      <c r="I20" s="10">
+        <v>5</v>
+      </c>
+      <c r="J20" s="10">
+        <v>5</v>
+      </c>
+      <c r="K20" s="11">
+        <v>5</v>
+      </c>
+      <c r="L20" s="11">
+        <v>5</v>
+      </c>
+      <c r="M20" s="7">
         <v>2</v>
       </c>
-      <c r="N20" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O20" s="9">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="P20" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q20" s="9">
+      <c r="N20" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O20" s="8">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P20" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q20" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1591,38 +1606,38 @@
       <c r="C21" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="2">
-        <v>5</v>
-      </c>
-      <c r="E21" s="2">
-        <v>5</v>
-      </c>
-      <c r="F21" s="2">
-        <v>5</v>
-      </c>
-      <c r="G21" s="2">
-        <v>5</v>
-      </c>
-      <c r="H21" s="2">
-        <v>5</v>
-      </c>
-      <c r="I21" s="2">
-        <v>5</v>
-      </c>
-      <c r="L21" s="5"/>
-      <c r="N21" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O21" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P21" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q21" s="9">
+      <c r="D21" s="10">
+        <v>5</v>
+      </c>
+      <c r="E21" s="10">
+        <v>5</v>
+      </c>
+      <c r="F21" s="10">
+        <v>5</v>
+      </c>
+      <c r="G21" s="10">
+        <v>5</v>
+      </c>
+      <c r="H21" s="10">
+        <v>5</v>
+      </c>
+      <c r="I21" s="10">
+        <v>5</v>
+      </c>
+      <c r="L21" s="4"/>
+      <c r="N21" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O21" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P21" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q21" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1638,44 +1653,44 @@
       <c r="C22" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="2">
-        <v>5</v>
-      </c>
-      <c r="E22" s="2">
-        <v>5</v>
-      </c>
-      <c r="F22" s="2">
-        <v>5</v>
-      </c>
-      <c r="G22" s="2">
-        <v>5</v>
-      </c>
-      <c r="H22" s="2">
-        <v>5</v>
-      </c>
-      <c r="I22" s="2">
-        <v>5</v>
-      </c>
-      <c r="J22" s="2">
-        <v>5</v>
-      </c>
-      <c r="L22" s="5"/>
-      <c r="M22" s="8">
-        <v>1</v>
-      </c>
-      <c r="N22" s="9">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="O22" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P22" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q22" s="9">
+      <c r="D22" s="10">
+        <v>5</v>
+      </c>
+      <c r="E22" s="10">
+        <v>5</v>
+      </c>
+      <c r="F22" s="10">
+        <v>5</v>
+      </c>
+      <c r="G22" s="10">
+        <v>5</v>
+      </c>
+      <c r="H22" s="10">
+        <v>5</v>
+      </c>
+      <c r="I22" s="10">
+        <v>5</v>
+      </c>
+      <c r="J22" s="10">
+        <v>5</v>
+      </c>
+      <c r="L22" s="4"/>
+      <c r="M22" s="7">
+        <v>1</v>
+      </c>
+      <c r="N22" s="8">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O22" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P22" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q22" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1694,49 +1709,49 @@
       <c r="C23" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D23" s="2">
-        <v>5</v>
-      </c>
-      <c r="E23" s="2">
-        <v>5</v>
-      </c>
-      <c r="F23" s="2">
-        <v>5</v>
-      </c>
-      <c r="G23" s="2">
-        <v>5</v>
-      </c>
-      <c r="H23" s="2">
-        <v>5</v>
-      </c>
-      <c r="I23" s="2">
-        <v>5</v>
-      </c>
-      <c r="J23" s="2">
-        <v>5</v>
-      </c>
-      <c r="K23" s="2">
-        <v>5</v>
-      </c>
-      <c r="L23" s="4">
-        <v>5</v>
-      </c>
-      <c r="M23" s="6">
+      <c r="D23" s="10">
+        <v>5</v>
+      </c>
+      <c r="E23" s="10">
+        <v>5</v>
+      </c>
+      <c r="F23" s="10">
+        <v>5</v>
+      </c>
+      <c r="G23" s="10">
+        <v>5</v>
+      </c>
+      <c r="H23" s="10">
+        <v>5</v>
+      </c>
+      <c r="I23" s="10">
+        <v>5</v>
+      </c>
+      <c r="J23" s="10">
+        <v>5</v>
+      </c>
+      <c r="K23" s="10">
+        <v>5</v>
+      </c>
+      <c r="L23" s="11">
+        <v>5</v>
+      </c>
+      <c r="M23" s="5">
         <v>4</v>
       </c>
-      <c r="N23" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O23" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P23" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q23" s="9">
+      <c r="N23" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O23" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P23" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q23" s="8">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -1755,46 +1770,46 @@
       <c r="C24" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D24" s="2">
-        <v>5</v>
-      </c>
-      <c r="E24" s="2">
-        <v>5</v>
-      </c>
-      <c r="F24" s="2">
-        <v>5</v>
-      </c>
-      <c r="G24" s="2">
-        <v>5</v>
-      </c>
-      <c r="H24" s="2">
-        <v>5</v>
-      </c>
-      <c r="I24" s="2">
-        <v>5</v>
-      </c>
-      <c r="J24" s="2">
-        <v>5</v>
-      </c>
-      <c r="K24" s="4">
-        <v>5</v>
-      </c>
-      <c r="L24" s="4">
-        <v>5</v>
-      </c>
-      <c r="N24" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O24" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P24" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q24" s="9">
+      <c r="D24" s="10">
+        <v>5</v>
+      </c>
+      <c r="E24" s="10">
+        <v>5</v>
+      </c>
+      <c r="F24" s="10">
+        <v>5</v>
+      </c>
+      <c r="G24" s="10">
+        <v>5</v>
+      </c>
+      <c r="H24" s="10">
+        <v>5</v>
+      </c>
+      <c r="I24" s="10">
+        <v>5</v>
+      </c>
+      <c r="J24" s="10">
+        <v>5</v>
+      </c>
+      <c r="K24" s="11">
+        <v>5</v>
+      </c>
+      <c r="L24" s="11">
+        <v>5</v>
+      </c>
+      <c r="N24" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O24" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P24" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q24" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1813,47 +1828,47 @@
       <c r="C25" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D25" s="2">
-        <v>5</v>
-      </c>
-      <c r="E25" s="2">
-        <v>5</v>
-      </c>
-      <c r="F25" s="2">
-        <v>5</v>
-      </c>
-      <c r="G25" s="2">
-        <v>5</v>
-      </c>
-      <c r="H25" s="2">
-        <v>5</v>
-      </c>
-      <c r="I25" s="2">
-        <v>5</v>
-      </c>
-      <c r="J25" s="6">
-        <v>5</v>
-      </c>
-      <c r="K25" s="6">
-        <v>5</v>
-      </c>
-      <c r="L25" s="5"/>
-      <c r="M25" s="8">
+      <c r="D25" s="10">
+        <v>5</v>
+      </c>
+      <c r="E25" s="10">
+        <v>5</v>
+      </c>
+      <c r="F25" s="10">
+        <v>5</v>
+      </c>
+      <c r="G25" s="10">
+        <v>5</v>
+      </c>
+      <c r="H25" s="10">
+        <v>5</v>
+      </c>
+      <c r="I25" s="10">
+        <v>5</v>
+      </c>
+      <c r="J25" s="12">
+        <v>5</v>
+      </c>
+      <c r="K25" s="12">
+        <v>5</v>
+      </c>
+      <c r="L25" s="4"/>
+      <c r="M25" s="7">
         <v>3</v>
       </c>
-      <c r="N25" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O25" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P25" s="9">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="Q25" s="9">
+      <c r="N25" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O25" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P25" s="8">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Q25" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1869,49 +1884,49 @@
       <c r="C26" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D26" s="2">
-        <v>5</v>
-      </c>
-      <c r="E26" s="2">
-        <v>5</v>
-      </c>
-      <c r="F26" s="2">
-        <v>5</v>
-      </c>
-      <c r="G26" s="2">
-        <v>5</v>
-      </c>
-      <c r="H26" s="2">
-        <v>5</v>
-      </c>
-      <c r="I26" s="2">
-        <v>5</v>
-      </c>
-      <c r="J26" s="2">
-        <v>5</v>
-      </c>
-      <c r="K26" s="4">
-        <v>5</v>
-      </c>
-      <c r="L26" s="4">
-        <v>5</v>
-      </c>
-      <c r="M26" s="8">
+      <c r="D26" s="10">
+        <v>5</v>
+      </c>
+      <c r="E26" s="10">
+        <v>5</v>
+      </c>
+      <c r="F26" s="10">
+        <v>5</v>
+      </c>
+      <c r="G26" s="10">
+        <v>5</v>
+      </c>
+      <c r="H26" s="10">
+        <v>5</v>
+      </c>
+      <c r="I26" s="10">
+        <v>5</v>
+      </c>
+      <c r="J26" s="10">
+        <v>5</v>
+      </c>
+      <c r="K26" s="11">
+        <v>5</v>
+      </c>
+      <c r="L26" s="11">
+        <v>5</v>
+      </c>
+      <c r="M26" s="7">
         <v>4</v>
       </c>
-      <c r="N26" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O26" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P26" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q26" s="9">
+      <c r="N26" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O26" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P26" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q26" s="8">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -1936,23 +1951,23 @@
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
-      <c r="L27" s="5"/>
+      <c r="L27" s="4"/>
       <c r="M27">
         <v>3</v>
       </c>
-      <c r="N27" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O27" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P27" s="9">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="Q27" s="9">
+      <c r="N27" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O27" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P27" s="8">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Q27" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1974,23 +1989,23 @@
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
-      <c r="L28" s="5"/>
+      <c r="L28" s="4"/>
       <c r="M28">
         <v>3</v>
       </c>
-      <c r="N28" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O28" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P28" s="9">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="Q28" s="9">
+      <c r="N28" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O28" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P28" s="8">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Q28" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2006,49 +2021,49 @@
       <c r="C29" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D29" s="2">
-        <v>5</v>
-      </c>
-      <c r="E29" s="2">
-        <v>5</v>
-      </c>
-      <c r="F29" s="2">
-        <v>5</v>
-      </c>
-      <c r="G29" s="2">
-        <v>5</v>
-      </c>
-      <c r="H29" s="2">
-        <v>5</v>
-      </c>
-      <c r="I29" s="2">
-        <v>5</v>
-      </c>
-      <c r="J29" s="2">
-        <v>5</v>
-      </c>
-      <c r="K29" s="8">
-        <v>5</v>
-      </c>
-      <c r="L29" s="8">
-        <v>5</v>
-      </c>
-      <c r="M29" s="8">
-        <v>1</v>
-      </c>
-      <c r="N29" s="9">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="O29" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P29" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q29" s="9">
+      <c r="D29" s="10">
+        <v>5</v>
+      </c>
+      <c r="E29" s="10">
+        <v>5</v>
+      </c>
+      <c r="F29" s="10">
+        <v>5</v>
+      </c>
+      <c r="G29" s="10">
+        <v>5</v>
+      </c>
+      <c r="H29" s="10">
+        <v>5</v>
+      </c>
+      <c r="I29" s="10">
+        <v>5</v>
+      </c>
+      <c r="J29" s="10">
+        <v>5</v>
+      </c>
+      <c r="K29" s="13">
+        <v>5</v>
+      </c>
+      <c r="L29" s="13">
+        <v>5</v>
+      </c>
+      <c r="M29" s="7">
+        <v>1</v>
+      </c>
+      <c r="N29" s="8">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O29" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P29" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q29" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2064,49 +2079,49 @@
       <c r="C30" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D30" s="2">
-        <v>5</v>
-      </c>
-      <c r="E30" s="2">
-        <v>5</v>
-      </c>
-      <c r="F30" s="2">
-        <v>5</v>
-      </c>
-      <c r="G30" s="2">
-        <v>5</v>
-      </c>
-      <c r="H30" s="2">
-        <v>5</v>
-      </c>
-      <c r="I30" s="2">
-        <v>5</v>
-      </c>
-      <c r="J30" s="6">
-        <v>5</v>
-      </c>
-      <c r="K30" s="8">
-        <v>5</v>
-      </c>
-      <c r="L30" s="8">
+      <c r="D30" s="10">
+        <v>5</v>
+      </c>
+      <c r="E30" s="10">
+        <v>5</v>
+      </c>
+      <c r="F30" s="10">
+        <v>5</v>
+      </c>
+      <c r="G30" s="10">
+        <v>5</v>
+      </c>
+      <c r="H30" s="10">
+        <v>5</v>
+      </c>
+      <c r="I30" s="10">
+        <v>5</v>
+      </c>
+      <c r="J30" s="12">
+        <v>5</v>
+      </c>
+      <c r="K30" s="13">
+        <v>5</v>
+      </c>
+      <c r="L30" s="13">
         <v>5</v>
       </c>
       <c r="M30">
         <v>3</v>
       </c>
-      <c r="N30" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O30" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P30" s="9">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="Q30" s="9">
+      <c r="N30" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O30" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P30" s="8">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Q30" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2128,20 +2143,20 @@
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
-      <c r="L31" s="5"/>
-      <c r="N31" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O31" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P31" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q31" s="9">
+      <c r="L31" s="4"/>
+      <c r="N31" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O31" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P31" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q31" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2157,49 +2172,49 @@
       <c r="C32" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D32" s="2">
-        <v>5</v>
-      </c>
-      <c r="E32" s="2">
-        <v>5</v>
-      </c>
-      <c r="F32" s="2">
-        <v>5</v>
-      </c>
-      <c r="G32" s="2">
-        <v>5</v>
-      </c>
-      <c r="H32" s="2">
-        <v>5</v>
-      </c>
-      <c r="I32" s="2">
-        <v>5</v>
-      </c>
-      <c r="J32" s="2">
-        <v>5</v>
-      </c>
-      <c r="K32" s="4">
-        <v>5</v>
-      </c>
-      <c r="L32" s="4">
-        <v>5</v>
-      </c>
-      <c r="M32" s="8">
+      <c r="D32" s="10">
+        <v>5</v>
+      </c>
+      <c r="E32" s="10">
+        <v>5</v>
+      </c>
+      <c r="F32" s="10">
+        <v>5</v>
+      </c>
+      <c r="G32" s="10">
+        <v>5</v>
+      </c>
+      <c r="H32" s="10">
+        <v>5</v>
+      </c>
+      <c r="I32" s="10">
+        <v>5</v>
+      </c>
+      <c r="J32" s="10">
+        <v>5</v>
+      </c>
+      <c r="K32" s="11">
+        <v>5</v>
+      </c>
+      <c r="L32" s="11">
+        <v>5</v>
+      </c>
+      <c r="M32" s="7">
         <v>2</v>
       </c>
-      <c r="N32" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O32" s="9">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="P32" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q32" s="9">
+      <c r="N32" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O32" s="8">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P32" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q32" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2216,7 +2231,7 @@
       <c r="I33" s="3"/>
     </row>
     <row r="34" spans="3:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C34" s="7"/>
+      <c r="C34" s="6"/>
     </row>
     <row r="35" spans="3:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="36" spans="3:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/2ИСИП-422_ДисМат_.xlsx
+++ b/2ИСИП-422_ДисМат_.xlsx
@@ -169,7 +169,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -179,6 +179,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -230,7 +236,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -263,6 +269,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -572,10 +581,10 @@
   <dimension ref="A1:T41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C19" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L37" sqref="L37"/>
+      <selection pane="bottomRight" activeCell="T22" sqref="T22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1674,7 +1683,12 @@
       <c r="J22" s="10">
         <v>5</v>
       </c>
-      <c r="L22" s="4"/>
+      <c r="K22" s="14">
+        <v>5</v>
+      </c>
+      <c r="L22" s="14">
+        <v>5</v>
+      </c>
       <c r="M22" s="7">
         <v>1</v>
       </c>
@@ -1693,6 +1707,9 @@
       <c r="Q22" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
+      </c>
+      <c r="S22">
+        <v>5</v>
       </c>
       <c r="T22" t="s">
         <v>41</v>

--- a/2ИСИП-422_ДисМат_.xlsx
+++ b/2ИСИП-422_ДисМат_.xlsx
@@ -581,10 +581,10 @@
   <dimension ref="A1:T41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="T22" sqref="T22"/>
+      <selection pane="bottomRight" activeCell="S9" sqref="S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -997,6 +997,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="S9">
+        <v>5</v>
+      </c>
     </row>
     <row r="10" spans="1:19" ht="14.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">

--- a/2ИСИП-422_ДисМат_.xlsx
+++ b/2ИСИП-422_ДисМат_.xlsx
@@ -169,7 +169,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -185,6 +185,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -236,7 +242,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -254,9 +260,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -272,6 +275,16 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -581,10 +594,10 @@
   <dimension ref="A1:T41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="S9" sqref="S9"/>
+      <selection pane="bottomRight" activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -593,11 +606,12 @@
     <col min="2" max="2" width="25.36328125" customWidth="1"/>
     <col min="3" max="3" width="21.54296875" customWidth="1"/>
     <col min="4" max="12" width="4.6328125" customWidth="1"/>
+    <col min="13" max="13" width="8.7265625" style="14"/>
     <col min="14" max="17" width="3.36328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>0</v>
       </c>
     </row>
@@ -629,7 +643,7 @@
       <c r="L2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="M2" s="15" t="s">
         <v>37</v>
       </c>
       <c r="N2">
@@ -659,15 +673,15 @@
         <f>SUM(N4:N32)</f>
         <v>6</v>
       </c>
-      <c r="O3" s="8">
+      <c r="O3" s="7">
         <f t="shared" ref="O3:Q3" si="0">SUM(O4:O32)</f>
-        <v>5</v>
-      </c>
-      <c r="P3" s="8">
+        <v>6</v>
+      </c>
+      <c r="P3" s="7">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="Q3" s="8">
+      <c r="Q3" s="7">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
@@ -683,46 +697,46 @@
       <c r="C4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="10">
-        <v>5</v>
-      </c>
-      <c r="E4" s="10">
-        <v>5</v>
-      </c>
-      <c r="F4" s="10">
-        <v>5</v>
-      </c>
-      <c r="G4" s="10">
-        <v>5</v>
-      </c>
-      <c r="H4" s="10">
-        <v>5</v>
-      </c>
-      <c r="I4" s="10">
-        <v>5</v>
-      </c>
-      <c r="J4" s="11">
-        <v>5</v>
-      </c>
-      <c r="K4" s="12">
-        <v>5</v>
-      </c>
-      <c r="M4">
+      <c r="D4" s="9">
+        <v>5</v>
+      </c>
+      <c r="E4" s="9">
+        <v>5</v>
+      </c>
+      <c r="F4" s="9">
+        <v>5</v>
+      </c>
+      <c r="G4" s="9">
+        <v>5</v>
+      </c>
+      <c r="H4" s="9">
+        <v>5</v>
+      </c>
+      <c r="I4" s="9">
+        <v>5</v>
+      </c>
+      <c r="J4" s="10">
+        <v>5</v>
+      </c>
+      <c r="K4" s="11">
+        <v>5</v>
+      </c>
+      <c r="M4" s="14">
         <v>1</v>
       </c>
       <c r="N4">
         <f t="shared" ref="N4:Q32" si="1">IF($M4=N$2,1,0)</f>
         <v>1</v>
       </c>
-      <c r="O4" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P4" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q4" s="8">
+      <c r="O4" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P4" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q4" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -738,41 +752,41 @@
       <c r="C5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="10">
-        <v>5</v>
-      </c>
-      <c r="E5" s="10">
-        <v>5</v>
-      </c>
-      <c r="F5" s="10">
-        <v>5</v>
-      </c>
-      <c r="G5" s="10">
-        <v>5</v>
-      </c>
-      <c r="H5" s="10">
-        <v>5</v>
-      </c>
-      <c r="I5" s="10">
-        <v>5</v>
-      </c>
-      <c r="J5" s="11">
+      <c r="D5" s="9">
+        <v>5</v>
+      </c>
+      <c r="E5" s="9">
+        <v>5</v>
+      </c>
+      <c r="F5" s="9">
+        <v>5</v>
+      </c>
+      <c r="G5" s="9">
+        <v>5</v>
+      </c>
+      <c r="H5" s="9">
+        <v>5</v>
+      </c>
+      <c r="I5" s="9">
+        <v>5</v>
+      </c>
+      <c r="J5" s="10">
         <v>5</v>
       </c>
       <c r="L5" s="4"/>
-      <c r="N5" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O5" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P5" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q5" s="8">
+      <c r="N5" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O5" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P5" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q5" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -788,48 +802,54 @@
       <c r="C6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="10">
-        <v>5</v>
-      </c>
-      <c r="E6" s="10">
-        <v>5</v>
-      </c>
-      <c r="F6" s="10">
-        <v>5</v>
-      </c>
-      <c r="G6" s="10">
-        <v>5</v>
-      </c>
-      <c r="H6" s="10">
-        <v>5</v>
-      </c>
-      <c r="I6" s="10">
-        <v>5</v>
-      </c>
-      <c r="J6" s="10">
-        <v>5</v>
-      </c>
-      <c r="L6" s="12">
-        <v>5</v>
-      </c>
-      <c r="M6">
+      <c r="D6" s="9">
+        <v>5</v>
+      </c>
+      <c r="E6" s="9">
+        <v>5</v>
+      </c>
+      <c r="F6" s="9">
+        <v>5</v>
+      </c>
+      <c r="G6" s="9">
+        <v>5</v>
+      </c>
+      <c r="H6" s="9">
+        <v>5</v>
+      </c>
+      <c r="I6" s="9">
+        <v>5</v>
+      </c>
+      <c r="J6" s="9">
+        <v>5</v>
+      </c>
+      <c r="K6" s="13">
+        <v>5</v>
+      </c>
+      <c r="L6" s="11">
+        <v>5</v>
+      </c>
+      <c r="M6" s="14">
         <v>4</v>
       </c>
-      <c r="N6" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O6" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P6" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q6" s="8">
-        <f t="shared" si="1"/>
-        <v>1</v>
+      <c r="N6" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O6" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P6" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="S6">
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="14.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -843,41 +863,41 @@
       <c r="C7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="10">
-        <v>5</v>
-      </c>
-      <c r="E7" s="10">
-        <v>5</v>
-      </c>
-      <c r="F7" s="10">
-        <v>5</v>
-      </c>
-      <c r="G7" s="10">
-        <v>5</v>
-      </c>
-      <c r="H7" s="10">
-        <v>5</v>
-      </c>
-      <c r="I7" s="10">
-        <v>5</v>
-      </c>
-      <c r="J7" s="11">
+      <c r="D7" s="9">
+        <v>5</v>
+      </c>
+      <c r="E7" s="9">
+        <v>5</v>
+      </c>
+      <c r="F7" s="9">
+        <v>5</v>
+      </c>
+      <c r="G7" s="9">
+        <v>5</v>
+      </c>
+      <c r="H7" s="9">
+        <v>5</v>
+      </c>
+      <c r="I7" s="9">
+        <v>5</v>
+      </c>
+      <c r="J7" s="10">
         <v>5</v>
       </c>
       <c r="L7" s="4"/>
-      <c r="N7" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O7" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P7" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q7" s="8">
+      <c r="N7" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O7" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P7" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -893,49 +913,49 @@
       <c r="C8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="10">
-        <v>5</v>
-      </c>
-      <c r="E8" s="10">
-        <v>5</v>
-      </c>
-      <c r="F8" s="10">
-        <v>5</v>
-      </c>
-      <c r="G8" s="10">
-        <v>5</v>
-      </c>
-      <c r="H8" s="10">
-        <v>5</v>
-      </c>
-      <c r="I8" s="10">
-        <v>5</v>
-      </c>
-      <c r="J8" s="11">
-        <v>5</v>
-      </c>
-      <c r="K8" s="11">
-        <v>5</v>
-      </c>
-      <c r="L8" s="11">
-        <v>5</v>
-      </c>
-      <c r="M8" s="7">
-        <v>1</v>
-      </c>
-      <c r="N8" s="8">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="O8" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P8" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q8" s="8">
+      <c r="D8" s="9">
+        <v>5</v>
+      </c>
+      <c r="E8" s="9">
+        <v>5</v>
+      </c>
+      <c r="F8" s="9">
+        <v>5</v>
+      </c>
+      <c r="G8" s="9">
+        <v>5</v>
+      </c>
+      <c r="H8" s="9">
+        <v>5</v>
+      </c>
+      <c r="I8" s="9">
+        <v>5</v>
+      </c>
+      <c r="J8" s="10">
+        <v>5</v>
+      </c>
+      <c r="K8" s="10">
+        <v>5</v>
+      </c>
+      <c r="L8" s="10">
+        <v>5</v>
+      </c>
+      <c r="M8" s="16">
+        <v>1</v>
+      </c>
+      <c r="N8" s="7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O8" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P8" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q8" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -951,49 +971,49 @@
       <c r="C9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="10">
-        <v>5</v>
-      </c>
-      <c r="E9" s="10">
-        <v>5</v>
-      </c>
-      <c r="F9" s="10">
-        <v>5</v>
-      </c>
-      <c r="G9" s="10">
-        <v>5</v>
-      </c>
-      <c r="H9" s="10">
-        <v>5</v>
-      </c>
-      <c r="I9" s="10">
-        <v>5</v>
-      </c>
-      <c r="J9" s="10">
-        <v>5</v>
-      </c>
-      <c r="K9" s="11">
-        <v>5</v>
-      </c>
-      <c r="L9" s="12">
-        <v>5</v>
-      </c>
-      <c r="M9" s="7">
-        <v>1</v>
-      </c>
-      <c r="N9" s="8">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="O9" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P9" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q9" s="8">
+      <c r="D9" s="9">
+        <v>5</v>
+      </c>
+      <c r="E9" s="9">
+        <v>5</v>
+      </c>
+      <c r="F9" s="9">
+        <v>5</v>
+      </c>
+      <c r="G9" s="9">
+        <v>5</v>
+      </c>
+      <c r="H9" s="9">
+        <v>5</v>
+      </c>
+      <c r="I9" s="9">
+        <v>5</v>
+      </c>
+      <c r="J9" s="9">
+        <v>5</v>
+      </c>
+      <c r="K9" s="10">
+        <v>5</v>
+      </c>
+      <c r="L9" s="11">
+        <v>5</v>
+      </c>
+      <c r="M9" s="16">
+        <v>1</v>
+      </c>
+      <c r="N9" s="7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O9" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P9" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1012,44 +1032,44 @@
       <c r="C10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="10">
-        <v>5</v>
-      </c>
-      <c r="E10" s="10">
-        <v>5</v>
-      </c>
-      <c r="F10" s="10">
-        <v>5</v>
-      </c>
-      <c r="G10" s="10">
-        <v>5</v>
-      </c>
-      <c r="H10" s="10">
-        <v>5</v>
-      </c>
-      <c r="I10" s="10">
-        <v>5</v>
-      </c>
-      <c r="J10" s="10">
+      <c r="D10" s="9">
+        <v>5</v>
+      </c>
+      <c r="E10" s="9">
+        <v>5</v>
+      </c>
+      <c r="F10" s="9">
+        <v>5</v>
+      </c>
+      <c r="G10" s="9">
+        <v>5</v>
+      </c>
+      <c r="H10" s="9">
+        <v>5</v>
+      </c>
+      <c r="I10" s="9">
+        <v>5</v>
+      </c>
+      <c r="J10" s="9">
         <v>5</v>
       </c>
       <c r="L10" s="4"/>
-      <c r="M10" s="7">
-        <v>1</v>
-      </c>
-      <c r="N10" s="8">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="O10" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P10" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q10" s="8">
+      <c r="M10" s="16">
+        <v>1</v>
+      </c>
+      <c r="N10" s="7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O10" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P10" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1065,35 +1085,44 @@
       <c r="C11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="10">
-        <v>5</v>
-      </c>
-      <c r="E11" s="10">
-        <v>5</v>
-      </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="10">
-        <v>5</v>
-      </c>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
+      <c r="D11" s="9">
+        <v>5</v>
+      </c>
+      <c r="E11" s="9">
+        <v>5</v>
+      </c>
+      <c r="F11" s="2">
+        <v>5</v>
+      </c>
+      <c r="G11" s="9">
+        <v>5</v>
+      </c>
+      <c r="H11" s="2">
+        <v>5</v>
+      </c>
+      <c r="I11" s="2">
+        <v>5</v>
+      </c>
+      <c r="K11" s="5">
+        <v>5</v>
+      </c>
       <c r="L11" s="4"/>
-      <c r="M11">
+      <c r="M11" s="14">
         <v>2</v>
       </c>
-      <c r="N11" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O11" s="8">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="P11" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q11" s="8">
+      <c r="N11" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O11" s="7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P11" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1109,42 +1138,42 @@
       <c r="C12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="10">
-        <v>5</v>
-      </c>
-      <c r="E12" s="10">
-        <v>5</v>
-      </c>
-      <c r="F12" s="10">
-        <v>5</v>
-      </c>
-      <c r="G12" s="10">
+      <c r="D12" s="9">
+        <v>5</v>
+      </c>
+      <c r="E12" s="9">
+        <v>5</v>
+      </c>
+      <c r="F12" s="9">
+        <v>5</v>
+      </c>
+      <c r="G12" s="9">
         <v>5</v>
       </c>
       <c r="H12" s="2"/>
-      <c r="I12" s="10">
-        <v>5</v>
-      </c>
-      <c r="J12" s="12">
+      <c r="I12" s="9">
+        <v>5</v>
+      </c>
+      <c r="J12" s="11">
         <v>5</v>
       </c>
       <c r="L12" s="4"/>
-      <c r="M12">
+      <c r="M12" s="14">
         <v>4</v>
       </c>
-      <c r="N12" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O12" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P12" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q12" s="8">
+      <c r="N12" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O12" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P12" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="7">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -1160,49 +1189,49 @@
       <c r="C13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="10">
-        <v>5</v>
-      </c>
-      <c r="E13" s="10">
-        <v>5</v>
-      </c>
-      <c r="F13" s="10">
-        <v>5</v>
-      </c>
-      <c r="G13" s="10">
-        <v>5</v>
-      </c>
-      <c r="H13" s="10">
-        <v>5</v>
-      </c>
-      <c r="I13" s="10">
-        <v>5</v>
-      </c>
-      <c r="J13" s="10">
-        <v>5</v>
-      </c>
-      <c r="K13" s="11">
-        <v>5</v>
-      </c>
-      <c r="L13" s="11">
-        <v>5</v>
-      </c>
-      <c r="M13" s="7">
+      <c r="D13" s="9">
+        <v>5</v>
+      </c>
+      <c r="E13" s="9">
+        <v>5</v>
+      </c>
+      <c r="F13" s="9">
+        <v>5</v>
+      </c>
+      <c r="G13" s="9">
+        <v>5</v>
+      </c>
+      <c r="H13" s="9">
+        <v>5</v>
+      </c>
+      <c r="I13" s="9">
+        <v>5</v>
+      </c>
+      <c r="J13" s="9">
+        <v>5</v>
+      </c>
+      <c r="K13" s="10">
+        <v>5</v>
+      </c>
+      <c r="L13" s="10">
+        <v>5</v>
+      </c>
+      <c r="M13" s="16">
         <v>2</v>
       </c>
-      <c r="N13" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O13" s="8">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="P13" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q13" s="8">
+      <c r="N13" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O13" s="7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P13" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1221,49 +1250,49 @@
       <c r="C14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="10">
-        <v>5</v>
-      </c>
-      <c r="E14" s="10">
-        <v>5</v>
-      </c>
-      <c r="F14" s="10">
-        <v>5</v>
-      </c>
-      <c r="G14" s="10">
-        <v>5</v>
-      </c>
-      <c r="H14" s="10">
-        <v>5</v>
-      </c>
-      <c r="I14" s="10">
-        <v>5</v>
-      </c>
-      <c r="J14" s="12">
-        <v>5</v>
-      </c>
-      <c r="K14" s="12">
-        <v>5</v>
-      </c>
-      <c r="L14" s="12">
-        <v>5</v>
-      </c>
-      <c r="M14">
+      <c r="D14" s="9">
+        <v>5</v>
+      </c>
+      <c r="E14" s="9">
+        <v>5</v>
+      </c>
+      <c r="F14" s="9">
+        <v>5</v>
+      </c>
+      <c r="G14" s="9">
+        <v>5</v>
+      </c>
+      <c r="H14" s="9">
+        <v>5</v>
+      </c>
+      <c r="I14" s="9">
+        <v>5</v>
+      </c>
+      <c r="J14" s="11">
+        <v>5</v>
+      </c>
+      <c r="K14" s="11">
+        <v>5</v>
+      </c>
+      <c r="L14" s="11">
+        <v>5</v>
+      </c>
+      <c r="M14" s="14">
         <v>4</v>
       </c>
-      <c r="N14" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O14" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P14" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q14" s="8">
+      <c r="N14" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O14" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P14" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="7">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -1282,44 +1311,44 @@
       <c r="C15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="10">
-        <v>5</v>
-      </c>
-      <c r="E15" s="10">
-        <v>5</v>
-      </c>
-      <c r="F15" s="10">
-        <v>5</v>
-      </c>
-      <c r="G15" s="10">
-        <v>5</v>
-      </c>
-      <c r="H15" s="10">
-        <v>5</v>
-      </c>
-      <c r="I15" s="10">
-        <v>5</v>
-      </c>
-      <c r="J15" s="10">
+      <c r="D15" s="9">
+        <v>5</v>
+      </c>
+      <c r="E15" s="9">
+        <v>5</v>
+      </c>
+      <c r="F15" s="9">
+        <v>5</v>
+      </c>
+      <c r="G15" s="9">
+        <v>5</v>
+      </c>
+      <c r="H15" s="9">
+        <v>5</v>
+      </c>
+      <c r="I15" s="9">
+        <v>5</v>
+      </c>
+      <c r="J15" s="9">
         <v>5</v>
       </c>
       <c r="L15" s="4"/>
-      <c r="M15" s="7">
+      <c r="M15" s="16">
         <v>3</v>
       </c>
-      <c r="N15" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O15" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P15" s="8">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="Q15" s="8">
+      <c r="N15" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O15" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P15" s="7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Q15" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1335,49 +1364,49 @@
       <c r="C16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="10">
-        <v>5</v>
-      </c>
-      <c r="E16" s="10">
-        <v>5</v>
-      </c>
-      <c r="F16" s="10">
-        <v>5</v>
-      </c>
-      <c r="G16" s="10">
-        <v>5</v>
-      </c>
-      <c r="H16" s="10">
-        <v>5</v>
-      </c>
-      <c r="I16" s="10">
-        <v>5</v>
-      </c>
-      <c r="J16" s="10">
-        <v>5</v>
-      </c>
-      <c r="K16" s="11">
-        <v>5</v>
-      </c>
-      <c r="L16" s="11">
-        <v>5</v>
-      </c>
-      <c r="M16" s="7">
+      <c r="D16" s="9">
+        <v>5</v>
+      </c>
+      <c r="E16" s="9">
+        <v>5</v>
+      </c>
+      <c r="F16" s="9">
+        <v>5</v>
+      </c>
+      <c r="G16" s="9">
+        <v>5</v>
+      </c>
+      <c r="H16" s="9">
+        <v>5</v>
+      </c>
+      <c r="I16" s="9">
+        <v>5</v>
+      </c>
+      <c r="J16" s="9">
+        <v>5</v>
+      </c>
+      <c r="K16" s="10">
+        <v>5</v>
+      </c>
+      <c r="L16" s="10">
+        <v>5</v>
+      </c>
+      <c r="M16" s="16">
         <v>4</v>
       </c>
-      <c r="N16" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O16" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P16" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q16" s="8">
+      <c r="N16" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O16" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P16" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q16" s="7">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -1396,44 +1425,44 @@
       <c r="C17" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="10">
-        <v>5</v>
-      </c>
-      <c r="E17" s="10">
-        <v>5</v>
-      </c>
-      <c r="F17" s="10">
-        <v>5</v>
-      </c>
-      <c r="G17" s="10">
-        <v>5</v>
-      </c>
-      <c r="H17" s="10">
-        <v>5</v>
-      </c>
-      <c r="I17" s="10">
-        <v>5</v>
-      </c>
-      <c r="J17" s="10">
+      <c r="D17" s="9">
+        <v>5</v>
+      </c>
+      <c r="E17" s="9">
+        <v>5</v>
+      </c>
+      <c r="F17" s="9">
+        <v>5</v>
+      </c>
+      <c r="G17" s="9">
+        <v>5</v>
+      </c>
+      <c r="H17" s="9">
+        <v>5</v>
+      </c>
+      <c r="I17" s="9">
+        <v>5</v>
+      </c>
+      <c r="J17" s="9">
         <v>5</v>
       </c>
       <c r="L17" s="4"/>
-      <c r="M17" s="7">
+      <c r="M17" s="16">
         <v>3</v>
       </c>
-      <c r="N17" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O17" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P17" s="8">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="Q17" s="8">
+      <c r="N17" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O17" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P17" s="7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Q17" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1449,49 +1478,49 @@
       <c r="C18" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="10">
-        <v>5</v>
-      </c>
-      <c r="E18" s="10">
-        <v>5</v>
-      </c>
-      <c r="F18" s="10">
-        <v>5</v>
-      </c>
-      <c r="G18" s="10">
-        <v>5</v>
-      </c>
-      <c r="H18" s="10">
-        <v>5</v>
-      </c>
-      <c r="I18" s="10">
-        <v>5</v>
-      </c>
-      <c r="J18" s="10">
-        <v>5</v>
-      </c>
-      <c r="K18" s="12">
-        <v>5</v>
-      </c>
-      <c r="L18" s="13">
-        <v>5</v>
-      </c>
-      <c r="M18" s="7">
+      <c r="D18" s="9">
+        <v>5</v>
+      </c>
+      <c r="E18" s="9">
+        <v>5</v>
+      </c>
+      <c r="F18" s="9">
+        <v>5</v>
+      </c>
+      <c r="G18" s="9">
+        <v>5</v>
+      </c>
+      <c r="H18" s="9">
+        <v>5</v>
+      </c>
+      <c r="I18" s="9">
+        <v>5</v>
+      </c>
+      <c r="J18" s="9">
+        <v>5</v>
+      </c>
+      <c r="K18" s="11">
+        <v>5</v>
+      </c>
+      <c r="L18" s="12">
+        <v>5</v>
+      </c>
+      <c r="M18" s="16">
         <v>2</v>
       </c>
-      <c r="N18" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O18" s="8">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="P18" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q18" s="8">
+      <c r="N18" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O18" s="7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P18" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q18" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1507,41 +1536,44 @@
       <c r="C19" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="10">
-        <v>5</v>
-      </c>
-      <c r="E19" s="10">
-        <v>5</v>
-      </c>
-      <c r="F19" s="10">
-        <v>5</v>
-      </c>
-      <c r="G19" s="10">
-        <v>5</v>
-      </c>
-      <c r="H19" s="10">
-        <v>5</v>
-      </c>
-      <c r="I19" s="10">
-        <v>5</v>
-      </c>
-      <c r="J19" s="10">
+      <c r="D19" s="9">
+        <v>5</v>
+      </c>
+      <c r="E19" s="9">
+        <v>5</v>
+      </c>
+      <c r="F19" s="9">
+        <v>5</v>
+      </c>
+      <c r="G19" s="9">
+        <v>5</v>
+      </c>
+      <c r="H19" s="9">
+        <v>5</v>
+      </c>
+      <c r="I19" s="9">
+        <v>5</v>
+      </c>
+      <c r="J19" s="9">
         <v>5</v>
       </c>
       <c r="L19" s="4"/>
-      <c r="N19" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O19" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P19" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q19" s="8">
+      <c r="M19" s="16">
+        <v>2</v>
+      </c>
+      <c r="N19" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O19" s="7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P19" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q19" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1557,49 +1589,49 @@
       <c r="C20" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="10">
-        <v>5</v>
-      </c>
-      <c r="E20" s="10">
-        <v>5</v>
-      </c>
-      <c r="F20" s="10">
-        <v>5</v>
-      </c>
-      <c r="G20" s="10">
-        <v>5</v>
-      </c>
-      <c r="H20" s="10">
-        <v>5</v>
-      </c>
-      <c r="I20" s="10">
-        <v>5</v>
-      </c>
-      <c r="J20" s="10">
-        <v>5</v>
-      </c>
-      <c r="K20" s="11">
-        <v>5</v>
-      </c>
-      <c r="L20" s="11">
-        <v>5</v>
-      </c>
-      <c r="M20" s="7">
+      <c r="D20" s="9">
+        <v>5</v>
+      </c>
+      <c r="E20" s="9">
+        <v>5</v>
+      </c>
+      <c r="F20" s="9">
+        <v>5</v>
+      </c>
+      <c r="G20" s="9">
+        <v>5</v>
+      </c>
+      <c r="H20" s="9">
+        <v>5</v>
+      </c>
+      <c r="I20" s="9">
+        <v>5</v>
+      </c>
+      <c r="J20" s="9">
+        <v>5</v>
+      </c>
+      <c r="K20" s="10">
+        <v>5</v>
+      </c>
+      <c r="L20" s="10">
+        <v>5</v>
+      </c>
+      <c r="M20" s="16">
         <v>2</v>
       </c>
-      <c r="N20" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O20" s="8">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="P20" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q20" s="8">
+      <c r="N20" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O20" s="7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P20" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q20" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1618,38 +1650,38 @@
       <c r="C21" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="10">
-        <v>5</v>
-      </c>
-      <c r="E21" s="10">
-        <v>5</v>
-      </c>
-      <c r="F21" s="10">
-        <v>5</v>
-      </c>
-      <c r="G21" s="10">
-        <v>5</v>
-      </c>
-      <c r="H21" s="10">
-        <v>5</v>
-      </c>
-      <c r="I21" s="10">
+      <c r="D21" s="9">
+        <v>5</v>
+      </c>
+      <c r="E21" s="9">
+        <v>5</v>
+      </c>
+      <c r="F21" s="9">
+        <v>5</v>
+      </c>
+      <c r="G21" s="9">
+        <v>5</v>
+      </c>
+      <c r="H21" s="9">
+        <v>5</v>
+      </c>
+      <c r="I21" s="9">
         <v>5</v>
       </c>
       <c r="L21" s="4"/>
-      <c r="N21" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O21" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P21" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q21" s="8">
+      <c r="N21" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O21" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P21" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q21" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1665,49 +1697,49 @@
       <c r="C22" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="10">
-        <v>5</v>
-      </c>
-      <c r="E22" s="10">
-        <v>5</v>
-      </c>
-      <c r="F22" s="10">
-        <v>5</v>
-      </c>
-      <c r="G22" s="10">
-        <v>5</v>
-      </c>
-      <c r="H22" s="10">
-        <v>5</v>
-      </c>
-      <c r="I22" s="10">
-        <v>5</v>
-      </c>
-      <c r="J22" s="10">
-        <v>5</v>
-      </c>
-      <c r="K22" s="14">
-        <v>5</v>
-      </c>
-      <c r="L22" s="14">
-        <v>5</v>
-      </c>
-      <c r="M22" s="7">
-        <v>1</v>
-      </c>
-      <c r="N22" s="8">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="O22" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P22" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q22" s="8">
+      <c r="D22" s="9">
+        <v>5</v>
+      </c>
+      <c r="E22" s="9">
+        <v>5</v>
+      </c>
+      <c r="F22" s="9">
+        <v>5</v>
+      </c>
+      <c r="G22" s="9">
+        <v>5</v>
+      </c>
+      <c r="H22" s="9">
+        <v>5</v>
+      </c>
+      <c r="I22" s="9">
+        <v>5</v>
+      </c>
+      <c r="J22" s="9">
+        <v>5</v>
+      </c>
+      <c r="K22" s="13">
+        <v>5</v>
+      </c>
+      <c r="L22" s="13">
+        <v>5</v>
+      </c>
+      <c r="M22" s="16">
+        <v>1</v>
+      </c>
+      <c r="N22" s="7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O22" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P22" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q22" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1729,49 +1761,49 @@
       <c r="C23" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D23" s="10">
-        <v>5</v>
-      </c>
-      <c r="E23" s="10">
-        <v>5</v>
-      </c>
-      <c r="F23" s="10">
-        <v>5</v>
-      </c>
-      <c r="G23" s="10">
-        <v>5</v>
-      </c>
-      <c r="H23" s="10">
-        <v>5</v>
-      </c>
-      <c r="I23" s="10">
-        <v>5</v>
-      </c>
-      <c r="J23" s="10">
-        <v>5</v>
-      </c>
-      <c r="K23" s="10">
-        <v>5</v>
-      </c>
-      <c r="L23" s="11">
-        <v>5</v>
-      </c>
-      <c r="M23" s="5">
+      <c r="D23" s="9">
+        <v>5</v>
+      </c>
+      <c r="E23" s="9">
+        <v>5</v>
+      </c>
+      <c r="F23" s="9">
+        <v>5</v>
+      </c>
+      <c r="G23" s="9">
+        <v>5</v>
+      </c>
+      <c r="H23" s="9">
+        <v>5</v>
+      </c>
+      <c r="I23" s="9">
+        <v>5</v>
+      </c>
+      <c r="J23" s="9">
+        <v>5</v>
+      </c>
+      <c r="K23" s="9">
+        <v>5</v>
+      </c>
+      <c r="L23" s="10">
+        <v>5</v>
+      </c>
+      <c r="M23" s="17">
         <v>4</v>
       </c>
-      <c r="N23" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O23" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P23" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q23" s="8">
+      <c r="N23" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O23" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P23" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q23" s="7">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -1790,46 +1822,46 @@
       <c r="C24" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D24" s="10">
-        <v>5</v>
-      </c>
-      <c r="E24" s="10">
-        <v>5</v>
-      </c>
-      <c r="F24" s="10">
-        <v>5</v>
-      </c>
-      <c r="G24" s="10">
-        <v>5</v>
-      </c>
-      <c r="H24" s="10">
-        <v>5</v>
-      </c>
-      <c r="I24" s="10">
-        <v>5</v>
-      </c>
-      <c r="J24" s="10">
-        <v>5</v>
-      </c>
-      <c r="K24" s="11">
-        <v>5</v>
-      </c>
-      <c r="L24" s="11">
-        <v>5</v>
-      </c>
-      <c r="N24" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O24" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P24" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q24" s="8">
+      <c r="D24" s="9">
+        <v>5</v>
+      </c>
+      <c r="E24" s="9">
+        <v>5</v>
+      </c>
+      <c r="F24" s="9">
+        <v>5</v>
+      </c>
+      <c r="G24" s="9">
+        <v>5</v>
+      </c>
+      <c r="H24" s="9">
+        <v>5</v>
+      </c>
+      <c r="I24" s="9">
+        <v>5</v>
+      </c>
+      <c r="J24" s="9">
+        <v>5</v>
+      </c>
+      <c r="K24" s="10">
+        <v>5</v>
+      </c>
+      <c r="L24" s="10">
+        <v>5</v>
+      </c>
+      <c r="N24" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O24" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P24" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q24" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1848,47 +1880,47 @@
       <c r="C25" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D25" s="10">
-        <v>5</v>
-      </c>
-      <c r="E25" s="10">
-        <v>5</v>
-      </c>
-      <c r="F25" s="10">
-        <v>5</v>
-      </c>
-      <c r="G25" s="10">
-        <v>5</v>
-      </c>
-      <c r="H25" s="10">
-        <v>5</v>
-      </c>
-      <c r="I25" s="10">
-        <v>5</v>
-      </c>
-      <c r="J25" s="12">
-        <v>5</v>
-      </c>
-      <c r="K25" s="12">
+      <c r="D25" s="9">
+        <v>5</v>
+      </c>
+      <c r="E25" s="9">
+        <v>5</v>
+      </c>
+      <c r="F25" s="9">
+        <v>5</v>
+      </c>
+      <c r="G25" s="9">
+        <v>5</v>
+      </c>
+      <c r="H25" s="9">
+        <v>5</v>
+      </c>
+      <c r="I25" s="9">
+        <v>5</v>
+      </c>
+      <c r="J25" s="11">
+        <v>5</v>
+      </c>
+      <c r="K25" s="11">
         <v>5</v>
       </c>
       <c r="L25" s="4"/>
-      <c r="M25" s="7">
+      <c r="M25" s="16">
         <v>3</v>
       </c>
-      <c r="N25" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O25" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P25" s="8">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="Q25" s="8">
+      <c r="N25" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O25" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P25" s="7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Q25" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1904,49 +1936,49 @@
       <c r="C26" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D26" s="10">
-        <v>5</v>
-      </c>
-      <c r="E26" s="10">
-        <v>5</v>
-      </c>
-      <c r="F26" s="10">
-        <v>5</v>
-      </c>
-      <c r="G26" s="10">
-        <v>5</v>
-      </c>
-      <c r="H26" s="10">
-        <v>5</v>
-      </c>
-      <c r="I26" s="10">
-        <v>5</v>
-      </c>
-      <c r="J26" s="10">
-        <v>5</v>
-      </c>
-      <c r="K26" s="11">
-        <v>5</v>
-      </c>
-      <c r="L26" s="11">
-        <v>5</v>
-      </c>
-      <c r="M26" s="7">
+      <c r="D26" s="9">
+        <v>5</v>
+      </c>
+      <c r="E26" s="9">
+        <v>5</v>
+      </c>
+      <c r="F26" s="9">
+        <v>5</v>
+      </c>
+      <c r="G26" s="9">
+        <v>5</v>
+      </c>
+      <c r="H26" s="9">
+        <v>5</v>
+      </c>
+      <c r="I26" s="9">
+        <v>5</v>
+      </c>
+      <c r="J26" s="9">
+        <v>5</v>
+      </c>
+      <c r="K26" s="10">
+        <v>5</v>
+      </c>
+      <c r="L26" s="10">
+        <v>5</v>
+      </c>
+      <c r="M26" s="16">
         <v>4</v>
       </c>
-      <c r="N26" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O26" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P26" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q26" s="8">
+      <c r="N26" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O26" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P26" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q26" s="7">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -1972,22 +2004,22 @@
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
       <c r="L27" s="4"/>
-      <c r="M27">
+      <c r="M27" s="14">
         <v>3</v>
       </c>
-      <c r="N27" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O27" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P27" s="8">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="Q27" s="8">
+      <c r="N27" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O27" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P27" s="7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Q27" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2010,22 +2042,22 @@
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
       <c r="L28" s="4"/>
-      <c r="M28">
+      <c r="M28" s="14">
         <v>3</v>
       </c>
-      <c r="N28" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O28" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P28" s="8">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="Q28" s="8">
+      <c r="N28" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O28" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P28" s="7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Q28" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2041,49 +2073,49 @@
       <c r="C29" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D29" s="10">
-        <v>5</v>
-      </c>
-      <c r="E29" s="10">
-        <v>5</v>
-      </c>
-      <c r="F29" s="10">
-        <v>5</v>
-      </c>
-      <c r="G29" s="10">
-        <v>5</v>
-      </c>
-      <c r="H29" s="10">
-        <v>5</v>
-      </c>
-      <c r="I29" s="10">
-        <v>5</v>
-      </c>
-      <c r="J29" s="10">
-        <v>5</v>
-      </c>
-      <c r="K29" s="13">
-        <v>5</v>
-      </c>
-      <c r="L29" s="13">
-        <v>5</v>
-      </c>
-      <c r="M29" s="7">
-        <v>1</v>
-      </c>
-      <c r="N29" s="8">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="O29" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P29" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q29" s="8">
+      <c r="D29" s="9">
+        <v>5</v>
+      </c>
+      <c r="E29" s="9">
+        <v>5</v>
+      </c>
+      <c r="F29" s="9">
+        <v>5</v>
+      </c>
+      <c r="G29" s="9">
+        <v>5</v>
+      </c>
+      <c r="H29" s="9">
+        <v>5</v>
+      </c>
+      <c r="I29" s="9">
+        <v>5</v>
+      </c>
+      <c r="J29" s="9">
+        <v>5</v>
+      </c>
+      <c r="K29" s="12">
+        <v>5</v>
+      </c>
+      <c r="L29" s="12">
+        <v>5</v>
+      </c>
+      <c r="M29" s="16">
+        <v>1</v>
+      </c>
+      <c r="N29" s="7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O29" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P29" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q29" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2099,49 +2131,49 @@
       <c r="C30" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D30" s="10">
-        <v>5</v>
-      </c>
-      <c r="E30" s="10">
-        <v>5</v>
-      </c>
-      <c r="F30" s="10">
-        <v>5</v>
-      </c>
-      <c r="G30" s="10">
-        <v>5</v>
-      </c>
-      <c r="H30" s="10">
-        <v>5</v>
-      </c>
-      <c r="I30" s="10">
-        <v>5</v>
-      </c>
-      <c r="J30" s="12">
-        <v>5</v>
-      </c>
-      <c r="K30" s="13">
-        <v>5</v>
-      </c>
-      <c r="L30" s="13">
-        <v>5</v>
-      </c>
-      <c r="M30">
+      <c r="D30" s="9">
+        <v>5</v>
+      </c>
+      <c r="E30" s="9">
+        <v>5</v>
+      </c>
+      <c r="F30" s="9">
+        <v>5</v>
+      </c>
+      <c r="G30" s="9">
+        <v>5</v>
+      </c>
+      <c r="H30" s="9">
+        <v>5</v>
+      </c>
+      <c r="I30" s="9">
+        <v>5</v>
+      </c>
+      <c r="J30" s="11">
+        <v>5</v>
+      </c>
+      <c r="K30" s="12">
+        <v>5</v>
+      </c>
+      <c r="L30" s="12">
+        <v>5</v>
+      </c>
+      <c r="M30" s="14">
         <v>3</v>
       </c>
-      <c r="N30" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O30" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P30" s="8">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="Q30" s="8">
+      <c r="N30" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O30" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P30" s="7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Q30" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2164,19 +2196,19 @@
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
       <c r="L31" s="4"/>
-      <c r="N31" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O31" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P31" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q31" s="8">
+      <c r="N31" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O31" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P31" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q31" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2192,49 +2224,49 @@
       <c r="C32" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D32" s="10">
-        <v>5</v>
-      </c>
-      <c r="E32" s="10">
-        <v>5</v>
-      </c>
-      <c r="F32" s="10">
-        <v>5</v>
-      </c>
-      <c r="G32" s="10">
-        <v>5</v>
-      </c>
-      <c r="H32" s="10">
-        <v>5</v>
-      </c>
-      <c r="I32" s="10">
-        <v>5</v>
-      </c>
-      <c r="J32" s="10">
-        <v>5</v>
-      </c>
-      <c r="K32" s="11">
-        <v>5</v>
-      </c>
-      <c r="L32" s="11">
-        <v>5</v>
-      </c>
-      <c r="M32" s="7">
+      <c r="D32" s="9">
+        <v>5</v>
+      </c>
+      <c r="E32" s="9">
+        <v>5</v>
+      </c>
+      <c r="F32" s="9">
+        <v>5</v>
+      </c>
+      <c r="G32" s="9">
+        <v>5</v>
+      </c>
+      <c r="H32" s="9">
+        <v>5</v>
+      </c>
+      <c r="I32" s="9">
+        <v>5</v>
+      </c>
+      <c r="J32" s="9">
+        <v>5</v>
+      </c>
+      <c r="K32" s="10">
+        <v>5</v>
+      </c>
+      <c r="L32" s="10">
+        <v>5</v>
+      </c>
+      <c r="M32" s="16">
         <v>2</v>
       </c>
-      <c r="N32" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O32" s="8">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="P32" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q32" s="8">
+      <c r="N32" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O32" s="7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P32" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q32" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>

--- a/2ИСИП-422_ДисМат_.xlsx
+++ b/2ИСИП-422_ДисМат_.xlsx
@@ -594,10 +594,10 @@
   <dimension ref="A1:T41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M4" sqref="M4"/>
+      <selection pane="bottomRight" activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -959,6 +959,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="S8">
+        <v>5</v>
+      </c>
     </row>
     <row r="9" spans="1:19" ht="14.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
@@ -1053,7 +1056,12 @@
       <c r="J10" s="9">
         <v>5</v>
       </c>
-      <c r="L10" s="4"/>
+      <c r="K10" s="10">
+        <v>5</v>
+      </c>
+      <c r="L10" s="12">
+        <v>5</v>
+      </c>
       <c r="M10" s="16">
         <v>1</v>
       </c>
@@ -1150,14 +1158,21 @@
       <c r="G12" s="9">
         <v>5</v>
       </c>
-      <c r="H12" s="2"/>
+      <c r="H12" s="2">
+        <v>5</v>
+      </c>
       <c r="I12" s="9">
         <v>5</v>
       </c>
       <c r="J12" s="11">
         <v>5</v>
       </c>
-      <c r="L12" s="4"/>
+      <c r="K12" s="11">
+        <v>5</v>
+      </c>
+      <c r="L12" s="12">
+        <v>5</v>
+      </c>
       <c r="M12" s="14">
         <v>4</v>
       </c>
@@ -1177,6 +1192,9 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
+      <c r="S12">
+        <v>5</v>
+      </c>
     </row>
     <row r="13" spans="1:19" ht="14.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
@@ -1330,6 +1348,9 @@
         <v>5</v>
       </c>
       <c r="J15" s="9">
+        <v>5</v>
+      </c>
+      <c r="K15" s="11">
         <v>5</v>
       </c>
       <c r="L15" s="4"/>
@@ -1523,6 +1544,9 @@
       <c r="Q18" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
+      </c>
+      <c r="S18">
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:20" ht="14.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2176,6 +2200,9 @@
       <c r="Q30" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
+      </c>
+      <c r="S30">
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:20" ht="14.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">

--- a/2ИСИП-422_ДисМат_.xlsx
+++ b/2ИСИП-422_ДисМат_.xlsx
@@ -594,10 +594,10 @@
   <dimension ref="A1:T41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G29" sqref="G29"/>
+      <selection pane="bottomRight" activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -773,6 +773,9 @@
       <c r="J5" s="10">
         <v>5</v>
       </c>
+      <c r="K5" s="10">
+        <v>5</v>
+      </c>
       <c r="L5" s="4"/>
       <c r="N5" s="7">
         <f t="shared" si="1"/>
@@ -884,7 +887,12 @@
       <c r="J7" s="10">
         <v>5</v>
       </c>
-      <c r="L7" s="4"/>
+      <c r="K7" s="13">
+        <v>5</v>
+      </c>
+      <c r="L7" s="13">
+        <v>5</v>
+      </c>
       <c r="N7" s="7">
         <f t="shared" si="1"/>
         <v>0</v>

--- a/2ИСИП-422_ДисМат_.xlsx
+++ b/2ИСИП-422_ДисМат_.xlsx
@@ -242,7 +242,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -285,6 +285,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -597,14 +600,14 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Q7" sqref="Q7"/>
+      <selection pane="bottomRight" activeCell="S15" sqref="S15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.1796875" customWidth="1"/>
     <col min="2" max="2" width="25.36328125" customWidth="1"/>
-    <col min="3" max="3" width="21.54296875" customWidth="1"/>
+    <col min="3" max="3" width="26.6328125" customWidth="1"/>
     <col min="4" max="12" width="4.6328125" customWidth="1"/>
     <col min="13" max="13" width="8.7265625" style="14"/>
     <col min="14" max="17" width="3.36328125" customWidth="1"/>
@@ -1142,6 +1145,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="S11">
+        <v>5</v>
+      </c>
     </row>
     <row r="12" spans="1:19" ht="14.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
@@ -1381,6 +1387,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="S15">
+        <v>4</v>
+      </c>
     </row>
     <row r="16" spans="1:19" ht="14.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
@@ -1475,7 +1484,12 @@
       <c r="J17" s="9">
         <v>5</v>
       </c>
-      <c r="L17" s="4"/>
+      <c r="K17" s="18">
+        <v>5</v>
+      </c>
+      <c r="L17" s="12">
+        <v>5</v>
+      </c>
       <c r="M17" s="16">
         <v>3</v>
       </c>
@@ -1494,6 +1508,9 @@
       <c r="Q17" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
+      </c>
+      <c r="S17">
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:20" ht="14.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">

--- a/2ИСИП-422_ДисМат_.xlsx
+++ b/2ИСИП-422_ДисМат_.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="43">
   <si>
     <t>2ИСИП-422: Дискретная математика с элементами математической логики (Сибирев И. В.) - I семестр</t>
   </si>
@@ -145,6 +145,9 @@
   </si>
   <si>
     <t>доклад был</t>
+  </si>
+  <si>
+    <t>авансорм</t>
   </si>
 </sst>
 </file>
@@ -597,10 +600,10 @@
   <dimension ref="A1:T41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="S15" sqref="S15"/>
+      <selection pane="bottomRight" activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -682,7 +685,7 @@
       </c>
       <c r="P3" s="7">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q3" s="7">
         <f t="shared" si="0"/>
@@ -912,6 +915,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="S7">
+        <v>4</v>
+      </c>
     </row>
     <row r="8" spans="1:19" ht="14.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
@@ -1717,7 +1723,13 @@
       <c r="I21" s="9">
         <v>5</v>
       </c>
+      <c r="J21" s="13">
+        <v>5</v>
+      </c>
       <c r="L21" s="4"/>
+      <c r="M21" s="14">
+        <v>3</v>
+      </c>
       <c r="N21" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -1728,11 +1740,14 @@
       </c>
       <c r="P21" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q21" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
+      </c>
+      <c r="S21">
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:20" ht="14.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2109,6 +2124,12 @@
       <c r="Q28" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
+      </c>
+      <c r="S28">
+        <v>4</v>
+      </c>
+      <c r="T28" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:20" ht="14.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">

--- a/2ИСИП-422_ДисМат_.xlsx
+++ b/2ИСИП-422_ДисМат_.xlsx
@@ -600,10 +600,10 @@
   <dimension ref="A1:T41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E28" sqref="E28"/>
+      <selection pane="bottomRight" activeCell="T4" sqref="T4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -746,6 +746,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="S4">
+        <v>5</v>
+      </c>
     </row>
     <row r="5" spans="1:19" ht="14.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">

--- a/2ИСИП-422_ДисМат_.xlsx
+++ b/2ИСИП-422_ДисМат_.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="45">
   <si>
     <t>2ИСИП-422: Дискретная математика с элементами математической логики (Сибирев И. В.) - I семестр</t>
   </si>
@@ -148,6 +148,12 @@
   </si>
   <si>
     <t>авансорм</t>
+  </si>
+  <si>
+    <t>авансом</t>
+  </si>
+  <si>
+    <t>отчислена</t>
   </si>
 </sst>
 </file>
@@ -600,10 +606,10 @@
   <dimension ref="A1:T41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="T4" sqref="T4"/>
+      <selection pane="bottomRight" activeCell="S32" sqref="S32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -616,12 +622,12 @@
     <col min="14" max="17" width="3.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D1" s="8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="29" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" ht="29" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D2" s="1" t="s">
         <v>30</v>
       </c>
@@ -668,7 +674,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="14.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" ht="14.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -692,7 +698,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="14.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" ht="14.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <f>IF(B4=C4,1,"______")</f>
         <v>1</v>
@@ -750,7 +756,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="14.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" ht="14.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <f>IF(B5=C5,1+A4,"______")</f>
         <v>2</v>
@@ -802,8 +808,14 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" ht="14.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S5">
+        <v>5</v>
+      </c>
+      <c r="T5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="14.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <f t="shared" ref="A6:A32" si="2">IF(B6=C6,1+A5,"______")</f>
         <v>3</v>
@@ -864,7 +876,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="14.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" ht="14.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <f t="shared" si="2"/>
         <v>4</v>
@@ -922,7 +934,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="14.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" ht="14.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <f t="shared" si="2"/>
         <v>5</v>
@@ -983,7 +995,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="14.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" ht="14.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <f t="shared" si="2"/>
         <v>6</v>
@@ -1044,7 +1056,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="14.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" ht="14.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <f t="shared" si="2"/>
         <v>7</v>
@@ -1101,8 +1113,14 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" ht="14.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S10">
+        <v>5</v>
+      </c>
+      <c r="T10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="14.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <f t="shared" si="2"/>
         <v>8</v>
@@ -1158,7 +1176,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="14.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" ht="14.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <f t="shared" si="2"/>
         <v>9</v>
@@ -1219,7 +1237,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="14.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" ht="14.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <f t="shared" si="2"/>
         <v>10</v>
@@ -1280,7 +1298,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="14.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" ht="14.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <f t="shared" si="2"/>
         <v>11</v>
@@ -1341,7 +1359,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="14.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" ht="14.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <f t="shared" si="2"/>
         <v>12</v>
@@ -1400,7 +1418,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="14.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" ht="14.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <f t="shared" si="2"/>
         <v>13</v>
@@ -1635,6 +1653,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="S19">
+        <v>5</v>
+      </c>
+      <c r="T19" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="20" spans="1:20" ht="14.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
@@ -1990,6 +2014,12 @@
       <c r="Q25" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
+      </c>
+      <c r="S25">
+        <v>5</v>
+      </c>
+      <c r="T25" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:20" ht="14.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2090,6 +2120,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="S27">
+        <v>3</v>
+      </c>
+      <c r="T27" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="28" spans="1:20" ht="14.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
@@ -2192,6 +2228,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="S29">
+        <v>5</v>
+      </c>
+      <c r="T29" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="30" spans="1:20" ht="14.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
@@ -2287,6 +2329,9 @@
       <c r="Q31" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
+      </c>
+      <c r="S31" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:20" ht="14.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">

--- a/2ИСИП-422_ДисМат_.xlsx
+++ b/2ИСИП-422_ДисМат_.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="45">
   <si>
     <t>2ИСИП-422: Дискретная математика с элементами математической логики (Сибирев И. В.) - I семестр</t>
   </si>
@@ -160,7 +160,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -172,13 +172,8 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -200,6 +195,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7B1722"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -251,7 +252,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -259,14 +260,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -299,12 +294,18 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF7B1722"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -609,7 +610,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="S32" sqref="S32"/>
+      <selection pane="bottomRight" activeCell="R16" sqref="R16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -618,12 +619,12 @@
     <col min="2" max="2" width="25.36328125" customWidth="1"/>
     <col min="3" max="3" width="26.6328125" customWidth="1"/>
     <col min="4" max="12" width="4.6328125" customWidth="1"/>
-    <col min="13" max="13" width="8.7265625" style="14"/>
+    <col min="13" max="13" width="8.7265625" style="12"/>
     <col min="14" max="17" width="3.36328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="6" t="s">
         <v>0</v>
       </c>
     </row>
@@ -655,7 +656,7 @@
       <c r="L2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="M2" s="15" t="s">
+      <c r="M2" s="13" t="s">
         <v>37</v>
       </c>
       <c r="N2">
@@ -685,15 +686,15 @@
         <f>SUM(N4:N32)</f>
         <v>6</v>
       </c>
-      <c r="O3" s="7">
+      <c r="O3" s="5">
         <f t="shared" ref="O3:Q3" si="0">SUM(O4:O32)</f>
         <v>6</v>
       </c>
-      <c r="P3" s="7">
+      <c r="P3" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="Q3" s="7">
+      <c r="Q3" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
@@ -709,46 +710,46 @@
       <c r="C4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="9">
-        <v>5</v>
-      </c>
-      <c r="E4" s="9">
-        <v>5</v>
-      </c>
-      <c r="F4" s="9">
-        <v>5</v>
-      </c>
-      <c r="G4" s="9">
-        <v>5</v>
-      </c>
-      <c r="H4" s="9">
-        <v>5</v>
-      </c>
-      <c r="I4" s="9">
-        <v>5</v>
-      </c>
-      <c r="J4" s="10">
-        <v>5</v>
-      </c>
-      <c r="K4" s="11">
-        <v>5</v>
-      </c>
-      <c r="M4" s="14">
+      <c r="D4" s="7">
+        <v>5</v>
+      </c>
+      <c r="E4" s="7">
+        <v>5</v>
+      </c>
+      <c r="F4" s="7">
+        <v>5</v>
+      </c>
+      <c r="G4" s="7">
+        <v>5</v>
+      </c>
+      <c r="H4" s="7">
+        <v>5</v>
+      </c>
+      <c r="I4" s="7">
+        <v>5</v>
+      </c>
+      <c r="J4" s="8">
+        <v>5</v>
+      </c>
+      <c r="K4" s="9">
+        <v>5</v>
+      </c>
+      <c r="M4" s="12">
         <v>1</v>
       </c>
       <c r="N4">
-        <f t="shared" ref="N4:Q32" si="1">IF($M4=N$2,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="O4" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P4" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q4" s="7">
+        <f t="shared" ref="N4:Q40" si="1">IF($M4=N$2,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="O4" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P4" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q4" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -767,44 +768,44 @@
       <c r="C5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="9">
-        <v>5</v>
-      </c>
-      <c r="E5" s="9">
-        <v>5</v>
-      </c>
-      <c r="F5" s="9">
-        <v>5</v>
-      </c>
-      <c r="G5" s="9">
-        <v>5</v>
-      </c>
-      <c r="H5" s="9">
-        <v>5</v>
-      </c>
-      <c r="I5" s="9">
-        <v>5</v>
-      </c>
-      <c r="J5" s="10">
-        <v>5</v>
-      </c>
-      <c r="K5" s="10">
-        <v>5</v>
-      </c>
-      <c r="L5" s="4"/>
-      <c r="N5" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O5" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P5" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q5" s="7">
+      <c r="D5" s="7">
+        <v>5</v>
+      </c>
+      <c r="E5" s="7">
+        <v>5</v>
+      </c>
+      <c r="F5" s="7">
+        <v>5</v>
+      </c>
+      <c r="G5" s="7">
+        <v>5</v>
+      </c>
+      <c r="H5" s="7">
+        <v>5</v>
+      </c>
+      <c r="I5" s="7">
+        <v>5</v>
+      </c>
+      <c r="J5" s="8">
+        <v>5</v>
+      </c>
+      <c r="K5" s="8">
+        <v>5</v>
+      </c>
+      <c r="L5" s="3"/>
+      <c r="N5" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O5" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P5" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q5" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -826,49 +827,49 @@
       <c r="C6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="9">
-        <v>5</v>
-      </c>
-      <c r="E6" s="9">
-        <v>5</v>
-      </c>
-      <c r="F6" s="9">
-        <v>5</v>
-      </c>
-      <c r="G6" s="9">
-        <v>5</v>
-      </c>
-      <c r="H6" s="9">
-        <v>5</v>
-      </c>
-      <c r="I6" s="9">
-        <v>5</v>
-      </c>
-      <c r="J6" s="9">
-        <v>5</v>
-      </c>
-      <c r="K6" s="13">
-        <v>5</v>
-      </c>
-      <c r="L6" s="11">
-        <v>5</v>
-      </c>
-      <c r="M6" s="14">
+      <c r="D6" s="7">
+        <v>5</v>
+      </c>
+      <c r="E6" s="7">
+        <v>5</v>
+      </c>
+      <c r="F6" s="7">
+        <v>5</v>
+      </c>
+      <c r="G6" s="7">
+        <v>5</v>
+      </c>
+      <c r="H6" s="7">
+        <v>5</v>
+      </c>
+      <c r="I6" s="7">
+        <v>5</v>
+      </c>
+      <c r="J6" s="7">
+        <v>5</v>
+      </c>
+      <c r="K6" s="11">
+        <v>5</v>
+      </c>
+      <c r="L6" s="9">
+        <v>5</v>
+      </c>
+      <c r="M6" s="12">
         <v>4</v>
       </c>
-      <c r="N6" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O6" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P6" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q6" s="7">
+      <c r="N6" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O6" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P6" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="5">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -887,46 +888,46 @@
       <c r="C7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="9">
-        <v>5</v>
-      </c>
-      <c r="E7" s="9">
-        <v>5</v>
-      </c>
-      <c r="F7" s="9">
-        <v>5</v>
-      </c>
-      <c r="G7" s="9">
-        <v>5</v>
-      </c>
-      <c r="H7" s="9">
-        <v>5</v>
-      </c>
-      <c r="I7" s="9">
-        <v>5</v>
-      </c>
-      <c r="J7" s="10">
-        <v>5</v>
-      </c>
-      <c r="K7" s="13">
-        <v>5</v>
-      </c>
-      <c r="L7" s="13">
-        <v>5</v>
-      </c>
-      <c r="N7" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O7" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P7" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q7" s="7">
+      <c r="D7" s="7">
+        <v>5</v>
+      </c>
+      <c r="E7" s="7">
+        <v>5</v>
+      </c>
+      <c r="F7" s="7">
+        <v>5</v>
+      </c>
+      <c r="G7" s="7">
+        <v>5</v>
+      </c>
+      <c r="H7" s="7">
+        <v>5</v>
+      </c>
+      <c r="I7" s="7">
+        <v>5</v>
+      </c>
+      <c r="J7" s="8">
+        <v>5</v>
+      </c>
+      <c r="K7" s="11">
+        <v>5</v>
+      </c>
+      <c r="L7" s="11">
+        <v>5</v>
+      </c>
+      <c r="N7" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O7" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P7" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -945,49 +946,49 @@
       <c r="C8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="9">
-        <v>5</v>
-      </c>
-      <c r="E8" s="9">
-        <v>5</v>
-      </c>
-      <c r="F8" s="9">
-        <v>5</v>
-      </c>
-      <c r="G8" s="9">
-        <v>5</v>
-      </c>
-      <c r="H8" s="9">
-        <v>5</v>
-      </c>
-      <c r="I8" s="9">
-        <v>5</v>
-      </c>
-      <c r="J8" s="10">
-        <v>5</v>
-      </c>
-      <c r="K8" s="10">
-        <v>5</v>
-      </c>
-      <c r="L8" s="10">
-        <v>5</v>
-      </c>
-      <c r="M8" s="16">
-        <v>1</v>
-      </c>
-      <c r="N8" s="7">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="O8" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P8" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q8" s="7">
+      <c r="D8" s="7">
+        <v>5</v>
+      </c>
+      <c r="E8" s="7">
+        <v>5</v>
+      </c>
+      <c r="F8" s="7">
+        <v>5</v>
+      </c>
+      <c r="G8" s="7">
+        <v>5</v>
+      </c>
+      <c r="H8" s="7">
+        <v>5</v>
+      </c>
+      <c r="I8" s="7">
+        <v>5</v>
+      </c>
+      <c r="J8" s="8">
+        <v>5</v>
+      </c>
+      <c r="K8" s="8">
+        <v>5</v>
+      </c>
+      <c r="L8" s="8">
+        <v>5</v>
+      </c>
+      <c r="M8" s="14">
+        <v>1</v>
+      </c>
+      <c r="N8" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O8" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P8" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q8" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1006,49 +1007,49 @@
       <c r="C9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="9">
-        <v>5</v>
-      </c>
-      <c r="E9" s="9">
-        <v>5</v>
-      </c>
-      <c r="F9" s="9">
-        <v>5</v>
-      </c>
-      <c r="G9" s="9">
-        <v>5</v>
-      </c>
-      <c r="H9" s="9">
-        <v>5</v>
-      </c>
-      <c r="I9" s="9">
-        <v>5</v>
-      </c>
-      <c r="J9" s="9">
-        <v>5</v>
-      </c>
-      <c r="K9" s="10">
-        <v>5</v>
-      </c>
-      <c r="L9" s="11">
-        <v>5</v>
-      </c>
-      <c r="M9" s="16">
-        <v>1</v>
-      </c>
-      <c r="N9" s="7">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="O9" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P9" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q9" s="7">
+      <c r="D9" s="7">
+        <v>5</v>
+      </c>
+      <c r="E9" s="7">
+        <v>5</v>
+      </c>
+      <c r="F9" s="7">
+        <v>5</v>
+      </c>
+      <c r="G9" s="7">
+        <v>5</v>
+      </c>
+      <c r="H9" s="7">
+        <v>5</v>
+      </c>
+      <c r="I9" s="7">
+        <v>5</v>
+      </c>
+      <c r="J9" s="7">
+        <v>5</v>
+      </c>
+      <c r="K9" s="8">
+        <v>5</v>
+      </c>
+      <c r="L9" s="9">
+        <v>5</v>
+      </c>
+      <c r="M9" s="14">
+        <v>1</v>
+      </c>
+      <c r="N9" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O9" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P9" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1067,49 +1068,49 @@
       <c r="C10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="9">
-        <v>5</v>
-      </c>
-      <c r="E10" s="9">
-        <v>5</v>
-      </c>
-      <c r="F10" s="9">
-        <v>5</v>
-      </c>
-      <c r="G10" s="9">
-        <v>5</v>
-      </c>
-      <c r="H10" s="9">
-        <v>5</v>
-      </c>
-      <c r="I10" s="9">
-        <v>5</v>
-      </c>
-      <c r="J10" s="9">
-        <v>5</v>
-      </c>
-      <c r="K10" s="10">
-        <v>5</v>
-      </c>
-      <c r="L10" s="12">
-        <v>5</v>
-      </c>
-      <c r="M10" s="16">
-        <v>1</v>
-      </c>
-      <c r="N10" s="7">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="O10" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P10" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q10" s="7">
+      <c r="D10" s="7">
+        <v>5</v>
+      </c>
+      <c r="E10" s="7">
+        <v>5</v>
+      </c>
+      <c r="F10" s="7">
+        <v>5</v>
+      </c>
+      <c r="G10" s="7">
+        <v>5</v>
+      </c>
+      <c r="H10" s="7">
+        <v>5</v>
+      </c>
+      <c r="I10" s="7">
+        <v>5</v>
+      </c>
+      <c r="J10" s="7">
+        <v>5</v>
+      </c>
+      <c r="K10" s="8">
+        <v>5</v>
+      </c>
+      <c r="L10" s="10">
+        <v>5</v>
+      </c>
+      <c r="M10" s="14">
+        <v>1</v>
+      </c>
+      <c r="N10" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O10" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P10" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1131,16 +1132,16 @@
       <c r="C11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="9">
-        <v>5</v>
-      </c>
-      <c r="E11" s="9">
+      <c r="D11" s="7">
+        <v>5</v>
+      </c>
+      <c r="E11" s="7">
         <v>5</v>
       </c>
       <c r="F11" s="2">
         <v>5</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11" s="7">
         <v>5</v>
       </c>
       <c r="H11" s="2">
@@ -1149,26 +1150,26 @@
       <c r="I11" s="2">
         <v>5</v>
       </c>
-      <c r="K11" s="5">
-        <v>5</v>
-      </c>
-      <c r="L11" s="4"/>
-      <c r="M11" s="14">
+      <c r="K11" s="4">
+        <v>5</v>
+      </c>
+      <c r="L11" s="3"/>
+      <c r="M11" s="12">
         <v>2</v>
       </c>
-      <c r="N11" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O11" s="7">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="P11" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q11" s="7">
+      <c r="N11" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O11" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P11" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1187,49 +1188,49 @@
       <c r="C12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="9">
-        <v>5</v>
-      </c>
-      <c r="E12" s="9">
-        <v>5</v>
-      </c>
-      <c r="F12" s="9">
-        <v>5</v>
-      </c>
-      <c r="G12" s="9">
+      <c r="D12" s="7">
+        <v>5</v>
+      </c>
+      <c r="E12" s="7">
+        <v>5</v>
+      </c>
+      <c r="F12" s="7">
+        <v>5</v>
+      </c>
+      <c r="G12" s="7">
         <v>5</v>
       </c>
       <c r="H12" s="2">
         <v>5</v>
       </c>
-      <c r="I12" s="9">
-        <v>5</v>
-      </c>
-      <c r="J12" s="11">
-        <v>5</v>
-      </c>
-      <c r="K12" s="11">
-        <v>5</v>
-      </c>
-      <c r="L12" s="12">
-        <v>5</v>
-      </c>
-      <c r="M12" s="14">
+      <c r="I12" s="7">
+        <v>5</v>
+      </c>
+      <c r="J12" s="9">
+        <v>5</v>
+      </c>
+      <c r="K12" s="9">
+        <v>5</v>
+      </c>
+      <c r="L12" s="10">
+        <v>5</v>
+      </c>
+      <c r="M12" s="12">
         <v>4</v>
       </c>
-      <c r="N12" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O12" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P12" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q12" s="7">
+      <c r="N12" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O12" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P12" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="5">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -1248,49 +1249,49 @@
       <c r="C13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="9">
-        <v>5</v>
-      </c>
-      <c r="E13" s="9">
-        <v>5</v>
-      </c>
-      <c r="F13" s="9">
-        <v>5</v>
-      </c>
-      <c r="G13" s="9">
-        <v>5</v>
-      </c>
-      <c r="H13" s="9">
-        <v>5</v>
-      </c>
-      <c r="I13" s="9">
-        <v>5</v>
-      </c>
-      <c r="J13" s="9">
-        <v>5</v>
-      </c>
-      <c r="K13" s="10">
-        <v>5</v>
-      </c>
-      <c r="L13" s="10">
-        <v>5</v>
-      </c>
-      <c r="M13" s="16">
+      <c r="D13" s="7">
+        <v>5</v>
+      </c>
+      <c r="E13" s="7">
+        <v>5</v>
+      </c>
+      <c r="F13" s="7">
+        <v>5</v>
+      </c>
+      <c r="G13" s="7">
+        <v>5</v>
+      </c>
+      <c r="H13" s="7">
+        <v>5</v>
+      </c>
+      <c r="I13" s="7">
+        <v>5</v>
+      </c>
+      <c r="J13" s="7">
+        <v>5</v>
+      </c>
+      <c r="K13" s="8">
+        <v>5</v>
+      </c>
+      <c r="L13" s="8">
+        <v>5</v>
+      </c>
+      <c r="M13" s="14">
         <v>2</v>
       </c>
-      <c r="N13" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O13" s="7">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="P13" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q13" s="7">
+      <c r="N13" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O13" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P13" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1309,49 +1310,49 @@
       <c r="C14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="9">
-        <v>5</v>
-      </c>
-      <c r="E14" s="9">
-        <v>5</v>
-      </c>
-      <c r="F14" s="9">
-        <v>5</v>
-      </c>
-      <c r="G14" s="9">
-        <v>5</v>
-      </c>
-      <c r="H14" s="9">
-        <v>5</v>
-      </c>
-      <c r="I14" s="9">
-        <v>5</v>
-      </c>
-      <c r="J14" s="11">
-        <v>5</v>
-      </c>
-      <c r="K14" s="11">
-        <v>5</v>
-      </c>
-      <c r="L14" s="11">
-        <v>5</v>
-      </c>
-      <c r="M14" s="14">
+      <c r="D14" s="7">
+        <v>5</v>
+      </c>
+      <c r="E14" s="7">
+        <v>5</v>
+      </c>
+      <c r="F14" s="7">
+        <v>5</v>
+      </c>
+      <c r="G14" s="7">
+        <v>5</v>
+      </c>
+      <c r="H14" s="7">
+        <v>5</v>
+      </c>
+      <c r="I14" s="7">
+        <v>5</v>
+      </c>
+      <c r="J14" s="9">
+        <v>5</v>
+      </c>
+      <c r="K14" s="9">
+        <v>5</v>
+      </c>
+      <c r="L14" s="9">
+        <v>5</v>
+      </c>
+      <c r="M14" s="12">
         <v>4</v>
       </c>
-      <c r="N14" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O14" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P14" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q14" s="7">
+      <c r="N14" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O14" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P14" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="5">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -1370,47 +1371,47 @@
       <c r="C15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="9">
-        <v>5</v>
-      </c>
-      <c r="E15" s="9">
-        <v>5</v>
-      </c>
-      <c r="F15" s="9">
-        <v>5</v>
-      </c>
-      <c r="G15" s="9">
-        <v>5</v>
-      </c>
-      <c r="H15" s="9">
-        <v>5</v>
-      </c>
-      <c r="I15" s="9">
-        <v>5</v>
-      </c>
-      <c r="J15" s="9">
-        <v>5</v>
-      </c>
-      <c r="K15" s="11">
-        <v>5</v>
-      </c>
-      <c r="L15" s="4"/>
-      <c r="M15" s="16">
+      <c r="D15" s="7">
+        <v>5</v>
+      </c>
+      <c r="E15" s="7">
+        <v>5</v>
+      </c>
+      <c r="F15" s="7">
+        <v>5</v>
+      </c>
+      <c r="G15" s="7">
+        <v>5</v>
+      </c>
+      <c r="H15" s="7">
+        <v>5</v>
+      </c>
+      <c r="I15" s="7">
+        <v>5</v>
+      </c>
+      <c r="J15" s="7">
+        <v>5</v>
+      </c>
+      <c r="K15" s="9">
+        <v>5</v>
+      </c>
+      <c r="L15" s="3"/>
+      <c r="M15" s="14">
         <v>3</v>
       </c>
-      <c r="N15" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O15" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P15" s="7">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="Q15" s="7">
+      <c r="N15" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O15" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P15" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Q15" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1429,49 +1430,49 @@
       <c r="C16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="9">
-        <v>5</v>
-      </c>
-      <c r="E16" s="9">
-        <v>5</v>
-      </c>
-      <c r="F16" s="9">
-        <v>5</v>
-      </c>
-      <c r="G16" s="9">
-        <v>5</v>
-      </c>
-      <c r="H16" s="9">
-        <v>5</v>
-      </c>
-      <c r="I16" s="9">
-        <v>5</v>
-      </c>
-      <c r="J16" s="9">
-        <v>5</v>
-      </c>
-      <c r="K16" s="10">
-        <v>5</v>
-      </c>
-      <c r="L16" s="10">
-        <v>5</v>
-      </c>
-      <c r="M16" s="16">
+      <c r="D16" s="7">
+        <v>5</v>
+      </c>
+      <c r="E16" s="7">
+        <v>5</v>
+      </c>
+      <c r="F16" s="7">
+        <v>5</v>
+      </c>
+      <c r="G16" s="7">
+        <v>5</v>
+      </c>
+      <c r="H16" s="7">
+        <v>5</v>
+      </c>
+      <c r="I16" s="7">
+        <v>5</v>
+      </c>
+      <c r="J16" s="7">
+        <v>5</v>
+      </c>
+      <c r="K16" s="8">
+        <v>5</v>
+      </c>
+      <c r="L16" s="8">
+        <v>5</v>
+      </c>
+      <c r="M16" s="14">
         <v>4</v>
       </c>
-      <c r="N16" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O16" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P16" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q16" s="7">
+      <c r="N16" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O16" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P16" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q16" s="5">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -1490,49 +1491,49 @@
       <c r="C17" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="9">
-        <v>5</v>
-      </c>
-      <c r="E17" s="9">
-        <v>5</v>
-      </c>
-      <c r="F17" s="9">
-        <v>5</v>
-      </c>
-      <c r="G17" s="9">
-        <v>5</v>
-      </c>
-      <c r="H17" s="9">
-        <v>5</v>
-      </c>
-      <c r="I17" s="9">
-        <v>5</v>
-      </c>
-      <c r="J17" s="9">
-        <v>5</v>
-      </c>
-      <c r="K17" s="18">
-        <v>5</v>
-      </c>
-      <c r="L17" s="12">
-        <v>5</v>
-      </c>
-      <c r="M17" s="16">
+      <c r="D17" s="7">
+        <v>5</v>
+      </c>
+      <c r="E17" s="7">
+        <v>5</v>
+      </c>
+      <c r="F17" s="7">
+        <v>5</v>
+      </c>
+      <c r="G17" s="7">
+        <v>5</v>
+      </c>
+      <c r="H17" s="7">
+        <v>5</v>
+      </c>
+      <c r="I17" s="7">
+        <v>5</v>
+      </c>
+      <c r="J17" s="7">
+        <v>5</v>
+      </c>
+      <c r="K17" s="16">
+        <v>5</v>
+      </c>
+      <c r="L17" s="10">
+        <v>5</v>
+      </c>
+      <c r="M17" s="14">
         <v>3</v>
       </c>
-      <c r="N17" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O17" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P17" s="7">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="Q17" s="7">
+      <c r="N17" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O17" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P17" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Q17" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1551,49 +1552,49 @@
       <c r="C18" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="9">
-        <v>5</v>
-      </c>
-      <c r="E18" s="9">
-        <v>5</v>
-      </c>
-      <c r="F18" s="9">
-        <v>5</v>
-      </c>
-      <c r="G18" s="9">
-        <v>5</v>
-      </c>
-      <c r="H18" s="9">
-        <v>5</v>
-      </c>
-      <c r="I18" s="9">
-        <v>5</v>
-      </c>
-      <c r="J18" s="9">
-        <v>5</v>
-      </c>
-      <c r="K18" s="11">
-        <v>5</v>
-      </c>
-      <c r="L18" s="12">
-        <v>5</v>
-      </c>
-      <c r="M18" s="16">
+      <c r="D18" s="7">
+        <v>5</v>
+      </c>
+      <c r="E18" s="7">
+        <v>5</v>
+      </c>
+      <c r="F18" s="7">
+        <v>5</v>
+      </c>
+      <c r="G18" s="7">
+        <v>5</v>
+      </c>
+      <c r="H18" s="7">
+        <v>5</v>
+      </c>
+      <c r="I18" s="7">
+        <v>5</v>
+      </c>
+      <c r="J18" s="7">
+        <v>5</v>
+      </c>
+      <c r="K18" s="9">
+        <v>5</v>
+      </c>
+      <c r="L18" s="10">
+        <v>5</v>
+      </c>
+      <c r="M18" s="14">
         <v>2</v>
       </c>
-      <c r="N18" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O18" s="7">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="P18" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q18" s="7">
+      <c r="N18" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O18" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P18" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q18" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1612,47 +1613,48 @@
       <c r="C19" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="9">
-        <v>5</v>
-      </c>
-      <c r="E19" s="9">
-        <v>5</v>
-      </c>
-      <c r="F19" s="9">
-        <v>5</v>
-      </c>
-      <c r="G19" s="9">
-        <v>5</v>
-      </c>
-      <c r="H19" s="9">
-        <v>5</v>
-      </c>
-      <c r="I19" s="9">
-        <v>5</v>
-      </c>
-      <c r="J19" s="9">
-        <v>5</v>
-      </c>
-      <c r="L19" s="4"/>
-      <c r="M19" s="16">
+      <c r="D19" s="7">
+        <v>5</v>
+      </c>
+      <c r="E19" s="7">
+        <v>5</v>
+      </c>
+      <c r="F19" s="7">
+        <v>5</v>
+      </c>
+      <c r="G19" s="7">
+        <v>5</v>
+      </c>
+      <c r="H19" s="7">
+        <v>5</v>
+      </c>
+      <c r="I19" s="7">
+        <v>5</v>
+      </c>
+      <c r="J19" s="7">
+        <v>5</v>
+      </c>
+      <c r="L19" s="3"/>
+      <c r="M19" s="14">
         <v>2</v>
       </c>
-      <c r="N19" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O19" s="7">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="P19" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q19" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="N19" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O19" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P19" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q19" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R19" s="17"/>
       <c r="S19">
         <v>5</v>
       </c>
@@ -1671,49 +1673,49 @@
       <c r="C20" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="9">
-        <v>5</v>
-      </c>
-      <c r="E20" s="9">
-        <v>5</v>
-      </c>
-      <c r="F20" s="9">
-        <v>5</v>
-      </c>
-      <c r="G20" s="9">
-        <v>5</v>
-      </c>
-      <c r="H20" s="9">
-        <v>5</v>
-      </c>
-      <c r="I20" s="9">
-        <v>5</v>
-      </c>
-      <c r="J20" s="9">
-        <v>5</v>
-      </c>
-      <c r="K20" s="10">
-        <v>5</v>
-      </c>
-      <c r="L20" s="10">
-        <v>5</v>
-      </c>
-      <c r="M20" s="16">
+      <c r="D20" s="7">
+        <v>5</v>
+      </c>
+      <c r="E20" s="7">
+        <v>5</v>
+      </c>
+      <c r="F20" s="7">
+        <v>5</v>
+      </c>
+      <c r="G20" s="7">
+        <v>5</v>
+      </c>
+      <c r="H20" s="7">
+        <v>5</v>
+      </c>
+      <c r="I20" s="7">
+        <v>5</v>
+      </c>
+      <c r="J20" s="7">
+        <v>5</v>
+      </c>
+      <c r="K20" s="8">
+        <v>5</v>
+      </c>
+      <c r="L20" s="8">
+        <v>5</v>
+      </c>
+      <c r="M20" s="14">
         <v>2</v>
       </c>
-      <c r="N20" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O20" s="7">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="P20" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q20" s="7">
+      <c r="N20" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O20" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P20" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q20" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1732,44 +1734,44 @@
       <c r="C21" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="9">
-        <v>5</v>
-      </c>
-      <c r="E21" s="9">
-        <v>5</v>
-      </c>
-      <c r="F21" s="9">
-        <v>5</v>
-      </c>
-      <c r="G21" s="9">
-        <v>5</v>
-      </c>
-      <c r="H21" s="9">
-        <v>5</v>
-      </c>
-      <c r="I21" s="9">
-        <v>5</v>
-      </c>
-      <c r="J21" s="13">
-        <v>5</v>
-      </c>
-      <c r="L21" s="4"/>
-      <c r="M21" s="14">
+      <c r="D21" s="7">
+        <v>5</v>
+      </c>
+      <c r="E21" s="7">
+        <v>5</v>
+      </c>
+      <c r="F21" s="7">
+        <v>5</v>
+      </c>
+      <c r="G21" s="7">
+        <v>5</v>
+      </c>
+      <c r="H21" s="7">
+        <v>5</v>
+      </c>
+      <c r="I21" s="7">
+        <v>5</v>
+      </c>
+      <c r="J21" s="11">
+        <v>5</v>
+      </c>
+      <c r="L21" s="3"/>
+      <c r="M21" s="12">
         <v>3</v>
       </c>
-      <c r="N21" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O21" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P21" s="7">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="Q21" s="7">
+      <c r="N21" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O21" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P21" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Q21" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1788,49 +1790,49 @@
       <c r="C22" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="9">
-        <v>5</v>
-      </c>
-      <c r="E22" s="9">
-        <v>5</v>
-      </c>
-      <c r="F22" s="9">
-        <v>5</v>
-      </c>
-      <c r="G22" s="9">
-        <v>5</v>
-      </c>
-      <c r="H22" s="9">
-        <v>5</v>
-      </c>
-      <c r="I22" s="9">
-        <v>5</v>
-      </c>
-      <c r="J22" s="9">
-        <v>5</v>
-      </c>
-      <c r="K22" s="13">
-        <v>5</v>
-      </c>
-      <c r="L22" s="13">
-        <v>5</v>
-      </c>
-      <c r="M22" s="16">
-        <v>1</v>
-      </c>
-      <c r="N22" s="7">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="O22" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P22" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q22" s="7">
+      <c r="D22" s="7">
+        <v>5</v>
+      </c>
+      <c r="E22" s="7">
+        <v>5</v>
+      </c>
+      <c r="F22" s="7">
+        <v>5</v>
+      </c>
+      <c r="G22" s="7">
+        <v>5</v>
+      </c>
+      <c r="H22" s="7">
+        <v>5</v>
+      </c>
+      <c r="I22" s="7">
+        <v>5</v>
+      </c>
+      <c r="J22" s="7">
+        <v>5</v>
+      </c>
+      <c r="K22" s="11">
+        <v>5</v>
+      </c>
+      <c r="L22" s="11">
+        <v>5</v>
+      </c>
+      <c r="M22" s="14">
+        <v>1</v>
+      </c>
+      <c r="N22" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O22" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P22" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q22" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1852,49 +1854,49 @@
       <c r="C23" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D23" s="9">
-        <v>5</v>
-      </c>
-      <c r="E23" s="9">
-        <v>5</v>
-      </c>
-      <c r="F23" s="9">
-        <v>5</v>
-      </c>
-      <c r="G23" s="9">
-        <v>5</v>
-      </c>
-      <c r="H23" s="9">
-        <v>5</v>
-      </c>
-      <c r="I23" s="9">
-        <v>5</v>
-      </c>
-      <c r="J23" s="9">
-        <v>5</v>
-      </c>
-      <c r="K23" s="9">
-        <v>5</v>
-      </c>
-      <c r="L23" s="10">
-        <v>5</v>
-      </c>
-      <c r="M23" s="17">
+      <c r="D23" s="7">
+        <v>5</v>
+      </c>
+      <c r="E23" s="7">
+        <v>5</v>
+      </c>
+      <c r="F23" s="7">
+        <v>5</v>
+      </c>
+      <c r="G23" s="7">
+        <v>5</v>
+      </c>
+      <c r="H23" s="7">
+        <v>5</v>
+      </c>
+      <c r="I23" s="7">
+        <v>5</v>
+      </c>
+      <c r="J23" s="7">
+        <v>5</v>
+      </c>
+      <c r="K23" s="7">
+        <v>5</v>
+      </c>
+      <c r="L23" s="8">
+        <v>5</v>
+      </c>
+      <c r="M23" s="15">
         <v>4</v>
       </c>
-      <c r="N23" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O23" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P23" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q23" s="7">
+      <c r="N23" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O23" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P23" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q23" s="5">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -1913,46 +1915,46 @@
       <c r="C24" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D24" s="9">
-        <v>5</v>
-      </c>
-      <c r="E24" s="9">
-        <v>5</v>
-      </c>
-      <c r="F24" s="9">
-        <v>5</v>
-      </c>
-      <c r="G24" s="9">
-        <v>5</v>
-      </c>
-      <c r="H24" s="9">
-        <v>5</v>
-      </c>
-      <c r="I24" s="9">
-        <v>5</v>
-      </c>
-      <c r="J24" s="9">
-        <v>5</v>
-      </c>
-      <c r="K24" s="10">
-        <v>5</v>
-      </c>
-      <c r="L24" s="10">
-        <v>5</v>
-      </c>
-      <c r="N24" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O24" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P24" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q24" s="7">
+      <c r="D24" s="7">
+        <v>5</v>
+      </c>
+      <c r="E24" s="7">
+        <v>5</v>
+      </c>
+      <c r="F24" s="7">
+        <v>5</v>
+      </c>
+      <c r="G24" s="7">
+        <v>5</v>
+      </c>
+      <c r="H24" s="7">
+        <v>5</v>
+      </c>
+      <c r="I24" s="7">
+        <v>5</v>
+      </c>
+      <c r="J24" s="7">
+        <v>5</v>
+      </c>
+      <c r="K24" s="8">
+        <v>5</v>
+      </c>
+      <c r="L24" s="8">
+        <v>5</v>
+      </c>
+      <c r="N24" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O24" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P24" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q24" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1971,47 +1973,47 @@
       <c r="C25" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D25" s="9">
-        <v>5</v>
-      </c>
-      <c r="E25" s="9">
-        <v>5</v>
-      </c>
-      <c r="F25" s="9">
-        <v>5</v>
-      </c>
-      <c r="G25" s="9">
-        <v>5</v>
-      </c>
-      <c r="H25" s="9">
-        <v>5</v>
-      </c>
-      <c r="I25" s="9">
-        <v>5</v>
-      </c>
-      <c r="J25" s="11">
-        <v>5</v>
-      </c>
-      <c r="K25" s="11">
-        <v>5</v>
-      </c>
-      <c r="L25" s="4"/>
-      <c r="M25" s="16">
+      <c r="D25" s="7">
+        <v>5</v>
+      </c>
+      <c r="E25" s="7">
+        <v>5</v>
+      </c>
+      <c r="F25" s="7">
+        <v>5</v>
+      </c>
+      <c r="G25" s="7">
+        <v>5</v>
+      </c>
+      <c r="H25" s="7">
+        <v>5</v>
+      </c>
+      <c r="I25" s="7">
+        <v>5</v>
+      </c>
+      <c r="J25" s="9">
+        <v>5</v>
+      </c>
+      <c r="K25" s="9">
+        <v>5</v>
+      </c>
+      <c r="L25" s="3"/>
+      <c r="M25" s="14">
         <v>3</v>
       </c>
-      <c r="N25" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O25" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P25" s="7">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="Q25" s="7">
+      <c r="N25" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O25" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P25" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Q25" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2033,49 +2035,49 @@
       <c r="C26" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D26" s="9">
-        <v>5</v>
-      </c>
-      <c r="E26" s="9">
-        <v>5</v>
-      </c>
-      <c r="F26" s="9">
-        <v>5</v>
-      </c>
-      <c r="G26" s="9">
-        <v>5</v>
-      </c>
-      <c r="H26" s="9">
-        <v>5</v>
-      </c>
-      <c r="I26" s="9">
-        <v>5</v>
-      </c>
-      <c r="J26" s="9">
-        <v>5</v>
-      </c>
-      <c r="K26" s="10">
-        <v>5</v>
-      </c>
-      <c r="L26" s="10">
-        <v>5</v>
-      </c>
-      <c r="M26" s="16">
+      <c r="D26" s="7">
+        <v>5</v>
+      </c>
+      <c r="E26" s="7">
+        <v>5</v>
+      </c>
+      <c r="F26" s="7">
+        <v>5</v>
+      </c>
+      <c r="G26" s="7">
+        <v>5</v>
+      </c>
+      <c r="H26" s="7">
+        <v>5</v>
+      </c>
+      <c r="I26" s="7">
+        <v>5</v>
+      </c>
+      <c r="J26" s="7">
+        <v>5</v>
+      </c>
+      <c r="K26" s="8">
+        <v>5</v>
+      </c>
+      <c r="L26" s="8">
+        <v>5</v>
+      </c>
+      <c r="M26" s="14">
         <v>4</v>
       </c>
-      <c r="N26" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O26" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P26" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q26" s="7">
+      <c r="N26" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O26" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P26" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q26" s="5">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -2100,23 +2102,23 @@
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="14">
+      <c r="L27" s="3"/>
+      <c r="M27" s="12">
         <v>3</v>
       </c>
-      <c r="N27" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O27" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P27" s="7">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="Q27" s="7">
+      <c r="N27" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O27" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P27" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Q27" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2144,23 +2146,23 @@
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="14">
+      <c r="L28" s="3"/>
+      <c r="M28" s="12">
         <v>3</v>
       </c>
-      <c r="N28" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O28" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P28" s="7">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="Q28" s="7">
+      <c r="N28" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O28" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P28" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Q28" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2182,49 +2184,49 @@
       <c r="C29" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D29" s="9">
-        <v>5</v>
-      </c>
-      <c r="E29" s="9">
-        <v>5</v>
-      </c>
-      <c r="F29" s="9">
-        <v>5</v>
-      </c>
-      <c r="G29" s="9">
-        <v>5</v>
-      </c>
-      <c r="H29" s="9">
-        <v>5</v>
-      </c>
-      <c r="I29" s="9">
-        <v>5</v>
-      </c>
-      <c r="J29" s="9">
-        <v>5</v>
-      </c>
-      <c r="K29" s="12">
-        <v>5</v>
-      </c>
-      <c r="L29" s="12">
-        <v>5</v>
-      </c>
-      <c r="M29" s="16">
-        <v>1</v>
-      </c>
-      <c r="N29" s="7">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="O29" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P29" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q29" s="7">
+      <c r="D29" s="7">
+        <v>5</v>
+      </c>
+      <c r="E29" s="7">
+        <v>5</v>
+      </c>
+      <c r="F29" s="7">
+        <v>5</v>
+      </c>
+      <c r="G29" s="7">
+        <v>5</v>
+      </c>
+      <c r="H29" s="7">
+        <v>5</v>
+      </c>
+      <c r="I29" s="7">
+        <v>5</v>
+      </c>
+      <c r="J29" s="7">
+        <v>5</v>
+      </c>
+      <c r="K29" s="10">
+        <v>5</v>
+      </c>
+      <c r="L29" s="10">
+        <v>5</v>
+      </c>
+      <c r="M29" s="14">
+        <v>1</v>
+      </c>
+      <c r="N29" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O29" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P29" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q29" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2246,49 +2248,49 @@
       <c r="C30" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D30" s="9">
-        <v>5</v>
-      </c>
-      <c r="E30" s="9">
-        <v>5</v>
-      </c>
-      <c r="F30" s="9">
-        <v>5</v>
-      </c>
-      <c r="G30" s="9">
-        <v>5</v>
-      </c>
-      <c r="H30" s="9">
-        <v>5</v>
-      </c>
-      <c r="I30" s="9">
-        <v>5</v>
-      </c>
-      <c r="J30" s="11">
-        <v>5</v>
-      </c>
-      <c r="K30" s="12">
-        <v>5</v>
-      </c>
-      <c r="L30" s="12">
-        <v>5</v>
-      </c>
-      <c r="M30" s="14">
+      <c r="D30" s="7">
+        <v>5</v>
+      </c>
+      <c r="E30" s="7">
+        <v>5</v>
+      </c>
+      <c r="F30" s="7">
+        <v>5</v>
+      </c>
+      <c r="G30" s="7">
+        <v>5</v>
+      </c>
+      <c r="H30" s="7">
+        <v>5</v>
+      </c>
+      <c r="I30" s="7">
+        <v>5</v>
+      </c>
+      <c r="J30" s="9">
+        <v>5</v>
+      </c>
+      <c r="K30" s="10">
+        <v>5</v>
+      </c>
+      <c r="L30" s="10">
+        <v>5</v>
+      </c>
+      <c r="M30" s="12">
         <v>3</v>
       </c>
-      <c r="N30" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O30" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P30" s="7">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="Q30" s="7">
+      <c r="N30" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O30" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P30" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Q30" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2313,24 +2315,24 @@
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
-      <c r="L31" s="4"/>
-      <c r="N31" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O31" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P31" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q31" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S31" t="s">
+      <c r="L31" s="3"/>
+      <c r="N31" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O31" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P31" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q31" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T31" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2345,49 +2347,49 @@
       <c r="C32" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D32" s="9">
-        <v>5</v>
-      </c>
-      <c r="E32" s="9">
-        <v>5</v>
-      </c>
-      <c r="F32" s="9">
-        <v>5</v>
-      </c>
-      <c r="G32" s="9">
-        <v>5</v>
-      </c>
-      <c r="H32" s="9">
-        <v>5</v>
-      </c>
-      <c r="I32" s="9">
-        <v>5</v>
-      </c>
-      <c r="J32" s="9">
-        <v>5</v>
-      </c>
-      <c r="K32" s="10">
-        <v>5</v>
-      </c>
-      <c r="L32" s="10">
-        <v>5</v>
-      </c>
-      <c r="M32" s="16">
+      <c r="D32" s="7">
+        <v>5</v>
+      </c>
+      <c r="E32" s="7">
+        <v>5</v>
+      </c>
+      <c r="F32" s="7">
+        <v>5</v>
+      </c>
+      <c r="G32" s="7">
+        <v>5</v>
+      </c>
+      <c r="H32" s="7">
+        <v>5</v>
+      </c>
+      <c r="I32" s="7">
+        <v>5</v>
+      </c>
+      <c r="J32" s="7">
+        <v>5</v>
+      </c>
+      <c r="K32" s="8">
+        <v>5</v>
+      </c>
+      <c r="L32" s="8">
+        <v>5</v>
+      </c>
+      <c r="M32" s="14">
         <v>2</v>
       </c>
-      <c r="N32" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O32" s="7">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="P32" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q32" s="7">
+      <c r="N32" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O32" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P32" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q32" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2395,26 +2397,458 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="3:9" ht="14.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-    </row>
-    <row r="34" spans="3:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C34" s="6"/>
-    </row>
-    <row r="35" spans="3:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" spans="3:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" spans="3:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" spans="3:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" spans="3:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" spans="3:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" spans="3:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" spans="3:20" ht="14.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C33" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D33" s="7">
+        <v>5</v>
+      </c>
+      <c r="E33" s="7">
+        <v>5</v>
+      </c>
+      <c r="F33" s="7">
+        <v>5</v>
+      </c>
+      <c r="G33" s="7">
+        <v>5</v>
+      </c>
+      <c r="H33" s="7">
+        <v>5</v>
+      </c>
+      <c r="I33" s="7">
+        <v>5</v>
+      </c>
+      <c r="J33" s="7">
+        <v>5</v>
+      </c>
+      <c r="K33" s="8">
+        <v>5</v>
+      </c>
+      <c r="L33" s="8">
+        <v>5</v>
+      </c>
+      <c r="M33" s="14">
+        <v>2</v>
+      </c>
+      <c r="N33" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O33" s="6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P33" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q33" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R33" s="6"/>
+      <c r="S33" s="6">
+        <v>5</v>
+      </c>
+      <c r="T33" s="6"/>
+    </row>
+    <row r="34" spans="3:20" ht="14.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C34" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D34" s="7">
+        <v>5</v>
+      </c>
+      <c r="E34" s="7">
+        <v>5</v>
+      </c>
+      <c r="F34" s="7">
+        <v>5</v>
+      </c>
+      <c r="G34" s="7">
+        <v>5</v>
+      </c>
+      <c r="H34" s="7">
+        <v>5</v>
+      </c>
+      <c r="I34" s="7">
+        <v>5</v>
+      </c>
+      <c r="J34" s="7">
+        <v>5</v>
+      </c>
+      <c r="K34" s="8">
+        <v>5</v>
+      </c>
+      <c r="L34" s="8">
+        <v>5</v>
+      </c>
+      <c r="M34" s="14">
+        <v>2</v>
+      </c>
+      <c r="N34" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O34" s="6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P34" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q34" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R34" s="6"/>
+      <c r="S34" s="6">
+        <v>5</v>
+      </c>
+      <c r="T34" s="6"/>
+    </row>
+    <row r="35" spans="3:20" ht="14.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C35" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D35" s="7">
+        <v>5</v>
+      </c>
+      <c r="E35" s="7">
+        <v>5</v>
+      </c>
+      <c r="F35" s="7">
+        <v>5</v>
+      </c>
+      <c r="G35" s="7">
+        <v>5</v>
+      </c>
+      <c r="H35" s="7">
+        <v>5</v>
+      </c>
+      <c r="I35" s="7">
+        <v>5</v>
+      </c>
+      <c r="J35" s="7">
+        <v>5</v>
+      </c>
+      <c r="K35" s="8">
+        <v>5</v>
+      </c>
+      <c r="L35" s="8">
+        <v>5</v>
+      </c>
+      <c r="M35" s="14">
+        <v>2</v>
+      </c>
+      <c r="N35" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O35" s="6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P35" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q35" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R35" s="6"/>
+      <c r="S35" s="6">
+        <v>5</v>
+      </c>
+      <c r="T35" s="6"/>
+    </row>
+    <row r="36" spans="3:20" ht="14.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C36" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D36" s="7">
+        <v>5</v>
+      </c>
+      <c r="E36" s="7">
+        <v>5</v>
+      </c>
+      <c r="F36" s="7">
+        <v>5</v>
+      </c>
+      <c r="G36" s="7">
+        <v>5</v>
+      </c>
+      <c r="H36" s="7">
+        <v>5</v>
+      </c>
+      <c r="I36" s="7">
+        <v>5</v>
+      </c>
+      <c r="J36" s="7">
+        <v>5</v>
+      </c>
+      <c r="K36" s="8">
+        <v>5</v>
+      </c>
+      <c r="L36" s="8">
+        <v>5</v>
+      </c>
+      <c r="M36" s="14">
+        <v>2</v>
+      </c>
+      <c r="N36" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O36" s="6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P36" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q36" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R36" s="6"/>
+      <c r="S36" s="6">
+        <v>5</v>
+      </c>
+      <c r="T36" s="6"/>
+    </row>
+    <row r="37" spans="3:20" ht="14.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C37" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D37" s="7">
+        <v>5</v>
+      </c>
+      <c r="E37" s="7">
+        <v>5</v>
+      </c>
+      <c r="F37" s="7">
+        <v>5</v>
+      </c>
+      <c r="G37" s="7">
+        <v>5</v>
+      </c>
+      <c r="H37" s="7">
+        <v>5</v>
+      </c>
+      <c r="I37" s="7">
+        <v>5</v>
+      </c>
+      <c r="J37" s="7">
+        <v>5</v>
+      </c>
+      <c r="K37" s="8">
+        <v>5</v>
+      </c>
+      <c r="L37" s="8">
+        <v>5</v>
+      </c>
+      <c r="M37" s="14">
+        <v>2</v>
+      </c>
+      <c r="N37" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O37" s="6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P37" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q37" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R37" s="6"/>
+      <c r="S37" s="6">
+        <v>5</v>
+      </c>
+      <c r="T37" s="6"/>
+    </row>
+    <row r="38" spans="3:20" ht="14.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C38" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D38" s="7">
+        <v>5</v>
+      </c>
+      <c r="E38" s="7">
+        <v>5</v>
+      </c>
+      <c r="F38" s="7">
+        <v>5</v>
+      </c>
+      <c r="G38" s="7">
+        <v>5</v>
+      </c>
+      <c r="H38" s="7">
+        <v>5</v>
+      </c>
+      <c r="I38" s="7">
+        <v>5</v>
+      </c>
+      <c r="J38" s="7">
+        <v>5</v>
+      </c>
+      <c r="K38" s="8">
+        <v>5</v>
+      </c>
+      <c r="L38" s="8">
+        <v>5</v>
+      </c>
+      <c r="M38" s="14">
+        <v>2</v>
+      </c>
+      <c r="N38" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O38" s="6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P38" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q38" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R38" s="6"/>
+      <c r="S38" s="6">
+        <v>5</v>
+      </c>
+      <c r="T38" s="6"/>
+    </row>
+    <row r="39" spans="3:20" ht="14.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C39" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D39" s="7">
+        <v>5</v>
+      </c>
+      <c r="E39" s="7">
+        <v>5</v>
+      </c>
+      <c r="F39" s="7">
+        <v>5</v>
+      </c>
+      <c r="G39" s="7">
+        <v>5</v>
+      </c>
+      <c r="H39" s="7">
+        <v>5</v>
+      </c>
+      <c r="I39" s="7">
+        <v>5</v>
+      </c>
+      <c r="J39" s="7">
+        <v>5</v>
+      </c>
+      <c r="K39" s="8">
+        <v>5</v>
+      </c>
+      <c r="L39" s="8">
+        <v>5</v>
+      </c>
+      <c r="M39" s="14">
+        <v>2</v>
+      </c>
+      <c r="N39" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O39" s="6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P39" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q39" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R39" s="6"/>
+      <c r="S39" s="6">
+        <v>5</v>
+      </c>
+      <c r="T39" s="6"/>
+    </row>
+    <row r="40" spans="3:20" ht="14.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C40" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D40" s="7">
+        <v>5</v>
+      </c>
+      <c r="E40" s="7">
+        <v>5</v>
+      </c>
+      <c r="F40" s="7">
+        <v>5</v>
+      </c>
+      <c r="G40" s="7">
+        <v>5</v>
+      </c>
+      <c r="H40" s="7">
+        <v>5</v>
+      </c>
+      <c r="I40" s="7">
+        <v>5</v>
+      </c>
+      <c r="J40" s="7">
+        <v>5</v>
+      </c>
+      <c r="K40" s="8">
+        <v>5</v>
+      </c>
+      <c r="L40" s="8">
+        <v>5</v>
+      </c>
+      <c r="M40" s="14">
+        <v>2</v>
+      </c>
+      <c r="N40" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O40" s="6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P40" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q40" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R40" s="6"/>
+      <c r="S40" s="6">
+        <v>5</v>
+      </c>
+      <c r="T40" s="6"/>
+    </row>
+    <row r="41" spans="3:20" ht="14.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>